--- a/USE_CASE_LEVEZETES.xlsx
+++ b/USE_CASE_LEVEZETES.xlsx
@@ -1,18 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csern\OneDrive\Dokumentumok\GitHub\SzoftTech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goczi\OneDrive\Dokumentumok\GitHub\SzoftTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA40352-0CA2-43BD-AA8A-3ABBE163DB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9072"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Munka1" sheetId="1" r:id="rId1"/>
+    <sheet name="Use-case desc." sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -252,7 +253,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -453,20 +454,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -477,9 +472,6 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -494,19 +486,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -783,395 +781,395 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.77734375" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="71" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="9" t="s">
+      <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" s="10" t="s">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="7" t="s">
+      <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="11" t="s">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="11"/>
-      <c r="B4" s="5"/>
-    </row>
-    <row r="5" spans="1:2" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="12" t="s">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="19"/>
+      <c r="B4" s="20"/>
+    </row>
+    <row r="5" spans="1:2" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="4" t="s">
+      <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="B6" s="4" t="s">
+      <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="12" t="s">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
-      <c r="B7" s="4" t="s">
+      <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="12" t="s">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="4" t="s">
+      <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="12" t="s">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="B9" s="4" t="s">
+      <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="12" t="s">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="B10" s="4" t="s">
+      <c r="B10" s="3" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="12" t="s">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="B11" s="4" t="s">
+      <c r="B11" s="3" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="13" t="s">
+    <row r="12" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B12" s="6" t="s">
+      <c r="B12" s="4" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="8" t="s">
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B14" s="9" t="s">
+      <c r="B14" s="7" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="10" t="s">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B15" s="7" t="s">
+      <c r="B15" s="5" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="11" t="s">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="5" t="s">
+      <c r="B16" s="20" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="11"/>
-      <c r="B17" s="5"/>
-    </row>
-    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A18" s="12" t="s">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="19"/>
+      <c r="B17" s="20"/>
+    </row>
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A18" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B18" s="4" t="s">
+      <c r="B18" s="3" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A19" s="12" t="s">
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A19" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B19" s="4" t="s">
+      <c r="B19" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
-      <c r="A20" s="14" t="s">
+    <row r="20" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+      <c r="A20" s="11" t="s">
         <v>28</v>
       </c>
-      <c r="B20" s="4" t="s">
+      <c r="B20" s="3" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A21" s="14" t="s">
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A21" s="11" t="s">
         <v>29</v>
       </c>
-      <c r="B21" s="4" t="s">
+      <c r="B21" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A22" s="14" t="s">
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A22" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="B22" s="4" t="s">
+      <c r="B22" s="3" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A23" s="14" t="s">
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A23" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="B23" s="4" t="s">
+      <c r="B23" s="3" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="87" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="15" t="s">
+    <row r="24" spans="1:2" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="12" t="s">
         <v>19</v>
       </c>
-      <c r="B24" s="6" t="s">
+      <c r="B24" s="4" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="3"/>
-      <c r="B25" s="3"/>
-    </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A26" s="8" t="s">
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="1"/>
+    </row>
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B26" s="9" t="s">
+      <c r="B26" s="7" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="10" t="s">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B27" s="7" t="s">
+      <c r="B27" s="5" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="11" t="s">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A28" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="5" t="s">
+      <c r="B28" s="20" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="0.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="11"/>
-      <c r="B29" s="5"/>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="12" t="s">
+    <row r="29" spans="1:2" ht="0.6" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="19"/>
+      <c r="B29" s="20"/>
+    </row>
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A30" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="4" t="s">
+      <c r="B30" s="3" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A31" s="12" t="s">
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A31" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B31" s="4" t="s">
+      <c r="B31" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A32" s="14" t="s">
+    <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="B32" s="4" t="s">
+      <c r="B32" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="14" t="s">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="B33" s="4" t="s">
+      <c r="B33" s="3" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A34" s="14" t="s">
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A34" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B34" s="4" t="s">
+      <c r="B34" s="3" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A35" s="15" t="s">
+    <row r="35" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="12" t="s">
         <v>46</v>
       </c>
-      <c r="B35" s="6" t="s">
+      <c r="B35" s="4" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
-      <c r="B36" s="3"/>
-    </row>
-    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A37" s="8" t="s">
+      <c r="B36" s="1"/>
+    </row>
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B37" s="9" t="s">
+      <c r="B37" s="7" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="10" t="s">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="B38" s="7" t="s">
+      <c r="B38" s="5" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="11" t="s">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="19" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="5" t="s">
+      <c r="B39" s="20" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="11"/>
-      <c r="B40" s="5"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A41" s="12" t="s">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="19"/>
+      <c r="B40" s="20"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="9" t="s">
         <v>6</v>
       </c>
-      <c r="B41" s="4" t="s">
+      <c r="B41" s="3" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A42" s="12" t="s">
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A42" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A43" s="14" t="s">
+    <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A43" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="B43" s="4" t="s">
+      <c r="B43" s="3" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A44" s="14" t="s">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="B44" s="4" t="s">
+      <c r="B44" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A45" s="14" t="s">
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A45" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="B45" s="4" t="s">
+      <c r="B45" s="3" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A46" s="14" t="s">
+    <row r="46" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="B46" s="4" t="s">
+      <c r="B46" s="3" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A47" s="14" t="s">
+    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="A47" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="B47" s="4" t="s">
+      <c r="B47" s="3" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A48" s="14" t="s">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="B48" s="4" t="s">
+      <c r="B48" s="3" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="16" t="s">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="13" t="s">
         <v>63</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="14" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="20"/>
-      <c r="B50" s="21"/>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="3"/>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="19"/>
-      <c r="B52" s="3"/>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="18"/>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="17"/>
+      <c r="B50" s="18"/>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B51" s="1"/>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A52" s="16"/>
+      <c r="B52" s="1"/>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B56" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="8">

--- a/USE_CASE_LEVEZETES.xlsx
+++ b/USE_CASE_LEVEZETES.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goczi\OneDrive\Dokumentumok\GitHub\SzoftTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3CA40352-0CA2-43BD-AA8A-3ABBE163DB54}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED11A56-5127-4E37-AE70-E28D83326776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Use-case desc." sheetId="1" r:id="rId1"/>
+    <sheet name="Use-case" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
   <si>
     <t>Use case name</t>
   </si>
@@ -248,6 +248,33 @@
   </si>
   <si>
     <t>Az adatfelvitel sikertelen ha helytelenül írta be a parancsot a felhasználó</t>
+  </si>
+  <si>
+    <t>Név:</t>
+  </si>
+  <si>
+    <t>Követelmények:</t>
+  </si>
+  <si>
+    <t>Cél:</t>
+  </si>
+  <si>
+    <t>Előfeltétel:</t>
+  </si>
+  <si>
+    <t>Elsődleges aktor:</t>
+  </si>
+  <si>
+    <t>Másodlagos aktor:</t>
+  </si>
+  <si>
+    <t>Kiváltó esemény:</t>
+  </si>
+  <si>
+    <t>Fő lépések:</t>
+  </si>
+  <si>
+    <t>Kivételek:</t>
   </si>
 </sst>
 </file>
@@ -782,87 +809,115 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B56"/>
+  <dimension ref="A1:E56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="71" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="20"/>
-    </row>
-    <row r="5" spans="1:2" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="E4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="E5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+      <c r="E7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
@@ -870,7 +925,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
@@ -878,7 +933,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
@@ -886,10 +941,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>0</v>
       </c>
@@ -897,7 +952,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>2</v>
       </c>
@@ -905,7 +960,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>4</v>
       </c>

--- a/USE_CASE_LEVEZETES.xlsx
+++ b/USE_CASE_LEVEZETES.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goczi\OneDrive\Dokumentumok\GitHub\SzoftTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6ED11A56-5127-4E37-AE70-E28D83326776}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D44FD65-7C1E-434B-94C9-228DB1E33411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use-case" sheetId="1" r:id="rId1"/>
+    <sheet name="Tarczali féle Use-Case" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -809,10 +810,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E56"/>
+  <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -822,102 +823,75 @@
     <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="E1" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="E2" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
         <v>4</v>
       </c>
       <c r="B3" s="20" t="s">
         <v>5</v>
       </c>
-      <c r="E3" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="19"/>
       <c r="B4" s="20"/>
-      <c r="E4" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="E5" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E6" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="E9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
@@ -925,7 +899,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:5" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
@@ -933,7 +907,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:5" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
@@ -941,10 +915,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>0</v>
       </c>
@@ -952,7 +926,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>2</v>
       </c>
@@ -960,7 +934,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
         <v>4</v>
       </c>
@@ -1240,4 +1214,67 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCED03D7-F9F8-4C6F-ABE1-D755948D3A46}">
+  <dimension ref="A1:A9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>73</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/USE_CASE_LEVEZETES.xlsx
+++ b/USE_CASE_LEVEZETES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goczi\OneDrive\Dokumentumok\GitHub\SzoftTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D44FD65-7C1E-434B-94C9-228DB1E33411}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C1CD64-A993-496C-AACB-CE90A4C33163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
   <si>
     <t>Use case name</t>
   </si>
@@ -277,12 +277,78 @@
   <si>
     <t>Kivételek:</t>
   </si>
+  <si>
+    <t>Belépés</t>
+  </si>
+  <si>
+    <t>1.</t>
+  </si>
+  <si>
+    <t>A felhasználók be tudjanak  lépni a saját profiljaikba</t>
+  </si>
+  <si>
+    <t>nincs</t>
+  </si>
+  <si>
+    <t>Felhasználó</t>
+  </si>
+  <si>
+    <t>Külső adatbázis</t>
+  </si>
+  <si>
+    <t>A felhasználó szeretne belépni a profiljába</t>
+  </si>
+  <si>
+    <t>A felhasználó utasítást ad a rendszernek, hogy be akar lépni.</t>
+  </si>
+  <si>
+    <t>2.</t>
+  </si>
+  <si>
+    <t>A rendszer visszaad egy kitöltendő belépési felületet.</t>
+  </si>
+  <si>
+    <t>3.</t>
+  </si>
+  <si>
+    <t>A felhasználó visszaküldi a kitöltött beléptető felületet.</t>
+  </si>
+  <si>
+    <t>4.</t>
+  </si>
+  <si>
+    <t>A rendszer ellenőrzi a külső adatbázisban, hogy van-e ilyen felhasználó, ha igen akkor beengedi.</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>Hiányosan küldi vissza a felhasználó a beléptetű felületet</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>A rendszer jelzi, hogy melyik mező nem lett kitöltve.</t>
+  </si>
+  <si>
+    <t>4.1</t>
+  </si>
+  <si>
+    <t>Nem megfelelő adatokkal akart belépni egy felhasználó</t>
+  </si>
+  <si>
+    <t>4.2</t>
+  </si>
+  <si>
+    <t>A rendszer hibaüzenetet dob.</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -299,6 +365,21 @@
       <family val="2"/>
       <charset val="238"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="4">
@@ -321,7 +402,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -478,11 +559,26 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -529,6 +625,39 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -813,7 +942,7 @@
   <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="A2" sqref="A2:A12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1218,63 +1347,156 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCED03D7-F9F8-4C6F-ABE1-D755948D3A46}">
-  <dimension ref="A1:A9"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A10" sqref="A10"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="22" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" style="23" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="21"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="B1" s="30" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="25" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="B2" s="31" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="24" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B3" s="32" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+      <c r="B4" s="32" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A5" s="26" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+      <c r="B5" s="32" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="26" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
+      <c r="B6" s="32" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A7" s="26" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B7" s="32" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="26" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B8" s="32"/>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="B9" s="32" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="B10" s="32" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="27" t="s">
+        <v>84</v>
+      </c>
+      <c r="B11" s="32" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A12" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="B12" s="32" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="26" t="s">
         <v>73</v>
       </c>
+      <c r="B13" s="32"/>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="29" t="s">
+        <v>88</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="29" t="s">
+        <v>90</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A16" s="27" t="s">
+        <v>92</v>
+      </c>
+      <c r="B16" s="32" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="B17" s="33" t="s">
+        <v>95</v>
+      </c>
     </row>
   </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A3:A4"/>
+    <mergeCell ref="A14:A15"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/USE_CASE_LEVEZETES.xlsx
+++ b/USE_CASE_LEVEZETES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goczi\OneDrive\Dokumentumok\GitHub\SzoftTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C1CD64-A993-496C-AACB-CE90A4C33163}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0155C65-44F4-45FA-95DC-E83A0C6757CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -620,12 +620,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -638,15 +632,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -659,6 +647,16 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -941,8 +939,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:A12"/>
+    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -969,16 +967,16 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="19" t="s">
+      <c r="A3" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="20" t="s">
+      <c r="B3" s="31" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="19"/>
-      <c r="B4" s="20"/>
+      <c r="A4" s="30"/>
+      <c r="B4" s="31"/>
     </row>
     <row r="5" spans="1:2" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -1064,16 +1062,16 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="31" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="19"/>
-      <c r="B17" s="20"/>
+      <c r="A17" s="30"/>
+      <c r="B17" s="31"/>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
@@ -1152,16 +1150,16 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="19" t="s">
+      <c r="A28" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B28" s="31" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="0.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="19"/>
-      <c r="B29" s="20"/>
+      <c r="A29" s="30"/>
+      <c r="B29" s="31"/>
     </row>
     <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
@@ -1232,16 +1230,16 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="19" t="s">
+      <c r="A39" s="30" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="20" t="s">
+      <c r="B39" s="31" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="19"/>
-      <c r="B40" s="20"/>
+      <c r="A40" s="30"/>
+      <c r="B40" s="31"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
@@ -1350,151 +1348,150 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F13" sqref="F13"/>
+      <selection activeCell="E6" sqref="E6:E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="22" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" style="23" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="21"/>
+    <col min="1" max="1" width="17.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" style="21" customWidth="1"/>
+    <col min="3" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="30" t="s">
+      <c r="A1" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="30" t="s">
+      <c r="B1" s="26" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="31" t="s">
+      <c r="B2" s="27" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="24" t="s">
+      <c r="A3" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="28" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="24" t="s">
+      <c r="A4" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="32" t="s">
+      <c r="B4" s="28" t="s">
         <v>77</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="22" t="s">
         <v>69</v>
       </c>
-      <c r="B5" s="32" t="s">
+      <c r="B5" s="28" t="s">
         <v>78</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" s="26" t="s">
+      <c r="A6" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B6" s="32" t="s">
+      <c r="B6" s="28" t="s">
         <v>79</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="26" t="s">
+      <c r="A7" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="B7" s="32" t="s">
+      <c r="B7" s="28" t="s">
         <v>80</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
+      <c r="A8" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="32"/>
+      <c r="B8" s="28"/>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="27" t="s">
+      <c r="A9" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="B9" s="32" t="s">
+      <c r="B9" s="28" t="s">
         <v>81</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" s="27" t="s">
+      <c r="A10" s="24" t="s">
         <v>82</v>
       </c>
-      <c r="B10" s="32" t="s">
+      <c r="B10" s="28" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" s="27" t="s">
+      <c r="A11" s="24" t="s">
         <v>84</v>
       </c>
-      <c r="B11" s="32" t="s">
+      <c r="B11" s="28" t="s">
         <v>85</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="27" t="s">
+      <c r="A12" s="24" t="s">
         <v>86</v>
       </c>
-      <c r="B12" s="32" t="s">
+      <c r="B12" s="28" t="s">
         <v>87</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="26" t="s">
+      <c r="A13" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B13" s="32"/>
+      <c r="B13" s="28"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="29" t="s">
+      <c r="A14" s="32" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="32" t="s">
+      <c r="B14" s="28" t="s">
         <v>89</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="29" t="s">
+      <c r="A15" s="32" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="32" t="s">
+      <c r="B15" s="28" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="27" t="s">
+      <c r="A16" s="24" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="28" t="s">
         <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="28" t="s">
+      <c r="A17" s="25" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="33" t="s">
+      <c r="B17" s="29" t="s">
         <v>95</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="2">
-    <mergeCell ref="A3:A4"/>
+  <mergeCells count="1">
     <mergeCell ref="A14:A15"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/USE_CASE_LEVEZETES.xlsx
+++ b/USE_CASE_LEVEZETES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goczi\OneDrive\Dokumentumok\GitHub\SzoftTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0155C65-44F4-45FA-95DC-E83A0C6757CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB481B4-90F8-4AEA-A9B4-84C96EE3CC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -578,7 +578,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -647,16 +647,13 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -967,16 +964,16 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="31" t="s">
+      <c r="B3" s="32" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="30"/>
-      <c r="B4" s="31"/>
+      <c r="A4" s="31"/>
+      <c r="B4" s="32"/>
     </row>
     <row r="5" spans="1:2" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -1062,16 +1059,16 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="31" t="s">
+      <c r="B16" s="32" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="30"/>
-      <c r="B17" s="31"/>
+      <c r="A17" s="31"/>
+      <c r="B17" s="32"/>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
@@ -1150,16 +1147,16 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="30" t="s">
+      <c r="A28" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="31" t="s">
+      <c r="B28" s="32" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="0.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="30"/>
-      <c r="B29" s="31"/>
+      <c r="A29" s="31"/>
+      <c r="B29" s="32"/>
     </row>
     <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
@@ -1230,16 +1227,16 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="30" t="s">
+      <c r="A39" s="31" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="31" t="s">
+      <c r="B39" s="32" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="30"/>
-      <c r="B40" s="31"/>
+      <c r="A40" s="31"/>
+      <c r="B40" s="32"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
@@ -1348,7 +1345,7 @@
   <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6:E7"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1375,7 +1372,7 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="A3" s="30" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="28" t="s">
@@ -1383,7 +1380,7 @@
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="A4" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B4" s="28" t="s">
@@ -1459,7 +1456,7 @@
       <c r="B13" s="28"/>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="24" t="s">
         <v>88</v>
       </c>
       <c r="B14" s="28" t="s">
@@ -1467,7 +1464,7 @@
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="24" t="s">
         <v>90</v>
       </c>
       <c r="B15" s="28" t="s">
@@ -1491,9 +1488,6 @@
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A14:A15"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/USE_CASE_LEVEZETES.xlsx
+++ b/USE_CASE_LEVEZETES.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goczi\OneDrive\Dokumentumok\GitHub\SzoftTech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kubik Márton\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4BB481B4-90F8-4AEA-A9B4-84C96EE3CC44}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E823C0D-4959-4675-9B9B-6BDBEAD2446E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19200" yWindow="0" windowWidth="19200" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use-case" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="151">
   <si>
     <t>Use case name</t>
   </si>
@@ -323,9 +323,6 @@
     <t>3.1</t>
   </si>
   <si>
-    <t>Hiányosan küldi vissza a felhasználó a beléptetű felületet</t>
-  </si>
-  <si>
     <t>3.2</t>
   </si>
   <si>
@@ -342,13 +339,181 @@
   </si>
   <si>
     <t>A rendszer hibaüzenetet dob.</t>
+  </si>
+  <si>
+    <t>Hiányosan küldi vissza a felhasználó a beléptető felületet</t>
+  </si>
+  <si>
+    <t>Új beteg létrehozása</t>
+  </si>
+  <si>
+    <t>Az orvos létre tudja hozni a beteg fiókját.</t>
+  </si>
+  <si>
+    <t>Az orvos legyen bejelentkezve</t>
+  </si>
+  <si>
+    <t>Orvos</t>
+  </si>
+  <si>
+    <t>Az orvos létre akar hozni egy új beteg-fiókot.</t>
+  </si>
+  <si>
+    <t>Az orvos utasítást ad a rendszernek, hogy új beteg-fiókot akar létrehozni.</t>
+  </si>
+  <si>
+    <t>A rendszer visszaad egy kitöltendő felületet.</t>
+  </si>
+  <si>
+    <t>Az orvos visszaküldi a kitöltött regisztrációs felületet.</t>
+  </si>
+  <si>
+    <t>A rendszer ellenőrzi a külső adatbázisban, hogy van-e ilyen felhasználó, ha nincs akkor regisztrál egy új beteg felhasználót.</t>
+  </si>
+  <si>
+    <t>Hiányosan küldi vissza az orvos az űrlapot.</t>
+  </si>
+  <si>
+    <t>Már létezik ilyen beteg.</t>
+  </si>
+  <si>
+    <t>Az orvos receptet szeretne felírni a betegnek.</t>
+  </si>
+  <si>
+    <t>Az orvos utasítást ad a rendszernek, hogy receptet akar felírni.</t>
+  </si>
+  <si>
+    <t>Az orvos visszaküldi a kitöltött recept sablont.</t>
+  </si>
+  <si>
+    <t>A rendszer visszaad egy kitöltendő sablont.</t>
+  </si>
+  <si>
+    <t>A rendszer hozzáadja a beteg recept listájához.</t>
+  </si>
+  <si>
+    <t>Hiányosan küldi vissza az orvos a receptet.</t>
+  </si>
+  <si>
+    <t>Nem adja hozzá a receptet a listához.</t>
+  </si>
+  <si>
+    <t>Új recept hozzáadása</t>
+  </si>
+  <si>
+    <t>Recept megtekintése</t>
+  </si>
+  <si>
+    <t>Az orvos hozzá tudjon adni receptet a beteg fiókjához.</t>
+  </si>
+  <si>
+    <t>Orvos legyen bejelentkezve</t>
+  </si>
+  <si>
+    <t>Gyógyszertár legyen bejelentkezve</t>
+  </si>
+  <si>
+    <t>Beteg legyen bejelentkezve</t>
+  </si>
+  <si>
+    <t>Gyógyszertár</t>
+  </si>
+  <si>
+    <t>Beteg</t>
+  </si>
+  <si>
+    <t>Az orvos meg akarja tekinteni a recepteket</t>
+  </si>
+  <si>
+    <t>A gyógyszertár meg akarja tekinteni a recepteket</t>
+  </si>
+  <si>
+    <t>A beteg meg akarja tekinteni a recepteket</t>
+  </si>
+  <si>
+    <t>Az orvos utasítást ad a rendszernek, hogy meg akarja nézni a beteg receptjeit.</t>
+  </si>
+  <si>
+    <t>A rendszer felkínálja a betegek listáját.</t>
+  </si>
+  <si>
+    <t>Az orvos kiválasztja a kívánt beteget.</t>
+  </si>
+  <si>
+    <t>A rendszer kiírja a beteg receptjeit.</t>
+  </si>
+  <si>
+    <t>kettő pont egy</t>
+  </si>
+  <si>
+    <t>Nincs beteg regisztrálva</t>
+  </si>
+  <si>
+    <t>A rendszer jelzi, hogy még nincs beteg</t>
+  </si>
+  <si>
+    <t>kettő.2</t>
+  </si>
+  <si>
+    <t>3.egy</t>
+  </si>
+  <si>
+    <t>Az orvos rossz beteget választ ki</t>
+  </si>
+  <si>
+    <t>4. kettő</t>
+  </si>
+  <si>
+    <t>A rendszer kiírja, hogy nincs még recept a betegnél</t>
+  </si>
+  <si>
+    <t>A gyógyszertár utasítást ad a rendszernek, hogy meg akarja nézni a beteg receptjeit.</t>
+  </si>
+  <si>
+    <t>Az beteg utasítást ad a rendszernek, hogy meg akarja nézni a beteg receptjeit.</t>
+  </si>
+  <si>
+    <t>A rendszer kiírja a receptek listáját</t>
+  </si>
+  <si>
+    <t>Recept törlése</t>
+  </si>
+  <si>
+    <t>Az orvos törölni akarja a recepteket</t>
+  </si>
+  <si>
+    <t>5.</t>
+  </si>
+  <si>
+    <t>Az orvos kiválasztja az adott receptet</t>
+  </si>
+  <si>
+    <t>6.</t>
+  </si>
+  <si>
+    <t>Az orvos törli a receptet</t>
+  </si>
+  <si>
+    <t>Az orvos nem választott ki receptet</t>
+  </si>
+  <si>
+    <t>5pont1</t>
+  </si>
+  <si>
+    <t>5pont2</t>
+  </si>
+  <si>
+    <t>5pont3</t>
+  </si>
+  <si>
+    <t>A rendszer hibát dob, mivel nem volt kiválasztva recept</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -380,6 +545,13 @@
       <name val="Times New Roman"/>
       <family val="1"/>
       <charset val="238"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="4">
@@ -578,7 +750,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -654,9 +826,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="16" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1342,152 +1520,1014 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCED03D7-F9F8-4C6F-ABE1-D755948D3A46}">
-  <dimension ref="A1:B17"/>
+  <dimension ref="A1:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H75" sqref="H75:H76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="17.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="57.140625" style="21" customWidth="1"/>
-    <col min="3" max="16384" width="9.140625" style="19"/>
+    <col min="2" max="2" width="54.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="19"/>
+    <col min="4" max="4" width="17.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.28515625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="19"/>
+    <col min="7" max="7" width="17.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52" style="19" customWidth="1"/>
+    <col min="9" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="26" t="s">
         <v>65</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D1" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="23" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D2" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="30" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D3" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="30" t="s">
         <v>68</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D4" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="22" t="s">
         <v>69</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D5" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="22" t="s">
         <v>70</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D6" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="22" t="s">
         <v>71</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D7" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="22" t="s">
         <v>72</v>
       </c>
       <c r="B8" s="28"/>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D8" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E8" s="28"/>
+    </row>
+    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A9" s="24" t="s">
         <v>75</v>
       </c>
       <c r="B9" s="28" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D9" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="24" t="s">
         <v>82</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D10" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E10" s="28" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="24" t="s">
         <v>84</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D11" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="24" t="s">
         <v>86</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D12" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
         <v>73</v>
       </c>
       <c r="B13" s="28"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D13" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E13" s="28"/>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="24" t="s">
         <v>88</v>
       </c>
       <c r="B14" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D14" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="24" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="B15" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="B15" s="28" t="s">
+      <c r="D15" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E15" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="24" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
+      <c r="B16" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="B16" s="28" t="s">
+      <c r="D16" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="25" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+      <c r="B17" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="B17" s="29" t="s">
-        <v>95</v>
+      <c r="D17" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="27"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B26" s="28"/>
+    </row>
+    <row r="27" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A27" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A30" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B31" s="28"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B35" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="37" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B38" s="27"/>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B44" s="28"/>
+    </row>
+    <row r="45" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A45" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B49" s="28"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A53" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="B53" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="55" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B55" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D55" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E55" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="G55" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H55" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B56" s="27"/>
+      <c r="D56" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" s="27"/>
+      <c r="G56" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H56" s="27"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E57" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="G57" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="H57" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B58" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D58" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="G58" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H58" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="D59" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="G59" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H59" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B60" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="D60" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E60" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G60" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H60" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D61" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="G61" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H61" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B62" s="28"/>
+      <c r="D62" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E62" s="28"/>
+      <c r="G62" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H62" s="28"/>
+    </row>
+    <row r="63" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D63" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G63" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H63" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B64" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D64" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E64" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="G64" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H64" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E65" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="G65" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="H65" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E66" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="G66" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="H66" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B67" s="28"/>
+      <c r="D67" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E67" s="28"/>
+      <c r="G67" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H67" s="28"/>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="E68" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="G68" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="H68" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="E69" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="G69" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="H69" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="E70" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="G70" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H70" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A71" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D71" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="E71" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="G71" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H71" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="73" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="B73" s="26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B74" s="27"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A75" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="B75" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="B76" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B77" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B78" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B79" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B80" s="28"/>
+    </row>
+    <row r="81" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A81" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B81" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="B82" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="B83" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="B84" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="24" t="s">
+        <v>142</v>
+      </c>
+      <c r="B85" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="24" t="s">
+        <v>144</v>
+      </c>
+      <c r="B86" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B87" s="28"/>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="34" t="s">
+        <v>129</v>
+      </c>
+      <c r="B88" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="24" t="s">
+        <v>132</v>
+      </c>
+      <c r="B89" s="28" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="24" t="s">
+        <v>133</v>
+      </c>
+      <c r="B90" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="24" t="s">
+        <v>135</v>
+      </c>
+      <c r="B91" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="33" t="s">
+        <v>147</v>
+      </c>
+      <c r="B92" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="33" t="s">
+        <v>148</v>
+      </c>
+      <c r="B93" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="33" t="s">
+        <v>149</v>
+      </c>
+      <c r="B94" s="28" t="s">
+        <v>150</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/USE_CASE_LEVEZETES.xlsx
+++ b/USE_CASE_LEVEZETES.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kubik Márton\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goczi\OneDrive\Dokumentumok\GitHub\SzoftTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E823C0D-4959-4675-9B9B-6BDBEAD2446E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF59FEF9-05B8-4AA4-A572-EAEBE62DB8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use-case" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="344" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="157">
   <si>
     <t>Use case name</t>
   </si>
@@ -507,6 +507,24 @@
   </si>
   <si>
     <t>A rendszer hibát dob, mivel nem volt kiválasztva recept</t>
+  </si>
+  <si>
+    <t>4.1/a</t>
+  </si>
+  <si>
+    <t>4.2/a</t>
+  </si>
+  <si>
+    <t>4.1/b</t>
+  </si>
+  <si>
+    <t>Nem lehet elérni az adatbázist.</t>
+  </si>
+  <si>
+    <t>4.2/b</t>
+  </si>
+  <si>
+    <t>Nem elérthető az adatbázis</t>
   </si>
 </sst>
 </file>
@@ -750,7 +768,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="39">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -826,15 +844,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="16" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1520,10 +1546,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCED03D7-F9F8-4C6F-ABE1-D755948D3A46}">
-  <dimension ref="A1:H94"/>
+  <dimension ref="A1:H96"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A86" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H75" sqref="H75:H76"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C19" sqref="C19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1540,7 +1566,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="26" t="s">
+      <c r="A1" s="33" t="s">
         <v>65</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -1554,7 +1580,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="23" t="s">
+      <c r="A2" s="34" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="27" t="s">
@@ -1568,7 +1594,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="35" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="28" t="s">
@@ -1582,7 +1608,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="30" t="s">
+      <c r="A4" s="35" t="s">
         <v>68</v>
       </c>
       <c r="B4" s="28" t="s">
@@ -1596,7 +1622,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="22" t="s">
+      <c r="A5" s="36" t="s">
         <v>69</v>
       </c>
       <c r="B5" s="28" t="s">
@@ -1610,7 +1636,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="22" t="s">
+      <c r="A6" s="36" t="s">
         <v>70</v>
       </c>
       <c r="B6" s="28" t="s">
@@ -1624,7 +1650,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="22" t="s">
+      <c r="A7" s="36" t="s">
         <v>71</v>
       </c>
       <c r="B7" s="28" t="s">
@@ -1638,7 +1664,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="22" t="s">
+      <c r="A8" s="36" t="s">
         <v>72</v>
       </c>
       <c r="B8" s="28"/>
@@ -1648,7 +1674,7 @@
       <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="24" t="s">
+      <c r="A9" s="37" t="s">
         <v>75</v>
       </c>
       <c r="B9" s="28" t="s">
@@ -1662,7 +1688,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="24" t="s">
+      <c r="A10" s="37" t="s">
         <v>82</v>
       </c>
       <c r="B10" s="28" t="s">
@@ -1676,7 +1702,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="24" t="s">
+      <c r="A11" s="37" t="s">
         <v>84</v>
       </c>
       <c r="B11" s="28" t="s">
@@ -1690,7 +1716,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="24" t="s">
+      <c r="A12" s="37" t="s">
         <v>86</v>
       </c>
       <c r="B12" s="28" t="s">
@@ -1704,7 +1730,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
+      <c r="A13" s="36" t="s">
         <v>73</v>
       </c>
       <c r="B13" s="28"/>
@@ -1714,7 +1740,7 @@
       <c r="E13" s="28"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="24" t="s">
+      <c r="A14" s="37" t="s">
         <v>88</v>
       </c>
       <c r="B14" s="28" t="s">
@@ -1728,7 +1754,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="24" t="s">
+      <c r="A15" s="37" t="s">
         <v>89</v>
       </c>
       <c r="B15" s="28" t="s">
@@ -1742,786 +1768,814 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="24" t="s">
-        <v>91</v>
+      <c r="A16" s="37" t="s">
+        <v>151</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>92</v>
       </c>
       <c r="D16" s="24" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="E16" s="28" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A17" s="37" t="s">
+        <v>152</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="D17" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="E17" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A18" s="37" t="s">
+        <v>153</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>154</v>
+      </c>
+      <c r="D18" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="E18" s="28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="38" t="s">
+        <v>155</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>94</v>
+      </c>
+      <c r="D19" s="25" t="s">
+        <v>155</v>
+      </c>
+      <c r="E19" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B21" s="26" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B22" s="27"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="28"/>
+    </row>
+    <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A32" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A33" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="28"/>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A35" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A36" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="B17" s="29" t="s">
+      <c r="B37" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="25" t="s">
+    </row>
+    <row r="38" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="33" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A40" s="34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="27"/>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A41" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="35" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="36" t="s">
+        <v>69</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="36" t="s">
+        <v>70</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="36" t="s">
+        <v>71</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="36" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="28"/>
+    </row>
+    <row r="47" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="37" t="s">
+        <v>75</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="37" t="s">
+        <v>82</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="37" t="s">
+        <v>84</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="37" t="s">
+        <v>86</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="36" t="s">
+        <v>73</v>
+      </c>
+      <c r="B51" s="28"/>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="37" t="s">
+        <v>88</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="37" t="s">
+        <v>89</v>
+      </c>
+      <c r="B53" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="37" t="s">
+        <v>91</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="38" t="s">
         <v>93</v>
       </c>
-      <c r="E17" s="29" t="s">
+      <c r="B55" s="29" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="26" t="s">
+    <row r="56" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B19" s="26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A20" s="23" t="s">
+      <c r="B57" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D57" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="G57" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H57" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A58" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B20" s="27"/>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A21" s="30" t="s">
+      <c r="B58" s="27"/>
+      <c r="D58" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" s="27"/>
+      <c r="G58" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H58" s="27"/>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A59" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B21" s="28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="30" t="s">
+      <c r="B59" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="G59" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="H59" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B22" s="28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="22" t="s">
+      <c r="B60" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D60" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E60" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="G60" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H60" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="B23" s="28" t="s">
+      <c r="B61" s="28" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="22" t="s">
+      <c r="D61" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="G61" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H61" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="B24" s="28" t="s">
+      <c r="B62" s="28" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="22" t="s">
+      <c r="D62" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E62" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G62" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H62" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="B25" s="28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="22" t="s">
+      <c r="B63" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D63" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="G63" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H63" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="B26" s="28"/>
-    </row>
-    <row r="27" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A27" s="24" t="s">
+      <c r="B64" s="28"/>
+      <c r="D64" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E64" s="28"/>
+      <c r="G64" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H64" s="28"/>
+    </row>
+    <row r="65" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A65" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B27" s="28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="24" t="s">
+      <c r="B65" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D65" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E65" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G65" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H65" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="B28" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A29" s="24" t="s">
+      <c r="B66" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D66" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E66" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="G66" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H66" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B29" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A30" s="24" t="s">
+      <c r="B67" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E67" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="G67" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="H67" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="B30" s="28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="22" t="s">
+      <c r="B68" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E68" s="28" t="s">
+        <v>111</v>
+      </c>
+      <c r="G68" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="H68" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B31" s="28"/>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A32" s="24" t="s">
+      <c r="B69" s="28"/>
+      <c r="D69" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E69" s="28"/>
+      <c r="G69" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H69" s="28"/>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="37" t="s">
+        <v>129</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D70" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="B32" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="24" t="s">
+      <c r="E70" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="G70" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="H70" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="37" t="s">
+        <v>132</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D71" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B33" s="28" t="s">
+      <c r="E71" s="28" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="24" t="s">
+      <c r="G71" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="H71" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="37" t="s">
+        <v>133</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D72" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="B34" s="28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="25" t="s">
+      <c r="E72" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="G72" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H72" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="37" t="s">
+        <v>135</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D73" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B35" s="29" t="s">
+      <c r="E73" s="29" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="37" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="26" t="s">
+      <c r="G73" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H73" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="75" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="33" t="s">
         <v>65</v>
       </c>
-      <c r="B37" s="26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="23" t="s">
+      <c r="B75" s="26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A76" s="34" t="s">
         <v>66</v>
       </c>
-      <c r="B38" s="27"/>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="30" t="s">
+      <c r="B76" s="27"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A77" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B39" s="28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="30" t="s">
+      <c r="B77" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B40" s="28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="22" t="s">
+      <c r="B78" s="28" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="36" t="s">
         <v>69</v>
       </c>
-      <c r="B41" s="28" t="s">
+      <c r="B79" s="28" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="22" t="s">
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="36" t="s">
         <v>70</v>
       </c>
-      <c r="B42" s="28" t="s">
+      <c r="B80" s="28" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="22" t="s">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="36" t="s">
         <v>71</v>
       </c>
-      <c r="B43" s="28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="22" t="s">
+      <c r="B81" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="36" t="s">
         <v>72</v>
       </c>
-      <c r="B44" s="28"/>
-    </row>
-    <row r="45" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A45" s="24" t="s">
+      <c r="B82" s="28"/>
+    </row>
+    <row r="83" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A83" s="37" t="s">
         <v>75</v>
       </c>
-      <c r="B45" s="28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="24" t="s">
+      <c r="B83" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="B46" s="28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="24" t="s">
+      <c r="B84" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="37" t="s">
         <v>84</v>
       </c>
-      <c r="B47" s="28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="24" t="s">
+      <c r="B85" s="28" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="37" t="s">
         <v>86</v>
       </c>
-      <c r="B48" s="28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="22" t="s">
+      <c r="B86" s="28" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="37" t="s">
+        <v>142</v>
+      </c>
+      <c r="B87" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B88" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="36" t="s">
         <v>73</v>
       </c>
-      <c r="B49" s="28"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="B50" s="28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="B51" s="28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="B52" s="28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="B53" s="29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="55" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B55" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="D55" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E55" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="G55" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="H55" s="26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B56" s="27"/>
-      <c r="D56" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E56" s="27"/>
-      <c r="G56" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="H56" s="27"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B57" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="D57" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E57" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="G57" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="H57" s="28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B58" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="D58" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="E58" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="G58" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="H58" s="28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B59" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D59" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E59" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="G59" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H59" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B60" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D60" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E60" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="G60" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="H60" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B61" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="D61" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E61" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="G61" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="H61" s="28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B62" s="28"/>
-      <c r="D62" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E62" s="28"/>
-      <c r="G62" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H62" s="28"/>
-    </row>
-    <row r="63" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B63" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="D63" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E63" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="G63" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="H63" s="28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B64" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="D64" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E64" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="G64" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="H64" s="28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B65" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="D65" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E65" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="G65" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="H65" s="28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B66" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="D66" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="E66" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="G66" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="H66" s="28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B67" s="28"/>
-      <c r="D67" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E67" s="28"/>
-      <c r="G67" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H67" s="28"/>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="34" t="s">
+      <c r="B89" s="28"/>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="37" t="s">
         <v>129</v>
       </c>
-      <c r="B68" s="28" t="s">
+      <c r="B90" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D68" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="E68" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="G68" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="H68" s="28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="24" t="s">
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="37" t="s">
         <v>132</v>
       </c>
-      <c r="B69" s="28" t="s">
+      <c r="B91" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="D69" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E69" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="G69" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="H69" s="28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="24" t="s">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="37" t="s">
         <v>133</v>
       </c>
-      <c r="B70" s="28" t="s">
+      <c r="B92" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="D70" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E70" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="G70" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="H70" s="28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A71" s="24" t="s">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="37" t="s">
         <v>135</v>
       </c>
-      <c r="B71" s="28" t="s">
+      <c r="B93" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D71" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E71" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="G71" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H71" s="29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="73" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="B73" s="26" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="B74" s="27"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="B75" s="28" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="B76" s="28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B77" s="28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="B78" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="B79" s="28" t="s">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B94" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="37" t="s">
+        <v>148</v>
+      </c>
+      <c r="B95" s="28" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B80" s="28"/>
-    </row>
-    <row r="81" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A81" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="B81" s="28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" s="28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="B83" s="28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="B84" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="24" t="s">
-        <v>142</v>
-      </c>
-      <c r="B85" s="28" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="24" t="s">
-        <v>144</v>
-      </c>
-      <c r="B86" s="28" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B87" s="28"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="34" t="s">
-        <v>129</v>
-      </c>
-      <c r="B88" s="28" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="24" t="s">
-        <v>132</v>
-      </c>
-      <c r="B89" s="28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="24" t="s">
-        <v>133</v>
-      </c>
-      <c r="B90" s="28" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="24" t="s">
-        <v>135</v>
-      </c>
-      <c r="B91" s="28" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="33" t="s">
-        <v>147</v>
-      </c>
-      <c r="B92" s="28" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="33" t="s">
-        <v>148</v>
-      </c>
-      <c r="B93" s="28" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="33" t="s">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="B94" s="28" t="s">
+      <c r="B96" s="28" t="s">
         <v>150</v>
       </c>
     </row>

--- a/USE_CASE_LEVEZETES.xlsx
+++ b/USE_CASE_LEVEZETES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goczi\OneDrive\Dokumentumok\GitHub\SzoftTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF59FEF9-05B8-4AA4-A572-EAEBE62DB8FF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3846A2AC-C412-4076-A662-23B1C0FADEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use-case" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="157">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="158">
   <si>
     <t>Use case name</t>
   </si>
@@ -525,6 +525,9 @@
   </si>
   <si>
     <t>Nem elérthető az adatbázis</t>
+  </si>
+  <si>
+    <t>Nem elérhető az adatbázis</t>
   </si>
 </sst>
 </file>
@@ -838,12 +841,6 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -857,6 +854,12 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1168,16 +1171,16 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="38" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="31"/>
-      <c r="B4" s="32"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
     </row>
     <row r="5" spans="1:2" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -1263,16 +1266,16 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="31" t="s">
+      <c r="A16" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="32" t="s">
+      <c r="B16" s="38" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="31"/>
-      <c r="B17" s="32"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="38"/>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
@@ -1351,16 +1354,16 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="31" t="s">
+      <c r="A28" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="32" t="s">
+      <c r="B28" s="38" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="0.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="31"/>
-      <c r="B29" s="32"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="38"/>
     </row>
     <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
@@ -1431,16 +1434,16 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="31" t="s">
+      <c r="A39" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="32" t="s">
+      <c r="B39" s="38" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="31"/>
-      <c r="B40" s="32"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="38"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
@@ -1546,10 +1549,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCED03D7-F9F8-4C6F-ABE1-D755948D3A46}">
-  <dimension ref="A1:H96"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1566,7 +1569,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="31" t="s">
         <v>65</v>
       </c>
       <c r="B1" s="26" t="s">
@@ -1580,7 +1583,7 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="32" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="27" t="s">
@@ -1594,7 +1597,7 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="35" t="s">
+      <c r="A3" s="33" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="28" t="s">
@@ -1608,7 +1611,7 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="35" t="s">
+      <c r="A4" s="33" t="s">
         <v>68</v>
       </c>
       <c r="B4" s="28" t="s">
@@ -1622,7 +1625,7 @@
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="34" t="s">
         <v>69</v>
       </c>
       <c r="B5" s="28" t="s">
@@ -1636,7 +1639,7 @@
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="36" t="s">
+      <c r="A6" s="34" t="s">
         <v>70</v>
       </c>
       <c r="B6" s="28" t="s">
@@ -1650,7 +1653,7 @@
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="36" t="s">
+      <c r="A7" s="34" t="s">
         <v>71</v>
       </c>
       <c r="B7" s="28" t="s">
@@ -1664,7 +1667,7 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="34" t="s">
         <v>72</v>
       </c>
       <c r="B8" s="28"/>
@@ -1674,7 +1677,7 @@
       <c r="E8" s="28"/>
     </row>
     <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A9" s="37" t="s">
+      <c r="A9" s="35" t="s">
         <v>75</v>
       </c>
       <c r="B9" s="28" t="s">
@@ -1688,7 +1691,7 @@
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="37" t="s">
+      <c r="A10" s="35" t="s">
         <v>82</v>
       </c>
       <c r="B10" s="28" t="s">
@@ -1702,7 +1705,7 @@
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="37" t="s">
+      <c r="A11" s="35" t="s">
         <v>84</v>
       </c>
       <c r="B11" s="28" t="s">
@@ -1716,7 +1719,7 @@
       </c>
     </row>
     <row r="12" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A12" s="37" t="s">
+      <c r="A12" s="35" t="s">
         <v>86</v>
       </c>
       <c r="B12" s="28" t="s">
@@ -1730,7 +1733,7 @@
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="36" t="s">
+      <c r="A13" s="34" t="s">
         <v>73</v>
       </c>
       <c r="B13" s="28"/>
@@ -1740,7 +1743,7 @@
       <c r="E13" s="28"/>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="37" t="s">
+      <c r="A14" s="35" t="s">
         <v>88</v>
       </c>
       <c r="B14" s="28" t="s">
@@ -1754,7 +1757,7 @@
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="37" t="s">
+      <c r="A15" s="35" t="s">
         <v>89</v>
       </c>
       <c r="B15" s="28" t="s">
@@ -1768,7 +1771,7 @@
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="35" t="s">
         <v>151</v>
       </c>
       <c r="B16" s="28" t="s">
@@ -1782,7 +1785,7 @@
       </c>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A17" s="37" t="s">
+      <c r="A17" s="35" t="s">
         <v>152</v>
       </c>
       <c r="B17" s="28" t="s">
@@ -1796,7 +1799,7 @@
       </c>
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A18" s="37" t="s">
+      <c r="A18" s="35" t="s">
         <v>153</v>
       </c>
       <c r="B18" s="28" t="s">
@@ -1810,7 +1813,7 @@
       </c>
     </row>
     <row r="19" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="38" t="s">
+      <c r="A19" s="36" t="s">
         <v>155</v>
       </c>
       <c r="B19" s="29" t="s">
@@ -1825,7 +1828,7 @@
     </row>
     <row r="20" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="21" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="33" t="s">
+      <c r="A21" s="31" t="s">
         <v>65</v>
       </c>
       <c r="B21" s="26" t="s">
@@ -1833,13 +1836,13 @@
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A22" s="34" t="s">
+      <c r="A22" s="32" t="s">
         <v>66</v>
       </c>
       <c r="B22" s="27"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A23" s="35" t="s">
+      <c r="A23" s="33" t="s">
         <v>67</v>
       </c>
       <c r="B23" s="28" t="s">
@@ -1847,7 +1850,7 @@
       </c>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A24" s="35" t="s">
+      <c r="A24" s="33" t="s">
         <v>68</v>
       </c>
       <c r="B24" s="28" t="s">
@@ -1855,7 +1858,7 @@
       </c>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A25" s="36" t="s">
+      <c r="A25" s="34" t="s">
         <v>69</v>
       </c>
       <c r="B25" s="28" t="s">
@@ -1863,7 +1866,7 @@
       </c>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A26" s="36" t="s">
+      <c r="A26" s="34" t="s">
         <v>70</v>
       </c>
       <c r="B26" s="28" t="s">
@@ -1871,7 +1874,7 @@
       </c>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A27" s="36" t="s">
+      <c r="A27" s="34" t="s">
         <v>71</v>
       </c>
       <c r="B27" s="28" t="s">
@@ -1879,13 +1882,13 @@
       </c>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
+      <c r="A28" s="34" t="s">
         <v>72</v>
       </c>
       <c r="B28" s="28"/>
     </row>
     <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="37" t="s">
+      <c r="A29" s="35" t="s">
         <v>75</v>
       </c>
       <c r="B29" s="28" t="s">
@@ -1893,7 +1896,7 @@
       </c>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A30" s="37" t="s">
+      <c r="A30" s="35" t="s">
         <v>82</v>
       </c>
       <c r="B30" s="28" t="s">
@@ -1901,7 +1904,7 @@
       </c>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A31" s="37" t="s">
+      <c r="A31" s="35" t="s">
         <v>84</v>
       </c>
       <c r="B31" s="28" t="s">
@@ -1909,7 +1912,7 @@
       </c>
     </row>
     <row r="32" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="37" t="s">
+      <c r="A32" s="35" t="s">
         <v>86</v>
       </c>
       <c r="B32" s="28" t="s">
@@ -1917,13 +1920,13 @@
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="36" t="s">
+      <c r="A33" s="34" t="s">
         <v>73</v>
       </c>
       <c r="B33" s="28"/>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="37" t="s">
+      <c r="A34" s="35" t="s">
         <v>88</v>
       </c>
       <c r="B34" s="28" t="s">
@@ -1931,7 +1934,7 @@
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="37" t="s">
+      <c r="A35" s="35" t="s">
         <v>89</v>
       </c>
       <c r="B35" s="28" t="s">
@@ -1939,643 +1942,659 @@
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="37" t="s">
-        <v>91</v>
+      <c r="A36" s="35" t="s">
+        <v>151</v>
       </c>
       <c r="B36" s="28" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="37" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="38" t="s">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A37" s="35" t="s">
+        <v>152</v>
+      </c>
+      <c r="B37" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A38" s="35" t="s">
+        <v>155</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="36" t="s">
+        <v>155</v>
+      </c>
+      <c r="B39" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="41" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B41" s="26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A42" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B42" s="27"/>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A44" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A46" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A47" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A48" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="28"/>
+    </row>
+    <row r="49" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="35" t="s">
+        <v>75</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A50" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A51" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B51" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A52" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="28"/>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="35" t="s">
+        <v>88</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A55" s="35" t="s">
+        <v>89</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A56" s="35" t="s">
+        <v>91</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="36" t="s">
         <v>93</v>
       </c>
-      <c r="B37" s="29" t="s">
+      <c r="B57" s="29" t="s">
         <v>94</v>
       </c>
     </row>
-    <row r="38" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="33" t="s">
+    <row r="58" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B39" s="26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="34" t="s">
+      <c r="B59" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D59" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>115</v>
+      </c>
+      <c r="G59" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="H59" s="26" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A60" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B40" s="27"/>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A41" s="35" t="s">
+      <c r="B60" s="27"/>
+      <c r="D60" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" s="27"/>
+      <c r="G60" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="H60" s="27"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B41" s="28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="35" t="s">
+      <c r="B61" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D61" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E61" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="G61" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="H61" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A62" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B42" s="28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="36" t="s">
+      <c r="B62" s="28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" s="28" t="s">
+        <v>118</v>
+      </c>
+      <c r="G62" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="H62" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="B43" s="28" t="s">
+      <c r="B63" s="28" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="36" t="s">
+      <c r="D63" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="G63" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="H63" s="28" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A64" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B44" s="28" t="s">
+      <c r="B64" s="28" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="36" t="s">
+      <c r="D64" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E64" s="28" t="s">
+        <v>79</v>
+      </c>
+      <c r="G64" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="H64" s="28" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A65" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B45" s="28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="36" t="s">
+      <c r="B65" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D65" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E65" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="G65" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H65" s="28" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A66" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B46" s="28"/>
-    </row>
-    <row r="47" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A47" s="37" t="s">
+      <c r="B66" s="28"/>
+      <c r="D66" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E66" s="28"/>
+      <c r="G66" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="H66" s="28"/>
+    </row>
+    <row r="67" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A67" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B47" s="28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="37" t="s">
+      <c r="B67" s="28" t="s">
+        <v>125</v>
+      </c>
+      <c r="D67" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="E67" s="28" t="s">
+        <v>137</v>
+      </c>
+      <c r="G67" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="H67" s="28" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A68" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="B48" s="28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="37" t="s">
+      <c r="B68" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="D68" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="E68" s="28" t="s">
+        <v>126</v>
+      </c>
+      <c r="G68" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H68" s="28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A69" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B49" s="28" t="s">
+      <c r="B69" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D69" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="E69" s="28" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="37" t="s">
+      <c r="G69" s="24" t="s">
+        <v>84</v>
+      </c>
+      <c r="H69" s="28" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A70" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B50" s="28" t="s">
+      <c r="B70" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D70" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E70" s="28" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="36" t="s">
+      <c r="G70" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="H70" s="28" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A71" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B51" s="28"/>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="37" t="s">
+      <c r="B71" s="28"/>
+      <c r="D71" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E71" s="28"/>
+      <c r="G71" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="H71" s="28"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>130</v>
+      </c>
+      <c r="D72" s="24" t="s">
         <v>88</v>
       </c>
-      <c r="B52" s="28" t="s">
+      <c r="E72" s="28" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="37" t="s">
+      <c r="G72" s="24" t="s">
+        <v>88</v>
+      </c>
+      <c r="H72" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A73" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B73" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="D73" s="24" t="s">
         <v>89</v>
       </c>
-      <c r="B53" s="28" t="s">
+      <c r="E73" s="28" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="37" t="s">
+      <c r="G73" s="24" t="s">
+        <v>89</v>
+      </c>
+      <c r="H73" s="28" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A74" s="35" t="s">
+        <v>133</v>
+      </c>
+      <c r="B74" s="28" t="s">
+        <v>134</v>
+      </c>
+      <c r="D74" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="B54" s="28" t="s">
+      <c r="E74" s="28" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="55" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="38" t="s">
+      <c r="G74" s="24" t="s">
+        <v>91</v>
+      </c>
+      <c r="H74" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B75" s="28" t="s">
+        <v>136</v>
+      </c>
+      <c r="D75" s="25" t="s">
         <v>93</v>
       </c>
-      <c r="B55" s="29" t="s">
+      <c r="E75" s="29" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="56" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="33" t="s">
+      <c r="G75" s="25" t="s">
+        <v>93</v>
+      </c>
+      <c r="H75" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="76" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="77" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B57" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="D57" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E57" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="G57" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="H57" s="26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A58" s="34" t="s">
+      <c r="B77" s="26" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A78" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B58" s="27"/>
-      <c r="D58" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E58" s="27"/>
-      <c r="G58" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="H58" s="27"/>
-    </row>
-    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A59" s="35" t="s">
+      <c r="B78" s="27"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B59" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="D59" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E59" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="G59" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="H59" s="28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="35" t="s">
+      <c r="B79" s="28" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A80" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B60" s="28" t="s">
+      <c r="B80" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="D60" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="E60" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="G60" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="H60" s="28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="36" t="s">
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="B61" s="28" t="s">
+      <c r="B81" s="28" t="s">
         <v>99</v>
       </c>
-      <c r="D61" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E61" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="G61" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H61" s="28" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="36" t="s">
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B62" s="28" t="s">
+      <c r="B82" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D62" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E62" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="G62" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="H62" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="36" t="s">
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B63" s="28" t="s">
-        <v>122</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E63" s="28" t="s">
-        <v>123</v>
-      </c>
-      <c r="G63" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="H63" s="28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="36" t="s">
+      <c r="B83" s="28" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B64" s="28"/>
-      <c r="D64" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E64" s="28"/>
-      <c r="G64" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H64" s="28"/>
-    </row>
-    <row r="65" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A65" s="37" t="s">
+      <c r="B84" s="28"/>
+    </row>
+    <row r="85" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B65" s="28" t="s">
+      <c r="B85" s="28" t="s">
         <v>125</v>
       </c>
-      <c r="D65" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E65" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="G65" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="H65" s="28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="37" t="s">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A86" s="35" t="s">
         <v>82</v>
       </c>
-      <c r="B66" s="28" t="s">
+      <c r="B86" s="28" t="s">
         <v>126</v>
       </c>
-      <c r="D66" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E66" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="G66" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="H66" s="28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="37" t="s">
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B67" s="28" t="s">
+      <c r="B87" s="28" t="s">
         <v>127</v>
       </c>
-      <c r="D67" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E67" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="G67" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="H67" s="28" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="37" t="s">
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B68" s="28" t="s">
+      <c r="B88" s="28" t="s">
         <v>128</v>
       </c>
-      <c r="D68" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="E68" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="G68" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="H68" s="28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="36" t="s">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A89" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B89" s="28" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A90" s="35" t="s">
+        <v>144</v>
+      </c>
+      <c r="B90" s="28" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B69" s="28"/>
-      <c r="D69" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E69" s="28"/>
-      <c r="G69" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H69" s="28"/>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="37" t="s">
+      <c r="B91" s="28"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="35" t="s">
         <v>129</v>
       </c>
-      <c r="B70" s="28" t="s">
+      <c r="B92" s="28" t="s">
         <v>130</v>
       </c>
-      <c r="D70" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="E70" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="G70" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="H70" s="28" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="37" t="s">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A93" s="35" t="s">
         <v>132</v>
       </c>
-      <c r="B71" s="28" t="s">
+      <c r="B93" s="28" t="s">
         <v>131</v>
       </c>
-      <c r="D71" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E71" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="G71" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="H71" s="28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="37" t="s">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A94" s="35" t="s">
         <v>133</v>
       </c>
-      <c r="B72" s="28" t="s">
+      <c r="B94" s="28" t="s">
         <v>134</v>
       </c>
-      <c r="D72" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="E72" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="G72" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="H72" s="28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="73" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="37" t="s">
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A95" s="35" t="s">
         <v>135</v>
       </c>
-      <c r="B73" s="28" t="s">
+      <c r="B95" s="28" t="s">
         <v>136</v>
       </c>
-      <c r="D73" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="E73" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="G73" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H73" s="29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="75" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="33" t="s">
-        <v>65</v>
-      </c>
-      <c r="B75" s="26" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A76" s="34" t="s">
-        <v>66</v>
-      </c>
-      <c r="B76" s="27"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A77" s="35" t="s">
-        <v>67</v>
-      </c>
-      <c r="B77" s="28" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="35" t="s">
-        <v>68</v>
-      </c>
-      <c r="B78" s="28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="36" t="s">
-        <v>69</v>
-      </c>
-      <c r="B79" s="28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="36" t="s">
-        <v>70</v>
-      </c>
-      <c r="B80" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="36" t="s">
-        <v>71</v>
-      </c>
-      <c r="B81" s="28" t="s">
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="35" t="s">
+        <v>147</v>
+      </c>
+      <c r="B96" s="28" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B97" s="28" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="36" t="s">
-        <v>72</v>
-      </c>
-      <c r="B82" s="28"/>
-    </row>
-    <row r="83" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A83" s="37" t="s">
-        <v>75</v>
-      </c>
-      <c r="B83" s="28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="B84" s="28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="37" t="s">
-        <v>84</v>
-      </c>
-      <c r="B85" s="28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="37" t="s">
-        <v>86</v>
-      </c>
-      <c r="B86" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="37" t="s">
-        <v>142</v>
-      </c>
-      <c r="B87" s="28" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="37" t="s">
-        <v>144</v>
-      </c>
-      <c r="B88" s="28" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="36" t="s">
-        <v>73</v>
-      </c>
-      <c r="B89" s="28"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="37" t="s">
-        <v>129</v>
-      </c>
-      <c r="B90" s="28" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="37" t="s">
-        <v>132</v>
-      </c>
-      <c r="B91" s="28" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="37" t="s">
-        <v>133</v>
-      </c>
-      <c r="B92" s="28" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="37" t="s">
-        <v>135</v>
-      </c>
-      <c r="B93" s="28" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="37" t="s">
-        <v>147</v>
-      </c>
-      <c r="B94" s="28" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="37" t="s">
-        <v>148</v>
-      </c>
-      <c r="B95" s="28" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="37" t="s">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="35" t="s">
         <v>149</v>
       </c>
-      <c r="B96" s="28" t="s">
+      <c r="B98" s="28" t="s">
         <v>150</v>
       </c>
     </row>

--- a/USE_CASE_LEVEZETES.xlsx
+++ b/USE_CASE_LEVEZETES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goczi\OneDrive\Dokumentumok\GitHub\SzoftTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3846A2AC-C412-4076-A662-23B1C0FADEE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E22BFD5-90D0-4771-880D-107932D1D2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="356" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="158">
   <si>
     <t>Use case name</t>
   </si>
@@ -443,36 +443,18 @@
     <t>A rendszer kiírja a beteg receptjeit.</t>
   </si>
   <si>
-    <t>kettő pont egy</t>
-  </si>
-  <si>
     <t>Nincs beteg regisztrálva</t>
   </si>
   <si>
     <t>A rendszer jelzi, hogy még nincs beteg</t>
   </si>
   <si>
-    <t>kettő.2</t>
-  </si>
-  <si>
-    <t>3.egy</t>
-  </si>
-  <si>
-    <t>Az orvos rossz beteget választ ki</t>
-  </si>
-  <si>
-    <t>4. kettő</t>
-  </si>
-  <si>
     <t>A rendszer kiírja, hogy nincs még recept a betegnél</t>
   </si>
   <si>
     <t>A gyógyszertár utasítást ad a rendszernek, hogy meg akarja nézni a beteg receptjeit.</t>
   </si>
   <si>
-    <t>Az beteg utasítást ad a rendszernek, hogy meg akarja nézni a beteg receptjeit.</t>
-  </si>
-  <si>
     <t>A rendszer kiírja a receptek listáját</t>
   </si>
   <si>
@@ -497,15 +479,6 @@
     <t>Az orvos nem választott ki receptet</t>
   </si>
   <si>
-    <t>5pont1</t>
-  </si>
-  <si>
-    <t>5pont2</t>
-  </si>
-  <si>
-    <t>5pont3</t>
-  </si>
-  <si>
     <t>A rendszer hibát dob, mivel nem volt kiválasztva recept</t>
   </si>
   <si>
@@ -524,10 +497,37 @@
     <t>4.2/b</t>
   </si>
   <si>
-    <t>Nem elérthető az adatbázis</t>
-  </si>
-  <si>
     <t>Nem elérhető az adatbázis</t>
+  </si>
+  <si>
+    <t>2.1</t>
+  </si>
+  <si>
+    <t>2.2</t>
+  </si>
+  <si>
+    <t>Az gyógyszertár kiválasztja a beteget.</t>
+  </si>
+  <si>
+    <t>A rendszer kiírja a beteg receptjeit</t>
+  </si>
+  <si>
+    <t>Adatbázis nem elérhető</t>
+  </si>
+  <si>
+    <t>A rendszer jelzi, hogy nem elérhető az adatbázis</t>
+  </si>
+  <si>
+    <t>Az beteg utasítást ad a rendszernek, hogy meg akarja nézni a receptjeit.</t>
+  </si>
+  <si>
+    <t>5.1</t>
+  </si>
+  <si>
+    <t>5.2</t>
+  </si>
+  <si>
+    <t>5.3</t>
   </si>
 </sst>
 </file>
@@ -1549,10 +1549,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCED03D7-F9F8-4C6F-ABE1-D755948D3A46}">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:H97"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1568,266 +1568,156 @@
     <col min="9" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>65</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>74</v>
       </c>
-      <c r="D1" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E1" s="26" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="D2" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E2" s="27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>76</v>
       </c>
-      <c r="D3" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>68</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>77</v>
       </c>
-      <c r="D4" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>69</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>78</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>70</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="D6" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>71</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>80</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>72</v>
       </c>
       <c r="B8" s="28"/>
-      <c r="D8" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E8" s="28"/>
-    </row>
-    <row r="9" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>75</v>
       </c>
       <c r="B9" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="D9" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>82</v>
       </c>
       <c r="B10" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="D10" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E10" s="28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>84</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>85</v>
       </c>
-      <c r="D11" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E11" s="28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>86</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>87</v>
       </c>
-      <c r="D12" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>73</v>
       </c>
       <c r="B13" s="28"/>
-      <c r="D13" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E13" s="28"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>88</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="D14" s="24" t="s">
-        <v>88</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="35" t="s">
         <v>89</v>
       </c>
       <c r="B15" s="28" t="s">
         <v>90</v>
       </c>
-      <c r="D15" s="24" t="s">
-        <v>89</v>
-      </c>
-      <c r="E15" s="28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>92</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>151</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B17" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D17" s="24" t="s">
-        <v>152</v>
-      </c>
-      <c r="E17" s="28" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
-        <v>153</v>
+        <v>144</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="D18" s="24" t="s">
-        <v>153</v>
-      </c>
-      <c r="E18" s="28" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="36" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B19" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="D19" s="25" t="s">
-        <v>155</v>
-      </c>
-      <c r="E19" s="29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="31" t="s">
         <v>65</v>
       </c>
@@ -1835,13 +1725,13 @@
         <v>96</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>66</v>
       </c>
       <c r="B22" s="27"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
         <v>67</v>
       </c>
@@ -1849,7 +1739,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
         <v>68</v>
       </c>
@@ -1857,7 +1747,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="s">
         <v>69</v>
       </c>
@@ -1865,7 +1755,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
         <v>70</v>
       </c>
@@ -1873,7 +1763,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
         <v>71</v>
       </c>
@@ -1881,13 +1771,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
         <v>72</v>
       </c>
       <c r="B28" s="28"/>
     </row>
-    <row r="29" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
         <v>75</v>
       </c>
@@ -1895,7 +1785,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A30" s="35" t="s">
         <v>82</v>
       </c>
@@ -1903,7 +1793,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="35" t="s">
         <v>84</v>
       </c>
@@ -1911,7 +1801,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
       <c r="A32" s="35" t="s">
         <v>86</v>
       </c>
@@ -1943,7 +1833,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="35" t="s">
-        <v>151</v>
+        <v>142</v>
       </c>
       <c r="B36" s="28" t="s">
         <v>106</v>
@@ -1951,7 +1841,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="35" t="s">
-        <v>152</v>
+        <v>143</v>
       </c>
       <c r="B37" s="28" t="s">
         <v>94</v>
@@ -1959,15 +1849,15 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B38" s="28" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="39" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A39" s="36" t="s">
-        <v>155</v>
+        <v>146</v>
       </c>
       <c r="B39" s="29" t="s">
         <v>94</v>
@@ -2264,13 +2154,13 @@
         <v>75</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="G67" s="24" t="s">
         <v>75</v>
       </c>
       <c r="H67" s="28" t="s">
-        <v>138</v>
+        <v>154</v>
       </c>
     </row>
     <row r="68" spans="1:8" x14ac:dyDescent="0.25">
@@ -2290,7 +2180,7 @@
         <v>82</v>
       </c>
       <c r="H68" s="28" t="s">
-        <v>139</v>
+        <v>133</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
@@ -2304,14 +2194,10 @@
         <v>84</v>
       </c>
       <c r="E69" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="G69" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="H69" s="28" t="s">
-        <v>109</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="G69" s="24"/>
+      <c r="H69" s="28"/>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="35" t="s">
@@ -2324,14 +2210,10 @@
         <v>86</v>
       </c>
       <c r="E70" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="G70" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="H70" s="28" t="s">
-        <v>111</v>
-      </c>
+        <v>151</v>
+      </c>
+      <c r="G70" s="24"/>
+      <c r="H70" s="28"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="34" t="s">
@@ -2349,83 +2231,67 @@
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A72" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B72" s="28" t="s">
         <v>129</v>
       </c>
-      <c r="B72" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D72" s="24" t="s">
-        <v>88</v>
+      <c r="D72" s="35" t="s">
+        <v>148</v>
       </c>
       <c r="E72" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="G72" s="24" t="s">
-        <v>88</v>
+        <v>152</v>
+      </c>
+      <c r="G72" s="35" t="s">
+        <v>148</v>
       </c>
       <c r="H72" s="28" t="s">
-        <v>112</v>
+        <v>152</v>
       </c>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="35" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="D73" s="24" t="s">
-        <v>89</v>
+        <v>130</v>
+      </c>
+      <c r="D73" s="35" t="s">
+        <v>149</v>
       </c>
       <c r="E73" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="G73" s="24" t="s">
-        <v>89</v>
+        <v>153</v>
+      </c>
+      <c r="G73" s="35" t="s">
+        <v>149</v>
       </c>
       <c r="H73" s="28" t="s">
-        <v>90</v>
+        <v>153</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="35" t="s">
-        <v>133</v>
-      </c>
-      <c r="B74" s="28" t="s">
-        <v>134</v>
-      </c>
+      <c r="A74" s="35"/>
+      <c r="B74" s="28"/>
       <c r="D74" s="24" t="s">
         <v>91</v>
       </c>
       <c r="E74" s="28" t="s">
         <v>113</v>
       </c>
-      <c r="G74" s="24" t="s">
-        <v>91</v>
-      </c>
-      <c r="H74" s="28" t="s">
-        <v>113</v>
-      </c>
+      <c r="G74" s="24"/>
+      <c r="H74" s="28"/>
     </row>
     <row r="75" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A75" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="B75" s="28" t="s">
-        <v>136</v>
-      </c>
+      <c r="A75" s="35"/>
+      <c r="B75" s="28"/>
       <c r="D75" s="25" t="s">
         <v>93</v>
       </c>
       <c r="E75" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="G75" s="25" t="s">
-        <v>93</v>
-      </c>
-      <c r="H75" s="29" t="s">
-        <v>94</v>
-      </c>
+      <c r="G75" s="25"/>
+      <c r="H75" s="29"/>
     </row>
     <row r="76" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="77" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2433,7 +2299,7 @@
         <v>65</v>
       </c>
       <c r="B77" s="26" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.25">
@@ -2447,7 +2313,7 @@
         <v>67</v>
       </c>
       <c r="B79" s="28" t="s">
-        <v>140</v>
+        <v>134</v>
       </c>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
@@ -2479,7 +2345,7 @@
         <v>71</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>141</v>
+        <v>135</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
@@ -2522,18 +2388,18 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="35" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="B89" s="28" t="s">
-        <v>143</v>
+        <v>137</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="35" t="s">
-        <v>144</v>
+        <v>138</v>
       </c>
       <c r="B90" s="28" t="s">
-        <v>145</v>
+        <v>139</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.25">
@@ -2544,58 +2410,50 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A92" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B92" s="28" t="s">
         <v>129</v>
-      </c>
-      <c r="B92" s="28" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="35" t="s">
-        <v>132</v>
+        <v>149</v>
       </c>
       <c r="B93" s="28" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="35" t="s">
-        <v>133</v>
+        <v>91</v>
       </c>
       <c r="B94" s="28" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="35" t="s">
-        <v>135</v>
+        <v>155</v>
       </c>
       <c r="B95" s="28" t="s">
-        <v>136</v>
+        <v>140</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="35" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>146</v>
+        <v>135</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="35" t="s">
-        <v>148</v>
+        <v>157</v>
       </c>
       <c r="B97" s="28" t="s">
         <v>141</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="B98" s="28" t="s">
-        <v>150</v>
       </c>
     </row>
   </sheetData>

--- a/USE_CASE_LEVEZETES.xlsx
+++ b/USE_CASE_LEVEZETES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goczi\OneDrive\Dokumentumok\GitHub\SzoftTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E22BFD5-90D0-4771-880D-107932D1D2D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAECA867-B2D9-4AF2-8AA6-7CB788ABA9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="306" uniqueCount="158">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="160">
   <si>
     <t>Use case name</t>
   </si>
@@ -317,9 +317,6 @@
     <t>4.</t>
   </si>
   <si>
-    <t>A rendszer ellenőrzi a külső adatbázisban, hogy van-e ilyen felhasználó, ha igen akkor beengedi.</t>
-  </si>
-  <si>
     <t>3.1</t>
   </si>
   <si>
@@ -528,6 +525,15 @@
   </si>
   <si>
     <t>5.3</t>
+  </si>
+  <si>
+    <t>A rendszer ellenőrzi a külső adatbázisban, hogy van-e ilyen felhasználó.</t>
+  </si>
+  <si>
+    <t>A rendszer beengedi a felhasználót.</t>
+  </si>
+  <si>
+    <t>Sikeres sikertelen lefutás.</t>
   </si>
 </sst>
 </file>
@@ -1549,10 +1555,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCED03D7-F9F8-4C6F-ABE1-D755948D3A46}">
-  <dimension ref="A1:H97"/>
+  <dimension ref="A1:H98"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+      <selection activeCell="E5" sqref="E5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1568,7 +1574,7 @@
     <col min="9" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>65</v>
       </c>
@@ -1576,7 +1582,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>66</v>
       </c>
@@ -1584,15 +1590,18 @@
         <v>75</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="E3" s="19" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>68</v>
       </c>
@@ -1600,7 +1609,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="34" t="s">
         <v>69</v>
       </c>
@@ -1608,7 +1617,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="34" t="s">
         <v>70</v>
       </c>
@@ -1616,7 +1625,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>71</v>
       </c>
@@ -1624,13 +1633,13 @@
         <v>80</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>72</v>
       </c>
       <c r="B8" s="28"/>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="35" t="s">
         <v>75</v>
       </c>
@@ -1638,7 +1647,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="35" t="s">
         <v>82</v>
       </c>
@@ -1646,7 +1655,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>84</v>
       </c>
@@ -1654,295 +1663,295 @@
         <v>85</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>86</v>
       </c>
       <c r="B12" s="28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="28" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B14" s="28"/>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="35" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A13" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B13" s="28"/>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
+      <c r="B15" s="28" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A16" s="35" t="s">
         <v>88</v>
       </c>
-      <c r="B14" s="28" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
+      <c r="B16" s="28" t="s">
         <v>89</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>92</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B18" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="35" t="s">
+        <v>143</v>
+      </c>
+      <c r="B19" s="28" t="s">
         <v>144</v>
       </c>
-      <c r="B18" s="28" t="s">
+    </row>
+    <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="36" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="B19" s="29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
+      <c r="B20" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B21" s="26" t="s">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A22" s="32" t="s">
+      <c r="B22" s="26" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B22" s="27"/>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>97</v>
-      </c>
+      <c r="B23" s="27"/>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B24" s="28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
-        <v>69</v>
-      </c>
       <c r="B25" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B26" s="28" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>100</v>
+        <v>79</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B28" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B28" s="28"/>
-    </row>
-    <row r="29" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
+      <c r="B29" s="28"/>
+    </row>
+    <row r="30" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A30" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B29" s="28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
-        <v>82</v>
-      </c>
       <c r="B30" s="28" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A31" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
         <v>84</v>
       </c>
-      <c r="B31" s="28" t="s">
+      <c r="B32" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A33" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B33" s="28" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A33" s="34" t="s">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A34" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B33" s="28"/>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>105</v>
-      </c>
+      <c r="B34" s="28"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A35" s="35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A36" s="35" t="s">
-        <v>142</v>
+        <v>88</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>106</v>
+        <v>89</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A37" s="35" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B37" s="28" t="s">
-        <v>94</v>
+        <v>105</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="35" t="s">
+        <v>142</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A39" s="35" t="s">
+        <v>145</v>
+      </c>
+      <c r="B39" s="28" t="s">
         <v>146</v>
       </c>
-      <c r="B38" s="28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="36" t="s">
-        <v>146</v>
-      </c>
-      <c r="B39" s="29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="41" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="31" t="s">
+    </row>
+    <row r="40" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="36" t="s">
+        <v>145</v>
+      </c>
+      <c r="B40" s="29" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="42" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B41" s="26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A42" s="32" t="s">
+      <c r="B42" s="26" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A43" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B42" s="27"/>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B43" s="28" t="s">
-        <v>116</v>
-      </c>
+      <c r="B43" s="27"/>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A45" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B44" s="28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="34" t="s">
-        <v>69</v>
-      </c>
       <c r="B45" s="28" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A46" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B46" s="28" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B47" s="28" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A49" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B48" s="28"/>
-    </row>
-    <row r="49" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="35" t="s">
+      <c r="B49" s="28"/>
+    </row>
+    <row r="50" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A50" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B49" s="28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A50" s="35" t="s">
-        <v>82</v>
-      </c>
       <c r="B50" s="28" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B51" s="28" t="s">
         <v>109</v>
@@ -1950,510 +1959,518 @@
     </row>
     <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="35" t="s">
+        <v>84</v>
+      </c>
+      <c r="B52" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A53" s="35" t="s">
         <v>86</v>
       </c>
-      <c r="B52" s="28" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A53" s="34" t="s">
+      <c r="B53" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A54" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B53" s="28"/>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B54" s="28" t="s">
-        <v>112</v>
-      </c>
+      <c r="B54" s="28"/>
     </row>
     <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="35" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>90</v>
+        <v>111</v>
       </c>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="35" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B56" s="28" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="36" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A57" s="35" t="s">
+        <v>90</v>
+      </c>
+      <c r="B57" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="36" t="s">
+        <v>92</v>
+      </c>
+      <c r="B58" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="B57" s="29" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="58" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="31" t="s">
+    </row>
+    <row r="59" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="60" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A60" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="D59" s="26" t="s">
+      <c r="B60" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="D60" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="E59" s="26" t="s">
-        <v>115</v>
-      </c>
-      <c r="G59" s="26" t="s">
+      <c r="E60" s="26" t="s">
+        <v>114</v>
+      </c>
+      <c r="G60" s="26" t="s">
         <v>65</v>
       </c>
-      <c r="H59" s="26" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A60" s="32" t="s">
+      <c r="H60" s="26" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A61" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B60" s="27"/>
-      <c r="D60" s="23" t="s">
+      <c r="B61" s="27"/>
+      <c r="D61" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="E60" s="27"/>
-      <c r="G60" s="23" t="s">
+      <c r="E61" s="27"/>
+      <c r="G61" s="23" t="s">
         <v>66</v>
       </c>
-      <c r="H60" s="27"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B61" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="D61" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E61" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="G61" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="H61" s="28" t="s">
-        <v>115</v>
-      </c>
+      <c r="H61" s="27"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D62" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E62" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="G62" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="H62" s="28" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A63" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="28" t="s">
+      <c r="B63" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D63" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E63" s="28" t="s">
         <v>117</v>
       </c>
-      <c r="D62" s="30" t="s">
+      <c r="G63" s="30" t="s">
         <v>68</v>
       </c>
-      <c r="E62" s="28" t="s">
+      <c r="H63" s="28" t="s">
         <v>118</v>
-      </c>
-      <c r="G62" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="H62" s="28" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B63" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D63" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E63" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="G63" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H63" s="28" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
       <c r="D64" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>79</v>
+        <v>119</v>
       </c>
       <c r="G64" s="22" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H64" s="28" t="s">
-        <v>79</v>
+        <v>120</v>
       </c>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>122</v>
+        <v>79</v>
       </c>
       <c r="D65" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="E65" s="28" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="G65" s="22" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="H65" s="28" t="s">
-        <v>124</v>
+        <v>79</v>
       </c>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D66" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E66" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="G66" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="H66" s="28" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A67" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B66" s="28"/>
-      <c r="D66" s="22" t="s">
+      <c r="B67" s="28"/>
+      <c r="D67" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="E66" s="28"/>
-      <c r="G66" s="22" t="s">
+      <c r="E67" s="28"/>
+      <c r="G67" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="H66" s="28"/>
-    </row>
-    <row r="67" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A67" s="35" t="s">
+      <c r="H67" s="28"/>
+    </row>
+    <row r="68" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A68" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B67" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="D67" s="24" t="s">
+      <c r="B68" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D68" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="E67" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="G67" s="24" t="s">
+      <c r="E68" s="28" t="s">
+        <v>131</v>
+      </c>
+      <c r="G68" s="24" t="s">
         <v>75</v>
       </c>
-      <c r="H67" s="28" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A68" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="B68" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="D68" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E68" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="G68" s="24" t="s">
-        <v>82</v>
-      </c>
       <c r="H68" s="28" t="s">
-        <v>133</v>
+        <v>153</v>
       </c>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B69" s="28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D69" s="24" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E69" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="G69" s="24"/>
-      <c r="H69" s="28"/>
+        <v>125</v>
+      </c>
+      <c r="G69" s="24" t="s">
+        <v>82</v>
+      </c>
+      <c r="H69" s="28" t="s">
+        <v>132</v>
+      </c>
     </row>
     <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B70" s="28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D70" s="24" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="E70" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="G70" s="24"/>
       <c r="H70" s="28"/>
     </row>
     <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="34" t="s">
+      <c r="A71" s="35" t="s">
+        <v>86</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D71" s="24" t="s">
+        <v>86</v>
+      </c>
+      <c r="E71" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="G71" s="24"/>
+      <c r="H71" s="28"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A72" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B71" s="28"/>
-      <c r="D71" s="22" t="s">
+      <c r="B72" s="28"/>
+      <c r="D72" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="E71" s="28"/>
-      <c r="G71" s="22" t="s">
+      <c r="E72" s="28"/>
+      <c r="G72" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="H71" s="28"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="B72" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="D72" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="E72" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="G72" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="H72" s="28" t="s">
-        <v>152</v>
-      </c>
+      <c r="H72" s="28"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A73" s="35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D73" s="35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="E73" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="G73" s="35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="H73" s="28" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="35"/>
-      <c r="B74" s="28"/>
-      <c r="D74" s="24" t="s">
-        <v>91</v>
+      <c r="A74" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="B74" s="28" t="s">
+        <v>129</v>
+      </c>
+      <c r="D74" s="35" t="s">
+        <v>148</v>
       </c>
       <c r="E74" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="G74" s="24"/>
-      <c r="H74" s="28"/>
-    </row>
-    <row r="75" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+      <c r="G74" s="35" t="s">
+        <v>148</v>
+      </c>
+      <c r="H74" s="28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A75" s="35"/>
       <c r="B75" s="28"/>
-      <c r="D75" s="25" t="s">
+      <c r="D75" s="24" t="s">
+        <v>90</v>
+      </c>
+      <c r="E75" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="G75" s="24"/>
+      <c r="H75" s="28"/>
+    </row>
+    <row r="76" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="35"/>
+      <c r="B76" s="28"/>
+      <c r="D76" s="25" t="s">
+        <v>92</v>
+      </c>
+      <c r="E76" s="29" t="s">
         <v>93</v>
       </c>
-      <c r="E75" s="29" t="s">
-        <v>94</v>
-      </c>
-      <c r="G75" s="25"/>
-      <c r="H75" s="29"/>
-    </row>
-    <row r="76" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="77" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="31" t="s">
+      <c r="G76" s="25"/>
+      <c r="H76" s="29"/>
+    </row>
+    <row r="77" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="78" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A78" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B77" s="26" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A78" s="32" t="s">
+      <c r="B78" s="26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A79" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B78" s="27"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B79" s="28" t="s">
-        <v>134</v>
-      </c>
+      <c r="B79" s="27"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A80" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B80" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B80" s="28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="34" t="s">
-        <v>69</v>
-      </c>
       <c r="B81" s="28" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A82" s="34" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>79</v>
+        <v>98</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A83" s="34" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>135</v>
+        <v>79</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A84" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B84" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A85" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B84" s="28"/>
-    </row>
-    <row r="85" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A85" s="35" t="s">
+      <c r="B85" s="28"/>
+    </row>
+    <row r="86" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A86" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B85" s="28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="35" t="s">
-        <v>82</v>
-      </c>
       <c r="B86" s="28" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A87" s="35" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B87" s="28" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A88" s="35" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="B88" s="28" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="35" t="s">
-        <v>136</v>
+        <v>86</v>
       </c>
       <c r="B89" s="28" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B90" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="35" t="s">
+        <v>137</v>
+      </c>
+      <c r="B91" s="28" t="s">
         <v>138</v>
       </c>
-      <c r="B90" s="28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="34" t="s">
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B91" s="28"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="B92" s="28" t="s">
-        <v>129</v>
-      </c>
+      <c r="B92" s="28"/>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="35" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B93" s="28" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A94" s="35" t="s">
-        <v>91</v>
+        <v>148</v>
       </c>
       <c r="B94" s="28" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A95" s="35" t="s">
-        <v>155</v>
+        <v>90</v>
       </c>
       <c r="B95" s="28" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A96" s="35" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B96" s="28" t="s">
-        <v>135</v>
+        <v>139</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="35" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="B97" s="28" t="s">
-        <v>141</v>
+        <v>134</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="35" t="s">
+        <v>156</v>
+      </c>
+      <c r="B98" s="28" t="s">
+        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/USE_CASE_LEVEZETES.xlsx
+++ b/USE_CASE_LEVEZETES.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goczi\OneDrive\Dokumentumok\GitHub\SzoftTech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kubik Márton\Documents\GitHub\SzoftTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FAECA867-B2D9-4AF2-8AA6-7CB788ABA9C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43EAA9F-1DAB-4AA6-A059-5E61FD809E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use-case" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="160">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="156">
   <si>
     <t>Use case name</t>
   </si>
@@ -278,42 +278,18 @@
     <t>Kivételek:</t>
   </si>
   <si>
-    <t>Belépés</t>
-  </si>
-  <si>
     <t>1.</t>
   </si>
   <si>
-    <t>A felhasználók be tudjanak  lépni a saját profiljaikba</t>
-  </si>
-  <si>
-    <t>nincs</t>
-  </si>
-  <si>
-    <t>Felhasználó</t>
-  </si>
-  <si>
     <t>Külső adatbázis</t>
   </si>
   <si>
-    <t>A felhasználó szeretne belépni a profiljába</t>
-  </si>
-  <si>
-    <t>A felhasználó utasítást ad a rendszernek, hogy be akar lépni.</t>
-  </si>
-  <si>
     <t>2.</t>
   </si>
   <si>
-    <t>A rendszer visszaad egy kitöltendő belépési felületet.</t>
-  </si>
-  <si>
     <t>3.</t>
   </si>
   <si>
-    <t>A felhasználó visszaküldi a kitöltött beléptető felületet.</t>
-  </si>
-  <si>
     <t>4.</t>
   </si>
   <si>
@@ -329,18 +305,12 @@
     <t>4.1</t>
   </si>
   <si>
-    <t>Nem megfelelő adatokkal akart belépni egy felhasználó</t>
-  </si>
-  <si>
     <t>4.2</t>
   </si>
   <si>
     <t>A rendszer hibaüzenetet dob.</t>
   </si>
   <si>
-    <t>Hiányosan küldi vissza a felhasználó a beléptető felületet</t>
-  </si>
-  <si>
     <t>Új beteg létrehozása</t>
   </si>
   <si>
@@ -407,24 +377,15 @@
     <t>Orvos legyen bejelentkezve</t>
   </si>
   <si>
-    <t>Gyógyszertár legyen bejelentkezve</t>
-  </si>
-  <si>
     <t>Beteg legyen bejelentkezve</t>
   </si>
   <si>
-    <t>Gyógyszertár</t>
-  </si>
-  <si>
     <t>Beteg</t>
   </si>
   <si>
     <t>Az orvos meg akarja tekinteni a recepteket</t>
   </si>
   <si>
-    <t>A gyógyszertár meg akarja tekinteni a recepteket</t>
-  </si>
-  <si>
     <t>A beteg meg akarja tekinteni a recepteket</t>
   </si>
   <si>
@@ -449,9 +410,6 @@
     <t>A rendszer kiírja, hogy nincs még recept a betegnél</t>
   </si>
   <si>
-    <t>A gyógyszertár utasítást ad a rendszernek, hogy meg akarja nézni a beteg receptjeit.</t>
-  </si>
-  <si>
     <t>A rendszer kiírja a receptek listáját</t>
   </si>
   <si>
@@ -485,12 +443,6 @@
     <t>4.2/a</t>
   </si>
   <si>
-    <t>4.1/b</t>
-  </si>
-  <si>
-    <t>Nem lehet elérni az adatbázist.</t>
-  </si>
-  <si>
     <t>4.2/b</t>
   </si>
   <si>
@@ -503,12 +455,6 @@
     <t>2.2</t>
   </si>
   <si>
-    <t>Az gyógyszertár kiválasztja a beteget.</t>
-  </si>
-  <si>
-    <t>A rendszer kiírja a beteg receptjeit</t>
-  </si>
-  <si>
     <t>Adatbázis nem elérhető</t>
   </si>
   <si>
@@ -527,13 +473,55 @@
     <t>5.3</t>
   </si>
   <si>
-    <t>A rendszer ellenőrzi a külső adatbázisban, hogy van-e ilyen felhasználó.</t>
-  </si>
-  <si>
-    <t>A rendszer beengedi a felhasználót.</t>
-  </si>
-  <si>
     <t>Sikeres sikertelen lefutás.</t>
+  </si>
+  <si>
+    <t>Recept megtekintése orvosi felhasználóval</t>
+  </si>
+  <si>
+    <t>Recept megtekintése beteg felhasználóval</t>
+  </si>
+  <si>
+    <t>Sikeres lefutás</t>
+  </si>
+  <si>
+    <t>Az orvos létrehoz egy beteg felhasználót.</t>
+  </si>
+  <si>
+    <t>Sikertelen lefutás</t>
+  </si>
+  <si>
+    <t>Az applikáció visszautasítja a regisztrációt.</t>
+  </si>
+  <si>
+    <t>Az orvos hozzáad egy új receptet a beteghez.</t>
+  </si>
+  <si>
+    <t>Az applikáció visszautasítja a recept hozzáadását.</t>
+  </si>
+  <si>
+    <t>Orvos/gyógyszertár legyen bejelentkezve</t>
+  </si>
+  <si>
+    <t>Orvos/gyógyszertár</t>
+  </si>
+  <si>
+    <t>Az orvos/gyógyszertár megtekinti a beteg receptjeit.</t>
+  </si>
+  <si>
+    <t>Az applikáció visszautasítja a recept megtekintését.</t>
+  </si>
+  <si>
+    <t>A beteg megtekinti a beteg receptjeit.</t>
+  </si>
+  <si>
+    <t>A applikáció visszautasítja a recept megtekintését.</t>
+  </si>
+  <si>
+    <t>Az orvos törli a receptet a beteg listájáról.</t>
+  </si>
+  <si>
+    <t>A rendszer elutasítja a törlést</t>
   </si>
 </sst>
 </file>
@@ -869,7 +857,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normál" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1555,10 +1543,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCED03D7-F9F8-4C6F-ABE1-D755948D3A46}">
-  <dimension ref="A1:H98"/>
+  <dimension ref="A1:E85"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B68" sqref="B68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1579,26 +1567,24 @@
         <v>65</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>74</v>
+        <v>85</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="27" t="s">
-        <v>75</v>
-      </c>
+      <c r="B2" s="27"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>76</v>
+        <v>86</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>159</v>
+        <v>139</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1606,871 +1592,699 @@
         <v>68</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>77</v>
+        <v>87</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="34" t="s">
-        <v>69</v>
+      <c r="A5" s="33" t="s">
+        <v>142</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>78</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="34" t="s">
-        <v>70</v>
+      <c r="A6" s="33" t="s">
+        <v>144</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>79</v>
+        <v>145</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>80</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B8" s="28"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="B9" s="28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="B10" s="28" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B10" s="28"/>
+    </row>
+    <row r="11" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
-        <v>84</v>
+        <v>74</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>157</v>
+        <v>91</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
-        <v>135</v>
+        <v>77</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="34" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="A14" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="28" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B14" s="28"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="B15" s="28" t="s">
-        <v>94</v>
-      </c>
+      <c r="B15" s="28"/>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="35" t="s">
-        <v>141</v>
+        <v>80</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>91</v>
+        <v>81</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A18" s="35" t="s">
-        <v>142</v>
+        <v>127</v>
       </c>
       <c r="B18" s="28" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B19" s="28" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="B20" s="29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="35" t="s">
+        <v>129</v>
+      </c>
+      <c r="B20" s="28" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="36" t="s">
+        <v>129</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>84</v>
+      </c>
+    </row>
     <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="31" t="s">
+      <c r="A22" s="19"/>
+      <c r="B22" s="19"/>
+    </row>
+    <row r="23" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B22" s="26" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" s="32" t="s">
+      <c r="B23" s="26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B23" s="27"/>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>96</v>
-      </c>
+      <c r="B24" s="27"/>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B25" s="28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
-        <v>69</v>
-      </c>
       <c r="B26" s="28" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
-        <v>70</v>
+      <c r="A27" s="33" t="s">
+        <v>142</v>
       </c>
       <c r="B27" s="28" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
-        <v>71</v>
+      <c r="A28" s="33" t="s">
+        <v>144</v>
       </c>
       <c r="B28" s="28" t="s">
-        <v>99</v>
+        <v>147</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A31" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A32" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B29" s="28"/>
-    </row>
-    <row r="30" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
+      <c r="B32" s="28"/>
+    </row>
+    <row r="33" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A33" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A37" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B37" s="28"/>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A38" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B38" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A39" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B39" s="28" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="35" t="s">
+        <v>82</v>
+      </c>
+      <c r="B40" s="28" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="B41" s="29" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="43" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B43" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="D43" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E43" s="26" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B44" s="27"/>
+      <c r="D44" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E44" s="27"/>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>148</v>
+      </c>
+      <c r="D46" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="D47" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B48" s="28" t="s">
+        <v>151</v>
+      </c>
+      <c r="D48" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="E48" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A49" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D49" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B50" s="28" t="s">
         <v>75</v>
       </c>
-      <c r="B30" s="28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="47.25" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>103</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A34" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B34" s="28"/>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A35" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
-        <v>141</v>
-      </c>
-      <c r="B37" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A38" s="35" t="s">
-        <v>142</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="35" t="s">
-        <v>145</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="36" t="s">
-        <v>145</v>
-      </c>
-      <c r="B40" s="29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="41" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="42" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B42" s="26" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A43" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B43" s="27"/>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A44" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B44" s="28" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A45" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A46" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A47" s="34" t="s">
+      <c r="D50" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B47" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A48" s="34" t="s">
+      <c r="E50" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="34" t="s">
         <v>71</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A49" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B49" s="28"/>
-    </row>
-    <row r="50" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A50" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="B50" s="28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A51" s="35" t="s">
-        <v>82</v>
       </c>
       <c r="B51" s="28" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A52" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B52" s="28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="D51" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E51" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B52" s="28"/>
+      <c r="D52" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" s="28"/>
+    </row>
+    <row r="53" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A53" s="35" t="s">
-        <v>86</v>
+        <v>74</v>
       </c>
       <c r="B53" s="28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A54" s="34" t="s">
+        <v>111</v>
+      </c>
+      <c r="D53" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E53" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B54" s="28" t="s">
+        <v>112</v>
+      </c>
+      <c r="D54" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E54" s="28" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B55" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="D55" s="24"/>
+      <c r="E55" s="28"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B56" s="28" t="s">
+        <v>114</v>
+      </c>
+      <c r="D56" s="24"/>
+      <c r="E56" s="28"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="34" t="s">
         <v>73</v>
       </c>
-      <c r="B54" s="28"/>
-    </row>
-    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A55" s="35" t="s">
-        <v>87</v>
-      </c>
-      <c r="B55" s="28" t="s">
+      <c r="B57" s="28"/>
+      <c r="D57" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E57" s="28"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="B58" s="28" t="s">
+        <v>115</v>
+      </c>
+      <c r="D58" s="35" t="s">
+        <v>131</v>
+      </c>
+      <c r="E58" s="28" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="B59" s="28" t="s">
+        <v>116</v>
+      </c>
+      <c r="D59" s="35" t="s">
+        <v>132</v>
+      </c>
+      <c r="E59" s="28" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="35"/>
+      <c r="B60" s="28"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="28"/>
+    </row>
+    <row r="61" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A61" s="35"/>
+      <c r="B61" s="28"/>
+      <c r="D61" s="25"/>
+      <c r="E61" s="29"/>
+    </row>
+    <row r="62" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="63" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A63" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B63" s="26" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B64" s="27"/>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A65" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B65" s="28" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A66" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B66" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A67" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B67" s="28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A68" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B68" s="28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A69" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B69" s="28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A70" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B70" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A71" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B71" s="28" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A72" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B72" s="28"/>
+    </row>
+    <row r="73" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A73" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B73" s="28" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A56" s="35" t="s">
-        <v>88</v>
-      </c>
-      <c r="B56" s="28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A57" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="B57" s="28" t="s">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A74" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B74" s="28" t="s">
         <v>112</v>
       </c>
     </row>
-    <row r="58" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A58" s="36" t="s">
-        <v>92</v>
-      </c>
-      <c r="B58" s="29" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="59" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="60" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A60" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B60" s="26" t="s">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A75" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B75" s="28" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A76" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B76" s="28" t="s">
         <v>114</v>
       </c>
-      <c r="D60" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E60" s="26" t="s">
-        <v>114</v>
-      </c>
-      <c r="G60" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="H60" s="26" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A61" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B61" s="27"/>
-      <c r="D61" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E61" s="27"/>
-      <c r="G61" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="H61" s="27"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A62" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B62" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D62" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E62" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="G62" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="H62" s="28" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A63" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B63" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="D63" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="E63" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="G63" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="H63" s="28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A64" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B64" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="D64" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E64" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="G64" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="H64" s="28" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A65" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B65" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="D65" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E65" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="G65" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="H65" s="28" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A66" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B66" s="28" t="s">
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A77" s="35" t="s">
         <v>121</v>
       </c>
-      <c r="D66" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E66" s="28" t="s">
+      <c r="B77" s="28" t="s">
         <v>122</v>
       </c>
-      <c r="G66" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="H66" s="28" t="s">
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A78" s="35" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A67" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B67" s="28"/>
-      <c r="D67" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E67" s="28"/>
-      <c r="G67" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="H67" s="28"/>
-    </row>
-    <row r="68" spans="1:8" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A68" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="B68" s="28" t="s">
+      <c r="B78" s="28" t="s">
         <v>124</v>
       </c>
-      <c r="D68" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="E68" s="28" t="s">
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A79" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B79" s="28"/>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A80" s="35" t="s">
         <v>131</v>
       </c>
-      <c r="G68" s="24" t="s">
-        <v>75</v>
-      </c>
-      <c r="H68" s="28" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A69" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="B69" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="D69" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="E69" s="28" t="s">
-        <v>125</v>
-      </c>
-      <c r="G69" s="24" t="s">
-        <v>82</v>
-      </c>
-      <c r="H69" s="28" t="s">
+      <c r="B80" s="28" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A81" s="35" t="s">
         <v>132</v>
-      </c>
-    </row>
-    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A70" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B70" s="28" t="s">
-        <v>126</v>
-      </c>
-      <c r="D70" s="24" t="s">
-        <v>84</v>
-      </c>
-      <c r="E70" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="G70" s="24"/>
-      <c r="H70" s="28"/>
-    </row>
-    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A71" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B71" s="28" t="s">
-        <v>127</v>
-      </c>
-      <c r="D71" s="24" t="s">
-        <v>86</v>
-      </c>
-      <c r="E71" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="G71" s="24"/>
-      <c r="H71" s="28"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A72" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B72" s="28"/>
-      <c r="D72" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E72" s="28"/>
-      <c r="G72" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="H72" s="28"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A73" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="B73" s="28" t="s">
-        <v>128</v>
-      </c>
-      <c r="D73" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="E73" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="G73" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="H73" s="28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A74" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="B74" s="28" t="s">
-        <v>129</v>
-      </c>
-      <c r="D74" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="E74" s="28" t="s">
-        <v>152</v>
-      </c>
-      <c r="G74" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="H74" s="28" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A75" s="35"/>
-      <c r="B75" s="28"/>
-      <c r="D75" s="24" t="s">
-        <v>90</v>
-      </c>
-      <c r="E75" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="G75" s="24"/>
-      <c r="H75" s="28"/>
-    </row>
-    <row r="76" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="35"/>
-      <c r="B76" s="28"/>
-      <c r="D76" s="25" t="s">
-        <v>92</v>
-      </c>
-      <c r="E76" s="29" t="s">
-        <v>93</v>
-      </c>
-      <c r="G76" s="25"/>
-      <c r="H76" s="29"/>
-    </row>
-    <row r="77" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="78" spans="1:8" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B78" s="26" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A79" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B79" s="27"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A80" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B80" s="28" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A81" s="33" t="s">
-        <v>68</v>
       </c>
       <c r="B81" s="28" t="s">
         <v>116</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="34" t="s">
-        <v>69</v>
+      <c r="A82" s="35" t="s">
+        <v>82</v>
       </c>
       <c r="B82" s="28" t="s">
-        <v>98</v>
+        <v>117</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="34" t="s">
-        <v>70</v>
+      <c r="A83" s="35" t="s">
+        <v>136</v>
       </c>
       <c r="B83" s="28" t="s">
-        <v>79</v>
+        <v>125</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="34" t="s">
-        <v>71</v>
+      <c r="A84" s="35" t="s">
+        <v>137</v>
       </c>
       <c r="B84" s="28" t="s">
-        <v>134</v>
+        <v>120</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B85" s="28"/>
-    </row>
-    <row r="86" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A86" s="35" t="s">
-        <v>75</v>
-      </c>
-      <c r="B86" s="28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="B87" s="28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="35" t="s">
-        <v>84</v>
-      </c>
-      <c r="B88" s="28" t="s">
+      <c r="A85" s="35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B85" s="28" t="s">
         <v>126</v>
-      </c>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="35" t="s">
-        <v>86</v>
-      </c>
-      <c r="B89" s="28" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="35" t="s">
-        <v>135</v>
-      </c>
-      <c r="B90" s="28" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="B91" s="28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B92" s="28"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="35" t="s">
-        <v>147</v>
-      </c>
-      <c r="B93" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A94" s="35" t="s">
-        <v>148</v>
-      </c>
-      <c r="B94" s="28" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A95" s="35" t="s">
-        <v>90</v>
-      </c>
-      <c r="B95" s="28" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="35" t="s">
-        <v>154</v>
-      </c>
-      <c r="B96" s="28" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="35" t="s">
-        <v>155</v>
-      </c>
-      <c r="B97" s="28" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="35" t="s">
-        <v>156</v>
-      </c>
-      <c r="B98" s="28" t="s">
-        <v>140</v>
       </c>
     </row>
   </sheetData>

--- a/USE_CASE_LEVEZETES.xlsx
+++ b/USE_CASE_LEVEZETES.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kubik Márton\Documents\GitHub\SzoftTech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csern\OneDrive\Dokumentumok\GitHub\SzoftTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F43EAA9F-1DAB-4AA6-A059-5E61FD809E73}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Use-case" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="156">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="171">
   <si>
     <t>Use case name</t>
   </si>
@@ -523,11 +522,56 @@
   <si>
     <t>A rendszer elutasítja a törlést</t>
   </si>
+  <si>
+    <t xml:space="preserve">Recept igénylése </t>
+  </si>
+  <si>
+    <t>Elérhető gyógyszerek lekérdezése, módosítása</t>
+  </si>
+  <si>
+    <t>Gyógyszer hozzáadása az elérhetők listájához</t>
+  </si>
+  <si>
+    <t>Gyógyszer törlése az elérhetők listájából</t>
+  </si>
+  <si>
+    <t>Beteg törlése</t>
+  </si>
+  <si>
+    <t>Az orvos törölni tudja hozni a beteg fiókját.</t>
+  </si>
+  <si>
+    <t>Az orvos sikeresen törölte a felhasználói fiókot</t>
+  </si>
+  <si>
+    <t>A fiók bennt maradt a rendszerben</t>
+  </si>
+  <si>
+    <t>Az orvos törölni akar egy felhasználói fiókot</t>
+  </si>
+  <si>
+    <t>A beteg részéről egy igény benyújtása</t>
+  </si>
+  <si>
+    <t>A beteg igénynyújtása sikeresen eléri az orvost/gyógyszertárat</t>
+  </si>
+  <si>
+    <t>A rendszer elutasítja az igényt</t>
+  </si>
+  <si>
+    <t>Másodlagos aktorok:</t>
+  </si>
+  <si>
+    <t>Orvos, Gyógyszertár és a külső adatbázis</t>
+  </si>
+  <si>
+    <t>A beteg igényt szeretne benyújtani gyógyszerekre</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -765,7 +809,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -853,6 +897,9 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1134,21 +1181,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
     <col min="2" max="2" width="71" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1156,7 +1203,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -1164,7 +1211,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="37" t="s">
         <v>4</v>
       </c>
@@ -1172,11 +1219,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="37"/>
       <c r="B4" s="38"/>
     </row>
-    <row r="5" spans="1:2" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
@@ -1184,7 +1231,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
@@ -1192,7 +1239,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -1200,7 +1247,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
@@ -1208,7 +1255,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -1216,7 +1263,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
@@ -1224,7 +1271,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
@@ -1232,7 +1279,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
@@ -1240,10 +1287,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>0</v>
       </c>
@@ -1251,7 +1298,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>2</v>
       </c>
@@ -1259,7 +1306,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="37" t="s">
         <v>4</v>
       </c>
@@ -1267,11 +1314,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="37"/>
       <c r="B17" s="38"/>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>6</v>
       </c>
@@ -1279,7 +1326,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>24</v>
       </c>
@@ -1287,7 +1334,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>28</v>
       </c>
@@ -1295,7 +1342,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>29</v>
       </c>
@@ -1303,7 +1350,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>31</v>
       </c>
@@ -1311,7 +1358,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>33</v>
       </c>
@@ -1319,7 +1366,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>19</v>
       </c>
@@ -1327,11 +1374,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>0</v>
       </c>
@@ -1339,7 +1386,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>2</v>
       </c>
@@ -1347,7 +1394,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="37" t="s">
         <v>4</v>
       </c>
@@ -1355,11 +1402,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="0.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="0.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="37"/>
       <c r="B29" s="38"/>
     </row>
-    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>6</v>
       </c>
@@ -1367,7 +1414,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>24</v>
       </c>
@@ -1375,7 +1422,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>41</v>
       </c>
@@ -1383,7 +1430,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>43</v>
       </c>
@@ -1391,7 +1438,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>19</v>
       </c>
@@ -1399,7 +1446,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
         <v>46</v>
       </c>
@@ -1407,11 +1454,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>0</v>
       </c>
@@ -1419,7 +1466,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>2</v>
       </c>
@@ -1427,7 +1474,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="37" t="s">
         <v>4</v>
       </c>
@@ -1435,11 +1482,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="37"/>
       <c r="B40" s="38"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>6</v>
       </c>
@@ -1447,7 +1494,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>24</v>
       </c>
@@ -1455,7 +1502,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>52</v>
       </c>
@@ -1463,7 +1510,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>54</v>
       </c>
@@ -1471,7 +1518,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>57</v>
       </c>
@@ -1479,7 +1526,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>19</v>
       </c>
@@ -1487,7 +1534,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>60</v>
       </c>
@@ -1495,7 +1542,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>61</v>
       </c>
@@ -1503,7 +1550,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
         <v>63</v>
       </c>
@@ -1511,18 +1558,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
       <c r="B50" s="18"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="16"/>
       <c r="B52" s="1"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B56" s="15"/>
     </row>
   </sheetData>
@@ -1542,272 +1589,360 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCED03D7-F9F8-4C6F-ABE1-D755948D3A46}">
-  <dimension ref="A1:E85"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B68" sqref="B68"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B89" sqref="B89"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="19"/>
-    <col min="4" max="4" width="17.42578125" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.28515625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="19"/>
-    <col min="7" max="7" width="17.42578125" style="19" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="19"/>
+    <col min="4" max="4" width="19.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.33203125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="19"/>
+    <col min="7" max="7" width="37.88671875" style="19" customWidth="1"/>
     <col min="8" max="8" width="52" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="19"/>
+    <col min="9" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="31" t="s">
         <v>65</v>
       </c>
       <c r="B1" s="26" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D1" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E1" s="26" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="27"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D2" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E2" s="27"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="33" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="E3" s="19" t="s">
+      <c r="D3" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E3" s="28" t="s">
+        <v>161</v>
+      </c>
+      <c r="G3" s="19" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="33" t="s">
         <v>68</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D4" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E4" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A5" s="33" t="s">
         <v>142</v>
       </c>
       <c r="B5" s="28" t="s">
         <v>143</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D5" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A6" s="33" t="s">
         <v>144</v>
       </c>
       <c r="B6" s="28" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D6" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="E6" s="28" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A7" s="34" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="28" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D7" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E7" s="28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A8" s="34" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="28" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E8" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A9" s="34" t="s">
         <v>71</v>
       </c>
       <c r="B9" s="28" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="E9" s="28" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A10" s="34" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="28"/>
-    </row>
-    <row r="11" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D10" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E10" s="28"/>
+    </row>
+    <row r="11" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A11" s="35" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="28" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="35"/>
+      <c r="E11" s="28"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A12" s="35" t="s">
         <v>76</v>
       </c>
       <c r="B12" s="28" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="35"/>
+      <c r="E12" s="28"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
         <v>77</v>
       </c>
       <c r="B13" s="28" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" ht="47.25" x14ac:dyDescent="0.25">
+      <c r="D13" s="35"/>
+      <c r="E13" s="28"/>
+    </row>
+    <row r="14" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
         <v>78</v>
       </c>
       <c r="B14" s="28" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D14" s="35"/>
+      <c r="E14" s="28"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A15" s="34" t="s">
         <v>73</v>
       </c>
       <c r="B15" s="28"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D15" s="34"/>
+      <c r="E15" s="28"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A16" s="35" t="s">
         <v>79</v>
       </c>
       <c r="B16" s="28" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D16" s="35"/>
+      <c r="E16" s="28"/>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
         <v>80</v>
       </c>
       <c r="B17" s="28" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D17" s="35"/>
+      <c r="E17" s="28"/>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A18" s="35" t="s">
         <v>127</v>
       </c>
       <c r="B18" s="28" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D18" s="35"/>
+      <c r="E18" s="28"/>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A19" s="35" t="s">
         <v>128</v>
       </c>
       <c r="B19" s="28" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D19" s="35"/>
+      <c r="E19" s="28"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A20" s="35" t="s">
         <v>129</v>
       </c>
       <c r="B20" s="28" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D20" s="35"/>
+      <c r="E20" s="28"/>
+    </row>
+    <row r="21" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="36" t="s">
         <v>129</v>
       </c>
       <c r="B21" s="29" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="D21" s="36"/>
+      <c r="E21" s="29"/>
+    </row>
+    <row r="22" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="19"/>
       <c r="B22" s="19"/>
     </row>
-    <row r="23" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="31" t="s">
         <v>65</v>
       </c>
       <c r="B23" s="26" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G23" s="39"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="s">
         <v>66</v>
       </c>
       <c r="B24" s="27"/>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G24" s="39"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
         <v>67</v>
       </c>
       <c r="B25" s="28" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G25" s="39"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
         <v>68</v>
       </c>
       <c r="B26" s="28" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G26" s="39"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
         <v>142</v>
       </c>
       <c r="B27" s="28" t="s">
         <v>146</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G27" s="39"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
         <v>144</v>
       </c>
       <c r="B28" s="28" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G28" s="39"/>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
         <v>69</v>
       </c>
       <c r="B29" s="28" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G29" s="39"/>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
         <v>70</v>
       </c>
       <c r="B30" s="28" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G30" s="39"/>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
         <v>71</v>
       </c>
       <c r="B31" s="28" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G31" s="39"/>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
         <v>72</v>
       </c>
       <c r="B32" s="28"/>
-    </row>
-    <row r="33" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="G32" s="39"/>
+    </row>
+    <row r="33" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A33" s="35" t="s">
         <v>74</v>
       </c>
@@ -1815,7 +1950,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="35" t="s">
         <v>76</v>
       </c>
@@ -1823,7 +1958,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
         <v>77</v>
       </c>
@@ -1831,7 +1966,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="35" t="s">
         <v>78</v>
       </c>
@@ -1839,13 +1974,13 @@
         <v>100</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="34" t="s">
         <v>73</v>
       </c>
       <c r="B37" s="28"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="35" t="s">
         <v>79</v>
       </c>
@@ -1853,7 +1988,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="35" t="s">
         <v>80</v>
       </c>
@@ -1861,7 +1996,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="35" t="s">
         <v>82</v>
       </c>
@@ -1869,7 +2004,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="41" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A41" s="36" t="s">
         <v>83</v>
       </c>
@@ -1877,8 +2012,8 @@
         <v>84</v>
       </c>
     </row>
-    <row r="42" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="43" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="43" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A43" s="31" t="s">
         <v>65</v>
       </c>
@@ -1892,7 +2027,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="32" t="s">
         <v>66</v>
       </c>
@@ -1902,7 +2037,7 @@
       </c>
       <c r="E44" s="27"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="33" t="s">
         <v>67</v>
       </c>
@@ -1916,7 +2051,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="33" t="s">
         <v>68</v>
       </c>
@@ -1930,7 +2065,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="33" t="s">
         <v>142</v>
       </c>
@@ -1944,7 +2079,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="33" t="s">
         <v>144</v>
       </c>
@@ -1958,7 +2093,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A49" s="34" t="s">
         <v>69</v>
       </c>
@@ -1972,7 +2107,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A50" s="34" t="s">
         <v>70</v>
       </c>
@@ -1986,7 +2121,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A51" s="34" t="s">
         <v>71</v>
       </c>
@@ -2000,7 +2135,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A52" s="34" t="s">
         <v>72</v>
       </c>
@@ -2010,7 +2145,7 @@
       </c>
       <c r="E52" s="28"/>
     </row>
-    <row r="53" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A53" s="35" t="s">
         <v>74</v>
       </c>
@@ -2024,7 +2159,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A54" s="35" t="s">
         <v>76</v>
       </c>
@@ -2038,7 +2173,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A55" s="35" t="s">
         <v>77</v>
       </c>
@@ -2048,7 +2183,7 @@
       <c r="D55" s="24"/>
       <c r="E55" s="28"/>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A56" s="35" t="s">
         <v>78</v>
       </c>
@@ -2058,7 +2193,7 @@
       <c r="D56" s="24"/>
       <c r="E56" s="28"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A57" s="34" t="s">
         <v>73</v>
       </c>
@@ -2068,7 +2203,7 @@
       </c>
       <c r="E57" s="28"/>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A58" s="35" t="s">
         <v>131</v>
       </c>
@@ -2082,7 +2217,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A59" s="35" t="s">
         <v>132</v>
       </c>
@@ -2096,174 +2231,250 @@
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A60" s="35"/>
       <c r="B60" s="28"/>
       <c r="D60" s="24"/>
       <c r="E60" s="28"/>
     </row>
-    <row r="61" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A61" s="35"/>
       <c r="B61" s="28"/>
       <c r="D61" s="25"/>
       <c r="E61" s="29"/>
     </row>
-    <row r="62" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="63" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="63" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A63" s="31" t="s">
         <v>65</v>
       </c>
       <c r="B63" s="26" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D63" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E63" s="26" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A64" s="32" t="s">
         <v>66</v>
       </c>
       <c r="B64" s="27"/>
-    </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D64" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E64" s="27"/>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="33" t="s">
         <v>67</v>
       </c>
       <c r="B65" s="28" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D65" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E65" s="28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="33" t="s">
         <v>68</v>
       </c>
       <c r="B66" s="28" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D66" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E66" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A67" s="33" t="s">
         <v>142</v>
       </c>
       <c r="B67" s="28" t="s">
         <v>154</v>
       </c>
-    </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D67" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="E67" s="28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="33" t="s">
         <v>144</v>
       </c>
       <c r="B68" s="28" t="s">
         <v>155</v>
       </c>
-    </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D68" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="E68" s="28" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="34" t="s">
         <v>69</v>
       </c>
       <c r="B69" s="28" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D69" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E69" s="28" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="34" t="s">
         <v>70</v>
       </c>
       <c r="B70" s="28" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D70" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="E70" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="34" t="s">
         <v>71</v>
       </c>
       <c r="B71" s="28" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="72" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D71" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="E71" s="28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="34" t="s">
         <v>72</v>
       </c>
       <c r="B72" s="28"/>
-    </row>
-    <row r="73" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="D72" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E72" s="28"/>
+    </row>
+    <row r="73" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A73" s="35" t="s">
         <v>74</v>
       </c>
       <c r="B73" s="28" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D73" s="35"/>
+      <c r="E73" s="28"/>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="35" t="s">
         <v>76</v>
       </c>
       <c r="B74" s="28" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D74" s="35"/>
+      <c r="E74" s="28"/>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A75" s="35" t="s">
         <v>77</v>
       </c>
       <c r="B75" s="28" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="76" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D75" s="35"/>
+      <c r="E75" s="28"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="35" t="s">
         <v>78</v>
       </c>
       <c r="B76" s="28" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D76" s="35"/>
+      <c r="E76" s="28"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="35" t="s">
         <v>121</v>
       </c>
       <c r="B77" s="28" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D77" s="35"/>
+      <c r="E77" s="28"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="35" t="s">
         <v>123</v>
       </c>
       <c r="B78" s="28" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D78" s="35"/>
+      <c r="E78" s="28"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="34" t="s">
         <v>73</v>
       </c>
       <c r="B79" s="28"/>
-    </row>
-    <row r="80" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D79" s="34"/>
+      <c r="E79" s="28"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="35" t="s">
         <v>131</v>
       </c>
       <c r="B80" s="28" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D80" s="35"/>
+      <c r="E80" s="28"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="35" t="s">
         <v>132</v>
       </c>
       <c r="B81" s="28" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D81" s="35"/>
+      <c r="E81" s="28"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="35" t="s">
         <v>82</v>
       </c>
       <c r="B82" s="28" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="D82" s="35"/>
+      <c r="E82" s="28"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="35" t="s">
         <v>136</v>
       </c>
@@ -2271,7 +2482,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="35" t="s">
         <v>137</v>
       </c>
@@ -2279,7 +2490,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A85" s="35" t="s">
         <v>138</v>
       </c>
@@ -2287,7 +2498,208 @@
         <v>126</v>
       </c>
     </row>
+    <row r="86" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="87" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A87" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B87" s="26" t="s">
+        <v>157</v>
+      </c>
+      <c r="D87" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E87" s="26" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A88" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B88" s="27"/>
+      <c r="D88" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E88" s="27"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A89" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B89" s="28"/>
+      <c r="D89" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E89" s="28"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A90" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B90" s="28"/>
+      <c r="D90" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E90" s="28"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A91" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B91" s="28"/>
+      <c r="D91" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="E91" s="28"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A92" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B92" s="28"/>
+      <c r="D92" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="E92" s="28"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A93" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B93" s="28"/>
+      <c r="D93" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E93" s="28"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A94" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B94" s="28"/>
+      <c r="D94" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E94" s="28"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A95" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B95" s="28"/>
+      <c r="D95" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="E95" s="28"/>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A96" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B96" s="28"/>
+      <c r="D96" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E96" s="28"/>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A97" s="35"/>
+      <c r="B97" s="28"/>
+      <c r="D97" s="35"/>
+      <c r="E97" s="28"/>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A98" s="35"/>
+      <c r="B98" s="28"/>
+      <c r="D98" s="35"/>
+      <c r="E98" s="28"/>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A99" s="35"/>
+      <c r="B99" s="28"/>
+      <c r="D99" s="35"/>
+      <c r="E99" s="28"/>
+    </row>
+    <row r="100" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="101" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A101" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B101" s="26" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A102" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B102" s="27"/>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A103" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B103" s="28"/>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A104" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B104" s="28"/>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A105" s="33" t="s">
+        <v>142</v>
+      </c>
+      <c r="B105" s="28"/>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A106" s="33" t="s">
+        <v>144</v>
+      </c>
+      <c r="B106" s="28"/>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A107" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B107" s="28"/>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A108" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B108" s="28"/>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A109" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B109" s="28"/>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A110" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B110" s="28"/>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A111" s="35"/>
+      <c r="B111" s="28"/>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A112" s="35"/>
+      <c r="B112" s="28"/>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="35"/>
+      <c r="B113" s="28"/>
+    </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="G23:G32"/>
+  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/USE_CASE_LEVEZETES.xlsx
+++ b/USE_CASE_LEVEZETES.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csern\OneDrive\Dokumentumok\GitHub\SzoftTech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goczi\Desktop\5. félév\Szoftvertechnológia\repo\SzoftTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F689FD8-1158-4700-BB59-2B3B084E0629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1"/>
+    <workbookView xWindow="-2760" yWindow="-14640" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use-case" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="329" uniqueCount="171">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="165">
   <si>
     <t>Use case name</t>
   </si>
@@ -292,81 +293,24 @@
     <t>4.</t>
   </si>
   <si>
-    <t>3.1</t>
-  </si>
-  <si>
-    <t>3.2</t>
-  </si>
-  <si>
-    <t>A rendszer jelzi, hogy melyik mező nem lett kitöltve.</t>
-  </si>
-  <si>
     <t>4.1</t>
   </si>
   <si>
     <t>4.2</t>
   </si>
   <si>
-    <t>A rendszer hibaüzenetet dob.</t>
-  </si>
-  <si>
-    <t>Új beteg létrehozása</t>
-  </si>
-  <si>
-    <t>Az orvos létre tudja hozni a beteg fiókját.</t>
-  </si>
-  <si>
     <t>Az orvos legyen bejelentkezve</t>
   </si>
   <si>
     <t>Orvos</t>
   </si>
   <si>
-    <t>Az orvos létre akar hozni egy új beteg-fiókot.</t>
-  </si>
-  <si>
-    <t>Az orvos utasítást ad a rendszernek, hogy új beteg-fiókot akar létrehozni.</t>
-  </si>
-  <si>
-    <t>A rendszer visszaad egy kitöltendő felületet.</t>
-  </si>
-  <si>
-    <t>Az orvos visszaküldi a kitöltött regisztrációs felületet.</t>
-  </si>
-  <si>
-    <t>A rendszer ellenőrzi a külső adatbázisban, hogy van-e ilyen felhasználó, ha nincs akkor regisztrál egy új beteg felhasználót.</t>
-  </si>
-  <si>
-    <t>Hiányosan küldi vissza az orvos az űrlapot.</t>
-  </si>
-  <si>
-    <t>Már létezik ilyen beteg.</t>
-  </si>
-  <si>
     <t>Az orvos receptet szeretne felírni a betegnek.</t>
   </si>
   <si>
     <t>Az orvos utasítást ad a rendszernek, hogy receptet akar felírni.</t>
   </si>
   <si>
-    <t>Az orvos visszaküldi a kitöltött recept sablont.</t>
-  </si>
-  <si>
-    <t>A rendszer visszaad egy kitöltendő sablont.</t>
-  </si>
-  <si>
-    <t>A rendszer hozzáadja a beteg recept listájához.</t>
-  </si>
-  <si>
-    <t>Hiányosan küldi vissza az orvos a receptet.</t>
-  </si>
-  <si>
-    <t>Nem adja hozzá a receptet a listához.</t>
-  </si>
-  <si>
-    <t>Új recept hozzáadása</t>
-  </si>
-  <si>
     <t>Recept megtekintése</t>
   </si>
   <si>
@@ -436,18 +380,6 @@
     <t>A rendszer hibát dob, mivel nem volt kiválasztva recept</t>
   </si>
   <si>
-    <t>4.1/a</t>
-  </si>
-  <si>
-    <t>4.2/a</t>
-  </si>
-  <si>
-    <t>4.2/b</t>
-  </si>
-  <si>
-    <t>Nem elérhető az adatbázis</t>
-  </si>
-  <si>
     <t>2.1</t>
   </si>
   <si>
@@ -472,9 +404,6 @@
     <t>5.3</t>
   </si>
   <si>
-    <t>Sikeres sikertelen lefutás.</t>
-  </si>
-  <si>
     <t>Recept megtekintése orvosi felhasználóval</t>
   </si>
   <si>
@@ -484,21 +413,12 @@
     <t>Sikeres lefutás</t>
   </si>
   <si>
-    <t>Az orvos létrehoz egy beteg felhasználót.</t>
-  </si>
-  <si>
     <t>Sikertelen lefutás</t>
   </si>
   <si>
-    <t>Az applikáció visszautasítja a regisztrációt.</t>
-  </si>
-  <si>
     <t>Az orvos hozzáad egy új receptet a beteghez.</t>
   </si>
   <si>
-    <t>Az applikáció visszautasítja a recept hozzáadását.</t>
-  </si>
-  <si>
     <t>Orvos/gyógyszertár legyen bejelentkezve</t>
   </si>
   <si>
@@ -538,18 +458,6 @@
     <t>Beteg törlése</t>
   </si>
   <si>
-    <t>Az orvos törölni tudja hozni a beteg fiókját.</t>
-  </si>
-  <si>
-    <t>Az orvos sikeresen törölte a felhasználói fiókot</t>
-  </si>
-  <si>
-    <t>A fiók bennt maradt a rendszerben</t>
-  </si>
-  <si>
-    <t>Az orvos törölni akar egy felhasználói fiókot</t>
-  </si>
-  <si>
     <t>A beteg részéről egy igény benyújtása</t>
   </si>
   <si>
@@ -566,12 +474,87 @@
   </si>
   <si>
     <t>A beteg igényt szeretne benyújtani gyógyszerekre</t>
+  </si>
+  <si>
+    <t>Beteg felvétele</t>
+  </si>
+  <si>
+    <t>Orvos fel tudja venni a beteget</t>
+  </si>
+  <si>
+    <t>Az orvos listájára sikeresen felkerül a beteg</t>
+  </si>
+  <si>
+    <t>Az orvos beteg listája változatlan marad</t>
+  </si>
+  <si>
+    <t>Orvos fel akarja venni a beteget</t>
+  </si>
+  <si>
+    <t>Az orvos utasítást ad a rendszernek, beteg felvételére</t>
+  </si>
+  <si>
+    <t>A rendszer visszaad egy listát a betegekkel</t>
+  </si>
+  <si>
+    <t>Rendszer rögzíti az orvos beteg listájára a vélasztott beteget.</t>
+  </si>
+  <si>
+    <t>Az orvos kiválasztja a beteget</t>
+  </si>
+  <si>
+    <t>A beteg már fel van véve az adott orvoshoz</t>
+  </si>
+  <si>
+    <t>Az orvos törölni tudja az álltala felvett betegeket a listájáról</t>
+  </si>
+  <si>
+    <t>Az orvos listájáról törlődik a beteg</t>
+  </si>
+  <si>
+    <t>Az orvos törölni akar egy beteget a listájáról</t>
+  </si>
+  <si>
+    <t>Az orvos utasítást ad a rendszernek beteg törlésére</t>
+  </si>
+  <si>
+    <t>A rendszer kilistázza az orvoshoz tartozó betegeket</t>
+  </si>
+  <si>
+    <t>Az orvos kiválasztja a törölni kívánt beteget</t>
+  </si>
+  <si>
+    <t>A rendszer törli a beteget az adott orvos listájáról</t>
+  </si>
+  <si>
+    <t>Nincs még az orvosnak beteg a listáján</t>
+  </si>
+  <si>
+    <t>Új recept létrehozása</t>
+  </si>
+  <si>
+    <t>A rendszer kilistázza az orvos betegeit</t>
+  </si>
+  <si>
+    <t>Orvos kiválasztja a felírni kívánt gyógyszert.</t>
+  </si>
+  <si>
+    <t>Beteg recept listájára felkerül az új recept.</t>
+  </si>
+  <si>
+    <t>A rendszer kilistázza az elérhető gyógyszereket</t>
+  </si>
+  <si>
+    <t>Hiba feljegyzése</t>
+  </si>
+  <si>
+    <t>A beteg recept listája változatlan marad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -900,7 +883,7 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1181,21 +1164,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="71" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1203,7 +1186,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -1211,7 +1194,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="37" t="s">
         <v>4</v>
       </c>
@@ -1219,11 +1202,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="37"/>
       <c r="B4" s="38"/>
     </row>
-    <row r="5" spans="1:2" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
@@ -1231,7 +1214,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
@@ -1239,7 +1222,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -1247,7 +1230,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
@@ -1255,7 +1238,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -1263,7 +1246,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
@@ -1271,7 +1254,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
@@ -1279,7 +1262,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
@@ -1287,10 +1270,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>0</v>
       </c>
@@ -1298,7 +1281,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>2</v>
       </c>
@@ -1306,7 +1289,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="37" t="s">
         <v>4</v>
       </c>
@@ -1314,11 +1297,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="37"/>
       <c r="B17" s="38"/>
     </row>
-    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>6</v>
       </c>
@@ -1326,7 +1309,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>24</v>
       </c>
@@ -1334,7 +1317,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>28</v>
       </c>
@@ -1342,7 +1325,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>29</v>
       </c>
@@ -1350,7 +1333,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>31</v>
       </c>
@@ -1358,7 +1341,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>33</v>
       </c>
@@ -1366,7 +1349,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>19</v>
       </c>
@@ -1374,11 +1357,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>0</v>
       </c>
@@ -1386,7 +1369,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>2</v>
       </c>
@@ -1394,7 +1377,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="37" t="s">
         <v>4</v>
       </c>
@@ -1402,11 +1385,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="0.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="0.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="37"/>
       <c r="B29" s="38"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>6</v>
       </c>
@@ -1414,7 +1397,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>24</v>
       </c>
@@ -1422,7 +1405,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>41</v>
       </c>
@@ -1430,7 +1413,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>43</v>
       </c>
@@ -1438,7 +1421,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>19</v>
       </c>
@@ -1446,7 +1429,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>46</v>
       </c>
@@ -1454,11 +1437,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>0</v>
       </c>
@@ -1466,7 +1449,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>2</v>
       </c>
@@ -1474,7 +1457,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="37" t="s">
         <v>4</v>
       </c>
@@ -1482,11 +1465,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="37"/>
       <c r="B40" s="38"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>6</v>
       </c>
@@ -1494,7 +1477,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>24</v>
       </c>
@@ -1502,7 +1485,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>52</v>
       </c>
@@ -1510,7 +1493,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>54</v>
       </c>
@@ -1518,7 +1501,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>57</v>
       </c>
@@ -1526,7 +1509,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>19</v>
       </c>
@@ -1534,7 +1517,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>60</v>
       </c>
@@ -1542,7 +1525,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>61</v>
       </c>
@@ -1550,7 +1533,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>63</v>
       </c>
@@ -1558,18 +1541,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="B50" s="18"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="16"/>
       <c r="B52" s="1"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" s="15"/>
     </row>
   </sheetData>
@@ -1589,41 +1572,41 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G113"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B89" sqref="B89"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="19"/>
-    <col min="4" max="4" width="19.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.33203125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="19"/>
-    <col min="7" max="7" width="37.88671875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="19"/>
+    <col min="4" max="4" width="19.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.28515625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="19"/>
+    <col min="7" max="7" width="37.85546875" style="19" customWidth="1"/>
     <col min="8" max="8" width="52" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="19"/>
+    <col min="9" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="31" t="s">
         <v>65</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>85</v>
+        <v>140</v>
       </c>
       <c r="D1" s="31" t="s">
         <v>65</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>66</v>
       </c>
@@ -1633,108 +1616,105 @@
       </c>
       <c r="E2" s="27"/>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="33" t="s">
         <v>67</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>86</v>
+        <v>141</v>
       </c>
       <c r="D3" s="33" t="s">
         <v>67</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>161</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="33" t="s">
         <v>68</v>
       </c>
       <c r="B4" s="28" t="s">
-        <v>87</v>
+        <v>81</v>
       </c>
       <c r="D4" s="33" t="s">
         <v>68</v>
       </c>
       <c r="E4" s="28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B5" s="28" t="s">
         <v>142</v>
       </c>
-      <c r="B5" s="28" t="s">
+      <c r="D5" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E5" s="28" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B6" s="28" t="s">
         <v>143</v>
       </c>
-      <c r="D5" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>145</v>
-      </c>
       <c r="D6" s="33" t="s">
-        <v>144</v>
+        <v>119</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="34" t="s">
         <v>69</v>
       </c>
       <c r="B7" s="28" t="s">
-        <v>88</v>
+        <v>82</v>
       </c>
       <c r="D7" s="34" t="s">
         <v>69</v>
       </c>
       <c r="E7" s="28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="34" t="s">
         <v>70</v>
       </c>
       <c r="B8" s="28" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D8" s="34" t="s">
         <v>70</v>
       </c>
       <c r="E8" s="28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="34" t="s">
         <v>71</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>89</v>
+        <v>144</v>
       </c>
       <c r="D9" s="34" t="s">
         <v>71</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="34" t="s">
         <v>72</v>
       </c>
@@ -1744,962 +1724,945 @@
       </c>
       <c r="E10" s="28"/>
     </row>
-    <row r="11" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="35" t="s">
         <v>74</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D11" s="35"/>
-      <c r="E11" s="28"/>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>145</v>
+      </c>
+      <c r="D11" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="E11" s="28" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="35" t="s">
         <v>76</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>91</v>
-      </c>
-      <c r="D12" s="35"/>
-      <c r="E12" s="28"/>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+        <v>146</v>
+      </c>
+      <c r="D12" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="E12" s="28" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="35" t="s">
         <v>77</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="D13" s="35"/>
-      <c r="E13" s="28"/>
-    </row>
-    <row r="14" spans="1:7" ht="46.8" x14ac:dyDescent="0.3">
+        <v>148</v>
+      </c>
+      <c r="D13" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="E13" s="28" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" s="35" t="s">
         <v>78</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D14" s="35"/>
-      <c r="E14" s="28"/>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+        <v>147</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="E14" s="28" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A15" s="34" t="s">
         <v>73</v>
       </c>
       <c r="B15" s="28"/>
-      <c r="D15" s="34"/>
+      <c r="D15" s="34" t="s">
+        <v>73</v>
+      </c>
       <c r="E15" s="28"/>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A16" s="35" t="s">
         <v>79</v>
       </c>
       <c r="B16" s="28" t="s">
+        <v>149</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E16" s="28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>163</v>
+      </c>
+      <c r="D17" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="E17" s="29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="19"/>
+      <c r="B18" s="19"/>
+    </row>
+    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B19" s="26" t="s">
+        <v>158</v>
+      </c>
+      <c r="G19" s="39"/>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B20" s="27"/>
+      <c r="G20" s="39"/>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="28" t="s">
+        <v>86</v>
+      </c>
+      <c r="G21" s="39"/>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" s="39"/>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B23" s="28" t="s">
+        <v>120</v>
+      </c>
+      <c r="G23" s="39"/>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B24" s="28" t="s">
+        <v>164</v>
+      </c>
+      <c r="G24" s="39"/>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="G25" s="39"/>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="28" t="s">
+        <v>89</v>
+      </c>
+      <c r="G26" s="39"/>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="28" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="39"/>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="28"/>
+      <c r="G28" s="39"/>
+    </row>
+    <row r="29" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A29" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="28" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="28" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="28" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A33" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="B33" s="28" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A34" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="B34" s="28" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A35" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="28"/>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A36" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B36" s="28" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="36" t="s">
+        <v>109</v>
+      </c>
+      <c r="B37" s="29" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="39" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B39" s="26" t="s">
+        <v>116</v>
+      </c>
+      <c r="D39" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="E39" s="26" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A40" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B40" s="27"/>
+      <c r="D40" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="E40" s="27"/>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A41" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B41" s="28" t="s">
+        <v>85</v>
+      </c>
+      <c r="D41" s="30" t="s">
+        <v>67</v>
+      </c>
+      <c r="E41" s="28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A42" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B42" s="28" t="s">
+        <v>121</v>
+      </c>
+      <c r="D42" s="30" t="s">
+        <v>68</v>
+      </c>
+      <c r="E42" s="28" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A43" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B43" s="28" t="s">
+        <v>123</v>
+      </c>
+      <c r="D43" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E43" s="28" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A44" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B44" s="28" t="s">
+        <v>124</v>
+      </c>
+      <c r="D44" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E44" s="28" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A45" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B45" s="28" t="s">
+        <v>122</v>
+      </c>
+      <c r="D45" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="E45" s="28" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A46" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B46" s="28" t="s">
+        <v>75</v>
+      </c>
+      <c r="D46" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="28" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A47" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B47" s="28" t="s">
+        <v>90</v>
+      </c>
+      <c r="D47" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="E47" s="28" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A48" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B48" s="28"/>
+      <c r="D48" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="E48" s="28"/>
+    </row>
+    <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A49" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B49" s="28" t="s">
+        <v>92</v>
+      </c>
+      <c r="D49" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" s="28" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A50" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B50" s="28" t="s">
+        <v>93</v>
+      </c>
+      <c r="D50" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="E50" s="28" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A51" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B51" s="28" t="s">
         <v>94</v>
       </c>
-      <c r="D16" s="35"/>
-      <c r="E16" s="28"/>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="D17" s="35"/>
-      <c r="E17" s="28"/>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18" s="35" t="s">
-        <v>127</v>
-      </c>
-      <c r="B18" s="28" t="s">
+      <c r="D51" s="24"/>
+      <c r="E51" s="28"/>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A52" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B52" s="28" t="s">
         <v>95</v>
       </c>
-      <c r="D18" s="35"/>
-      <c r="E18" s="28"/>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19" s="35" t="s">
-        <v>128</v>
-      </c>
-      <c r="B19" s="28" t="s">
-        <v>84</v>
-      </c>
-      <c r="D19" s="35"/>
-      <c r="E19" s="28"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20" s="35" t="s">
-        <v>129</v>
-      </c>
-      <c r="B20" s="28" t="s">
-        <v>130</v>
-      </c>
-      <c r="D20" s="35"/>
-      <c r="E20" s="28"/>
-    </row>
-    <row r="21" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="36" t="s">
-        <v>129</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>84</v>
-      </c>
-      <c r="D21" s="36"/>
-      <c r="E21" s="29"/>
-    </row>
-    <row r="22" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A22" s="19"/>
-      <c r="B22" s="19"/>
-    </row>
-    <row r="23" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B23" s="26" t="s">
-        <v>103</v>
-      </c>
-      <c r="G23" s="39"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B24" s="27"/>
-      <c r="G24" s="39"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="G25" s="39"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="G26" s="39"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>146</v>
-      </c>
-      <c r="G27" s="39"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="B28" s="28" t="s">
-        <v>147</v>
-      </c>
-      <c r="G28" s="39"/>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="G29" s="39"/>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="G30" s="39"/>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B31" s="28" t="s">
+      <c r="D52" s="24"/>
+      <c r="E52" s="28"/>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A53" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="28"/>
+      <c r="D53" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53" s="28"/>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A54" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="B54" s="28" t="s">
         <v>96</v>
       </c>
-      <c r="G31" s="39"/>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B32" s="28"/>
-      <c r="G32" s="39"/>
-    </row>
-    <row r="33" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A33" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="B33" s="28" t="s">
+      <c r="D54" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="E54" s="28" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A55" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="B55" s="28" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A34" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A35" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B35" s="28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A36" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A37" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B37" s="28"/>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A38" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B38" s="28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A39" s="35" t="s">
-        <v>80</v>
-      </c>
-      <c r="B39" s="28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A40" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="B40" s="28" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A41" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="B41" s="29" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="43" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A43" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B43" s="26" t="s">
-        <v>140</v>
-      </c>
-      <c r="D43" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E43" s="26" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A44" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B44" s="27"/>
-      <c r="D44" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E44" s="27"/>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A45" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="D45" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A46" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>148</v>
-      </c>
-      <c r="D46" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="E46" s="28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A47" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="B47" s="28" t="s">
-        <v>150</v>
-      </c>
-      <c r="D47" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="E47" s="28" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A48" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="B48" s="28" t="s">
-        <v>151</v>
-      </c>
-      <c r="D48" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="E48" s="28" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A49" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>149</v>
-      </c>
-      <c r="D49" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E49" s="28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A50" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B50" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D50" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E50" s="28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A51" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B51" s="28" t="s">
+      <c r="D55" s="35" t="s">
         <v>109</v>
       </c>
-      <c r="D51" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E51" s="28" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A52" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B52" s="28"/>
-      <c r="D52" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E52" s="28"/>
-    </row>
-    <row r="53" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A53" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="B53" s="28" t="s">
+      <c r="E55" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="D53" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="E53" s="28" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A54" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B54" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="D54" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E54" s="28" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A55" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B55" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="D55" s="24"/>
-      <c r="E55" s="28"/>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A56" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B56" s="28" t="s">
-        <v>114</v>
-      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="35"/>
+      <c r="B56" s="28"/>
       <c r="D56" s="24"/>
       <c r="E56" s="28"/>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A57" s="34" t="s">
-        <v>73</v>
-      </c>
+    <row r="57" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="35"/>
       <c r="B57" s="28"/>
-      <c r="D57" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E57" s="28"/>
-    </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A58" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="B58" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="D58" s="35" t="s">
-        <v>131</v>
-      </c>
-      <c r="E58" s="28" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A59" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="B59" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="D59" s="35" t="s">
-        <v>132</v>
-      </c>
-      <c r="E59" s="28" t="s">
+      <c r="D57" s="25"/>
+      <c r="E57" s="29"/>
+    </row>
+    <row r="58" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="59" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A59" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B59" s="26" t="s">
+        <v>100</v>
+      </c>
+      <c r="D59" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E59" s="26" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B60" s="27"/>
+      <c r="D60" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" s="27"/>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A61" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B61" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="D61" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E61" s="28" t="s">
         <v>134</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A60" s="35"/>
-      <c r="B60" s="28"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="28"/>
-    </row>
-    <row r="61" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A61" s="35"/>
-      <c r="B61" s="28"/>
-      <c r="D61" s="25"/>
-      <c r="E61" s="29"/>
-    </row>
-    <row r="62" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="63" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A63" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B63" s="26" t="s">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B62" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="D62" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E62" s="28" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A63" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B63" s="28" t="s">
+        <v>127</v>
+      </c>
+      <c r="D63" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E63" s="28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A64" s="33" t="s">
         <v>119</v>
       </c>
-      <c r="D63" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="E63" s="26" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A64" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B64" s="27"/>
-      <c r="D64" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E64" s="27"/>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="33" t="s">
-        <v>67</v>
+      <c r="B64" s="28" t="s">
+        <v>128</v>
+      </c>
+      <c r="D64" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E64" s="28" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A65" s="34" t="s">
+        <v>69</v>
       </c>
       <c r="B65" s="28" t="s">
-        <v>119</v>
-      </c>
-      <c r="D65" s="33" t="s">
-        <v>67</v>
+        <v>82</v>
+      </c>
+      <c r="D65" s="34" t="s">
+        <v>69</v>
       </c>
       <c r="E65" s="28" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="33" t="s">
-        <v>68</v>
+        <v>89</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="34" t="s">
+        <v>70</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="D66" s="33" t="s">
-        <v>68</v>
+        <v>75</v>
+      </c>
+      <c r="D66" s="34" t="s">
+        <v>137</v>
       </c>
       <c r="E66" s="28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A67" s="33" t="s">
-        <v>142</v>
+        <v>138</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A67" s="34" t="s">
+        <v>71</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>154</v>
-      </c>
-      <c r="D67" s="33" t="s">
-        <v>142</v>
+        <v>101</v>
+      </c>
+      <c r="D67" s="34" t="s">
+        <v>71</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="B68" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="D68" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="E68" s="28" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="34" t="s">
-        <v>69</v>
+        <v>139</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A68" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B68" s="28"/>
+      <c r="D68" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E68" s="28"/>
+    </row>
+    <row r="69" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A69" s="35" t="s">
+        <v>74</v>
       </c>
       <c r="B69" s="28" t="s">
-        <v>88</v>
-      </c>
-      <c r="D69" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E69" s="28" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="34" t="s">
-        <v>70</v>
+        <v>92</v>
+      </c>
+      <c r="D69" s="35"/>
+      <c r="E69" s="28"/>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="35" t="s">
+        <v>76</v>
       </c>
       <c r="B70" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D70" s="34" t="s">
-        <v>168</v>
-      </c>
-      <c r="E70" s="28" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="34" t="s">
-        <v>71</v>
+        <v>93</v>
+      </c>
+      <c r="D70" s="35"/>
+      <c r="E70" s="28"/>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="35" t="s">
+        <v>77</v>
       </c>
       <c r="B71" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="D71" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="E71" s="28" t="s">
-        <v>170</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B72" s="28"/>
-      <c r="D72" s="34" t="s">
-        <v>72</v>
-      </c>
+        <v>94</v>
+      </c>
+      <c r="D71" s="35"/>
+      <c r="E71" s="28"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B72" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="D72" s="35"/>
       <c r="E72" s="28"/>
     </row>
-    <row r="73" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="35" t="s">
-        <v>74</v>
+        <v>102</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="D73" s="35"/>
       <c r="E73" s="28"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="35" t="s">
-        <v>76</v>
+        <v>104</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="D74" s="35"/>
       <c r="E74" s="28"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B75" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="D75" s="35"/>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A75" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B75" s="28"/>
+      <c r="D75" s="34"/>
       <c r="E75" s="28"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="35" t="s">
-        <v>78</v>
+        <v>108</v>
       </c>
       <c r="B76" s="28" t="s">
-        <v>114</v>
+        <v>96</v>
       </c>
       <c r="D76" s="35"/>
       <c r="E76" s="28"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="35" t="s">
-        <v>121</v>
+        <v>109</v>
       </c>
       <c r="B77" s="28" t="s">
-        <v>122</v>
+        <v>97</v>
       </c>
       <c r="D77" s="35"/>
       <c r="E77" s="28"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="35" t="s">
-        <v>123</v>
+        <v>79</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>124</v>
+        <v>98</v>
       </c>
       <c r="D78" s="35"/>
       <c r="E78" s="28"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B79" s="28"/>
-      <c r="D79" s="34"/>
-      <c r="E79" s="28"/>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="B79" s="28" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="35" t="s">
+        <v>114</v>
+      </c>
+      <c r="B80" s="28" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="35" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" s="28" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="83" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A83" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B83" s="26" t="s">
+        <v>130</v>
+      </c>
+      <c r="D83" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="E83" s="26" t="s">
         <v>131</v>
       </c>
-      <c r="B80" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="D80" s="35"/>
-      <c r="E80" s="28"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A81" s="35" t="s">
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B84" s="27"/>
+      <c r="D84" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="E84" s="27"/>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A85" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B85" s="28"/>
+      <c r="D85" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="E85" s="28"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B86" s="28"/>
+      <c r="D86" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="E86" s="28"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B87" s="28"/>
+      <c r="D87" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="E87" s="28"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B88" s="28"/>
+      <c r="D88" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="E88" s="28"/>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A89" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B89" s="28"/>
+      <c r="D89" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="E89" s="28"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B90" s="28"/>
+      <c r="D90" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="E90" s="28"/>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A91" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="B91" s="28"/>
+      <c r="D91" s="34" t="s">
+        <v>71</v>
+      </c>
+      <c r="E91" s="28"/>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A92" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B92" s="28"/>
+      <c r="D92" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="E92" s="28"/>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="35"/>
+      <c r="B93" s="28"/>
+      <c r="D93" s="35"/>
+      <c r="E93" s="28"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="35"/>
+      <c r="B94" s="28"/>
+      <c r="D94" s="35"/>
+      <c r="E94" s="28"/>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="35"/>
+      <c r="B95" s="28"/>
+      <c r="D95" s="35"/>
+      <c r="E95" s="28"/>
+    </row>
+    <row r="96" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="97" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A97" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B97" s="26" t="s">
         <v>132</v>
       </c>
-      <c r="B81" s="28" t="s">
-        <v>116</v>
-      </c>
-      <c r="D81" s="35"/>
-      <c r="E81" s="28"/>
-    </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A82" s="35" t="s">
-        <v>82</v>
-      </c>
-      <c r="B82" s="28" t="s">
-        <v>117</v>
-      </c>
-      <c r="D82" s="35"/>
-      <c r="E82" s="28"/>
-    </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A83" s="35" t="s">
-        <v>136</v>
-      </c>
-      <c r="B83" s="28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A84" s="35" t="s">
-        <v>137</v>
-      </c>
-      <c r="B84" s="28" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A85" s="35" t="s">
-        <v>138</v>
-      </c>
-      <c r="B85" s="28" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="86" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="87" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A87" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B87" s="26" t="s">
-        <v>157</v>
-      </c>
-      <c r="D87" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="E87" s="26" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A88" s="32" t="s">
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A98" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B88" s="27"/>
-      <c r="D88" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E88" s="27"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A89" s="33" t="s">
+      <c r="B98" s="27"/>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A99" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="B89" s="28"/>
-      <c r="D89" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="E89" s="28"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A90" s="33" t="s">
+      <c r="B99" s="28"/>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A100" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B90" s="28"/>
-      <c r="D90" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E90" s="28"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A91" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="B91" s="28"/>
-      <c r="D91" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="E91" s="28"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A92" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="B92" s="28"/>
-      <c r="D92" s="33" t="s">
-        <v>144</v>
-      </c>
-      <c r="E92" s="28"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A93" s="34" t="s">
+      <c r="B100" s="28"/>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="33" t="s">
+        <v>118</v>
+      </c>
+      <c r="B101" s="28"/>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="33" t="s">
+        <v>119</v>
+      </c>
+      <c r="B102" s="28"/>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A103" s="34" t="s">
         <v>69</v>
       </c>
-      <c r="B93" s="28"/>
-      <c r="D93" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E93" s="28"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A94" s="34" t="s">
+      <c r="B103" s="28"/>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A104" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B94" s="28"/>
-      <c r="D94" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="E94" s="28"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A95" s="34" t="s">
+      <c r="B104" s="28"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B95" s="28"/>
-      <c r="D95" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="E95" s="28"/>
-    </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A96" s="34" t="s">
+      <c r="B105" s="28"/>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B96" s="28"/>
-      <c r="D96" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E96" s="28"/>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A97" s="35"/>
-      <c r="B97" s="28"/>
-      <c r="D97" s="35"/>
-      <c r="E97" s="28"/>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A98" s="35"/>
-      <c r="B98" s="28"/>
-      <c r="D98" s="35"/>
-      <c r="E98" s="28"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A99" s="35"/>
-      <c r="B99" s="28"/>
-      <c r="D99" s="35"/>
-      <c r="E99" s="28"/>
-    </row>
-    <row r="100" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="101" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A101" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B101" s="26" t="s">
-        <v>159</v>
-      </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A102" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B102" s="27"/>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A103" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B103" s="28"/>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A104" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B104" s="28"/>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A105" s="33" t="s">
-        <v>142</v>
-      </c>
-      <c r="B105" s="28"/>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A106" s="33" t="s">
-        <v>144</v>
-      </c>
       <c r="B106" s="28"/>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A107" s="34" t="s">
-        <v>69</v>
-      </c>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="35"/>
       <c r="B107" s="28"/>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A108" s="34" t="s">
-        <v>70</v>
-      </c>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="35"/>
       <c r="B108" s="28"/>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A109" s="34" t="s">
-        <v>71</v>
-      </c>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="35"/>
       <c r="B109" s="28"/>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A110" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B110" s="28"/>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A111" s="35"/>
-      <c r="B111" s="28"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A112" s="35"/>
-      <c r="B112" s="28"/>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A113" s="35"/>
-      <c r="B113" s="28"/>
-    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="G23:G32"/>
-  </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/USE_CASE_LEVEZETES.xlsx
+++ b/USE_CASE_LEVEZETES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goczi\Desktop\5. félév\Szoftvertechnológia\repo\SzoftTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1F689FD8-1158-4700-BB59-2B3B084E0629}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428AC4CC-3831-4708-9A0F-CC57F6567597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-2760" yWindow="-14640" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="333" uniqueCount="165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="186">
   <si>
     <t>Use case name</t>
   </si>
@@ -350,36 +350,18 @@
     <t>A rendszer jelzi, hogy még nincs beteg</t>
   </si>
   <si>
-    <t>A rendszer kiírja, hogy nincs még recept a betegnél</t>
-  </si>
-  <si>
     <t>A rendszer kiírja a receptek listáját</t>
   </si>
   <si>
     <t>Recept törlése</t>
   </si>
   <si>
-    <t>Az orvos törölni akarja a recepteket</t>
-  </si>
-  <si>
     <t>5.</t>
   </si>
   <si>
-    <t>Az orvos kiválasztja az adott receptet</t>
-  </si>
-  <si>
     <t>6.</t>
   </si>
   <si>
-    <t>Az orvos törli a receptet</t>
-  </si>
-  <si>
-    <t>Az orvos nem választott ki receptet</t>
-  </si>
-  <si>
-    <t>A rendszer hibát dob, mivel nem volt kiválasztva recept</t>
-  </si>
-  <si>
     <t>2.1</t>
   </si>
   <si>
@@ -395,15 +377,6 @@
     <t>Az beteg utasítást ad a rendszernek, hogy meg akarja nézni a receptjeit.</t>
   </si>
   <si>
-    <t>5.1</t>
-  </si>
-  <si>
-    <t>5.2</t>
-  </si>
-  <si>
-    <t>5.3</t>
-  </si>
-  <si>
     <t>Recept megtekintése orvosi felhasználóval</t>
   </si>
   <si>
@@ -440,9 +413,6 @@
     <t>Az orvos törli a receptet a beteg listájáról.</t>
   </si>
   <si>
-    <t>A rendszer elutasítja a törlést</t>
-  </si>
-  <si>
     <t xml:space="preserve">Recept igénylése </t>
   </si>
   <si>
@@ -545,10 +515,103 @@
     <t>A rendszer kilistázza az elérhető gyógyszereket</t>
   </si>
   <si>
-    <t>Hiba feljegyzése</t>
-  </si>
-  <si>
     <t>A beteg recept listája változatlan marad</t>
+  </si>
+  <si>
+    <t>Hiba feljegyzése, valamint üzenet kiírása</t>
+  </si>
+  <si>
+    <t>A beteg gyógyszerlistája változatlan marad</t>
+  </si>
+  <si>
+    <t>Az orvos törölni akarja a receptet</t>
+  </si>
+  <si>
+    <t>Az orvos kiválasztja a törölni kívánt receptet</t>
+  </si>
+  <si>
+    <t>A recept törlődik a beteg listájáról</t>
+  </si>
+  <si>
+    <t>Az adott betegnek még nincsen receptje</t>
+  </si>
+  <si>
+    <t>A rendszer jelzi, hogy a betegnek receptje</t>
+  </si>
+  <si>
+    <t>Új gyógyszer felvétele az elérhető gyógyszerek listájához</t>
+  </si>
+  <si>
+    <t>Gyógyszertári felhasználó legyen bejelentkezve</t>
+  </si>
+  <si>
+    <t>Új gyógyszer kerül az elérhető gyógyszerek listájára</t>
+  </si>
+  <si>
+    <t>Elérhető gyógyszerek listája változatlan marad</t>
+  </si>
+  <si>
+    <t>Gyógyszertár</t>
+  </si>
+  <si>
+    <t>Nincs</t>
+  </si>
+  <si>
+    <t>Új gyógyszert szeretne a gyógyszertár felvenni az elérhetők listájára</t>
+  </si>
+  <si>
+    <t>A gyógyszertár új gyógyszert akar felvenni</t>
+  </si>
+  <si>
+    <t>A rendszer visszaad egy űrlapot</t>
+  </si>
+  <si>
+    <t>Az új gyógyszer felkerül az elérhető gyógyszerek listájára</t>
+  </si>
+  <si>
+    <t>A gyógyszertár visszaküldi az űrlapot</t>
+  </si>
+  <si>
+    <t>3.1</t>
+  </si>
+  <si>
+    <t>Hiányosan, vagy nem megfelelően lett kitöltve az űrlap</t>
+  </si>
+  <si>
+    <t>3.2</t>
+  </si>
+  <si>
+    <t>A rendszer jelzi, hogy nem megfelelő az űrlap és feljegyzi a hibát</t>
+  </si>
+  <si>
+    <t>A gyógyszer már szerepel a listán</t>
+  </si>
+  <si>
+    <t>Rendszer jelzi, hogy már van ilyen gyógyszer</t>
+  </si>
+  <si>
+    <t>Gyógyszer törlése az elérhetők listájáról</t>
+  </si>
+  <si>
+    <t>Gyógyszer törlődik az elérhetők listájáról</t>
+  </si>
+  <si>
+    <t>Elérhető gyógyszerek lsitájra változatlan marad</t>
+  </si>
+  <si>
+    <t>Gyógyszertár törölni kíván egy gyógyszert az elérhetők listájáról</t>
+  </si>
+  <si>
+    <t>A gyógyszertár jelzi, hogy gyógyszert akar törölni a listáról</t>
+  </si>
+  <si>
+    <t>A rendszer kilistázza a gyógyszereket</t>
+  </si>
+  <si>
+    <t>A gyógyszertár kiválasztja a törölni kívánt gyógyszert</t>
+  </si>
+  <si>
+    <t>Gyógyszer törlődik a listából</t>
   </si>
 </sst>
 </file>
@@ -876,14 +939,14 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1167,7 +1230,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B56"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
@@ -1195,16 +1258,16 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="39" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
+      <c r="A4" s="38"/>
+      <c r="B4" s="39"/>
     </row>
     <row r="5" spans="1:2" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -1290,16 +1353,16 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="39" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38"/>
+      <c r="A17" s="38"/>
+      <c r="B17" s="39"/>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
@@ -1378,16 +1441,16 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="39" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="0.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="38"/>
+      <c r="A29" s="38"/>
+      <c r="B29" s="39"/>
     </row>
     <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
@@ -1458,16 +1521,16 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="38" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="39" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
-      <c r="B40" s="38"/>
+      <c r="A40" s="38"/>
+      <c r="B40" s="39"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
@@ -1573,10 +1636,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G132"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1597,13 +1660,13 @@
         <v>65</v>
       </c>
       <c r="B1" s="26" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
       <c r="D1" s="31" t="s">
         <v>65</v>
       </c>
       <c r="E1" s="26" t="s">
-        <v>133</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -1621,13 +1684,13 @@
         <v>67</v>
       </c>
       <c r="B3" s="28" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
       <c r="D3" s="33" t="s">
         <v>67</v>
       </c>
       <c r="E3" s="28" t="s">
-        <v>150</v>
+        <v>140</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1646,30 +1709,30 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="33" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B5" s="28" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="D5" s="33" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>151</v>
+        <v>141</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="33" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B6" s="28" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
       <c r="D6" s="33" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E6" s="28" t="s">
-        <v>143</v>
+        <v>133</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
@@ -1705,13 +1768,13 @@
         <v>71</v>
       </c>
       <c r="B9" s="28" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
       <c r="D9" s="34" t="s">
         <v>71</v>
       </c>
       <c r="E9" s="28" t="s">
-        <v>152</v>
+        <v>142</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1729,13 +1792,13 @@
         <v>74</v>
       </c>
       <c r="B11" s="28" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="D11" s="35" t="s">
         <v>74</v>
       </c>
       <c r="E11" s="28" t="s">
-        <v>153</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
@@ -1743,13 +1806,13 @@
         <v>76</v>
       </c>
       <c r="B12" s="28" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="D12" s="35" t="s">
         <v>76</v>
       </c>
       <c r="E12" s="28" t="s">
-        <v>154</v>
+        <v>144</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1757,13 +1820,13 @@
         <v>77</v>
       </c>
       <c r="B13" s="28" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
       <c r="D13" s="35" t="s">
         <v>77</v>
       </c>
       <c r="E13" s="28" t="s">
-        <v>155</v>
+        <v>145</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -1771,13 +1834,13 @@
         <v>78</v>
       </c>
       <c r="B14" s="28" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="D14" s="35" t="s">
         <v>78</v>
       </c>
       <c r="E14" s="28" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1795,13 +1858,13 @@
         <v>79</v>
       </c>
       <c r="B16" s="28" t="s">
-        <v>149</v>
+        <v>139</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E16" s="28" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1809,13 +1872,13 @@
         <v>80</v>
       </c>
       <c r="B17" s="29" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="D17" s="36" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E17" s="29" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1827,16 +1890,16 @@
         <v>65</v>
       </c>
       <c r="B19" s="26" t="s">
-        <v>158</v>
-      </c>
-      <c r="G19" s="39"/>
+        <v>148</v>
+      </c>
+      <c r="G19" s="37"/>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="32" t="s">
         <v>66</v>
       </c>
       <c r="B20" s="27"/>
-      <c r="G20" s="39"/>
+      <c r="G20" s="37"/>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="33" t="s">
@@ -1845,7 +1908,7 @@
       <c r="B21" s="28" t="s">
         <v>86</v>
       </c>
-      <c r="G21" s="39"/>
+      <c r="G21" s="37"/>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="33" t="s">
@@ -1854,25 +1917,25 @@
       <c r="B22" s="28" t="s">
         <v>81</v>
       </c>
-      <c r="G22" s="39"/>
+      <c r="G22" s="37"/>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="33" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B23" s="28" t="s">
-        <v>120</v>
-      </c>
-      <c r="G23" s="39"/>
+        <v>111</v>
+      </c>
+      <c r="G23" s="37"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="33" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B24" s="28" t="s">
-        <v>164</v>
-      </c>
-      <c r="G24" s="39"/>
+        <v>153</v>
+      </c>
+      <c r="G24" s="37"/>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="34" t="s">
@@ -1881,7 +1944,7 @@
       <c r="B25" s="28" t="s">
         <v>82</v>
       </c>
-      <c r="G25" s="39"/>
+      <c r="G25" s="37"/>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="34" t="s">
@@ -1890,7 +1953,7 @@
       <c r="B26" s="28" t="s">
         <v>89</v>
       </c>
-      <c r="G26" s="39"/>
+      <c r="G26" s="37"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="34" t="s">
@@ -1899,14 +1962,14 @@
       <c r="B27" s="28" t="s">
         <v>83</v>
       </c>
-      <c r="G27" s="39"/>
+      <c r="G27" s="37"/>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="34" t="s">
         <v>72</v>
       </c>
       <c r="B28" s="28"/>
-      <c r="G28" s="39"/>
+      <c r="G28" s="37"/>
     </row>
     <row r="29" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A29" s="35" t="s">
@@ -1921,7 +1984,7 @@
         <v>76</v>
       </c>
       <c r="B30" s="28" t="s">
-        <v>159</v>
+        <v>149</v>
       </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
@@ -1929,7 +1992,7 @@
         <v>77</v>
       </c>
       <c r="B31" s="28" t="s">
-        <v>148</v>
+        <v>138</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1937,23 +2000,23 @@
         <v>78</v>
       </c>
       <c r="B32" s="28" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B33" s="28" t="s">
-        <v>160</v>
+        <v>150</v>
       </c>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="35" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B34" s="28" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.25">
@@ -1964,18 +2027,18 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="35" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B36" s="28" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
     </row>
     <row r="37" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="36" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B37" s="29" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
     </row>
     <row r="38" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -1984,13 +2047,13 @@
         <v>65</v>
       </c>
       <c r="B39" s="26" t="s">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="D39" s="26" t="s">
         <v>65</v>
       </c>
       <c r="E39" s="26" t="s">
-        <v>117</v>
+        <v>108</v>
       </c>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -2022,7 +2085,7 @@
         <v>68</v>
       </c>
       <c r="B42" s="28" t="s">
-        <v>121</v>
+        <v>112</v>
       </c>
       <c r="D42" s="30" t="s">
         <v>68</v>
@@ -2033,30 +2096,30 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="B43" s="28" t="s">
-        <v>123</v>
+        <v>114</v>
       </c>
       <c r="D43" s="33" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E43" s="28" t="s">
-        <v>125</v>
+        <v>116</v>
       </c>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B44" s="28" t="s">
-        <v>124</v>
+        <v>115</v>
       </c>
       <c r="D44" s="33" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E44" s="28" t="s">
-        <v>126</v>
+        <v>117</v>
       </c>
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.25">
@@ -2064,7 +2127,7 @@
         <v>69</v>
       </c>
       <c r="B45" s="28" t="s">
-        <v>122</v>
+        <v>113</v>
       </c>
       <c r="D45" s="22" t="s">
         <v>69</v>
@@ -2122,7 +2185,7 @@
         <v>74</v>
       </c>
       <c r="E49" s="28" t="s">
-        <v>112</v>
+        <v>106</v>
       </c>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
@@ -2136,7 +2199,7 @@
         <v>76</v>
       </c>
       <c r="E50" s="28" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.25">
@@ -2171,30 +2234,30 @@
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="35" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B54" s="28" t="s">
         <v>96</v>
       </c>
       <c r="D54" s="35" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>110</v>
+        <v>104</v>
       </c>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="35" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B55" s="28" t="s">
         <v>97</v>
       </c>
       <c r="D55" s="35" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="E55" s="28" t="s">
-        <v>111</v>
+        <v>105</v>
       </c>
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
@@ -2215,13 +2278,13 @@
         <v>65</v>
       </c>
       <c r="B59" s="26" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D59" s="31" t="s">
         <v>65</v>
       </c>
       <c r="E59" s="26" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
     </row>
     <row r="60" spans="1:5" x14ac:dyDescent="0.25">
@@ -2239,13 +2302,13 @@
         <v>67</v>
       </c>
       <c r="B61" s="28" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="D61" s="33" t="s">
         <v>67</v>
       </c>
       <c r="E61" s="28" t="s">
-        <v>134</v>
+        <v>124</v>
       </c>
     </row>
     <row r="62" spans="1:5" x14ac:dyDescent="0.25">
@@ -2264,30 +2327,30 @@
     </row>
     <row r="63" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B63" s="28" t="s">
         <v>118</v>
       </c>
-      <c r="B63" s="28" t="s">
-        <v>127</v>
-      </c>
       <c r="D63" s="33" t="s">
-        <v>118</v>
+        <v>109</v>
       </c>
       <c r="E63" s="28" t="s">
-        <v>135</v>
+        <v>125</v>
       </c>
     </row>
     <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="33" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="B64" s="28" t="s">
-        <v>128</v>
+        <v>155</v>
       </c>
       <c r="D64" s="33" t="s">
-        <v>119</v>
+        <v>110</v>
       </c>
       <c r="E64" s="28" t="s">
-        <v>136</v>
+        <v>126</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2309,13 +2372,13 @@
         <v>70</v>
       </c>
       <c r="B66" s="28" t="s">
-        <v>75</v>
+        <v>89</v>
       </c>
       <c r="D66" s="34" t="s">
-        <v>137</v>
+        <v>127</v>
       </c>
       <c r="E66" s="28" t="s">
-        <v>138</v>
+        <v>128</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.25">
@@ -2323,13 +2386,13 @@
         <v>71</v>
       </c>
       <c r="B67" s="28" t="s">
-        <v>101</v>
+        <v>156</v>
       </c>
       <c r="D67" s="34" t="s">
         <v>71</v>
       </c>
       <c r="E67" s="28" t="s">
-        <v>139</v>
+        <v>129</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
@@ -2384,20 +2447,20 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="35" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="B73" s="28" t="s">
-        <v>103</v>
+        <v>157</v>
       </c>
       <c r="D73" s="35"/>
       <c r="E73" s="28"/>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="35" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B74" s="28" t="s">
-        <v>105</v>
+        <v>158</v>
       </c>
       <c r="D74" s="35"/>
       <c r="E74" s="28"/>
@@ -2412,7 +2475,7 @@
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="35" t="s">
-        <v>108</v>
+        <v>102</v>
       </c>
       <c r="B76" s="28" t="s">
         <v>96</v>
@@ -2422,7 +2485,7 @@
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="35" t="s">
-        <v>109</v>
+        <v>103</v>
       </c>
       <c r="B77" s="28" t="s">
         <v>97</v>
@@ -2435,232 +2498,367 @@
         <v>79</v>
       </c>
       <c r="B78" s="28" t="s">
-        <v>98</v>
+        <v>159</v>
       </c>
       <c r="D78" s="35"/>
       <c r="E78" s="28"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="35" t="s">
-        <v>113</v>
-      </c>
-      <c r="B79" s="28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A80" s="35" t="s">
-        <v>114</v>
-      </c>
-      <c r="B80" s="28" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="35" t="s">
-        <v>115</v>
-      </c>
-      <c r="B81" s="28" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="82" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="83" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A83" s="31" t="s">
+    <row r="79" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A79" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B79" s="29" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="81" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B83" s="26" t="s">
-        <v>130</v>
-      </c>
-      <c r="D83" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="E83" s="26" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A84" s="32" t="s">
+      <c r="B81" s="26" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A82" s="32" t="s">
         <v>66</v>
       </c>
-      <c r="B84" s="27"/>
-      <c r="D84" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E84" s="27"/>
-    </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B82" s="27"/>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A83" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B83" s="28"/>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A84" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B84" s="28"/>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A85" s="33" t="s">
-        <v>67</v>
+        <v>109</v>
       </c>
       <c r="B85" s="28"/>
-      <c r="D85" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="E85" s="28"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A86" s="33" t="s">
-        <v>68</v>
+        <v>110</v>
       </c>
       <c r="B86" s="28"/>
-      <c r="D86" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E86" s="28"/>
-    </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A87" s="33" t="s">
-        <v>118</v>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A87" s="34" t="s">
+        <v>69</v>
       </c>
       <c r="B87" s="28"/>
-      <c r="D87" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="E87" s="28"/>
-    </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="33" t="s">
-        <v>119</v>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A88" s="34" t="s">
+        <v>70</v>
       </c>
       <c r="B88" s="28"/>
-      <c r="D88" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="E88" s="28"/>
-    </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A89" s="34" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B89" s="28"/>
-      <c r="D89" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E89" s="28"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A90" s="34" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B90" s="28"/>
-      <c r="D90" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="E90" s="28"/>
-    </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A91" s="34" t="s">
-        <v>71</v>
-      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A91" s="35"/>
       <c r="B91" s="28"/>
-      <c r="D91" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="E91" s="28"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="34" t="s">
-        <v>72</v>
-      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A92" s="35"/>
       <c r="B92" s="28"/>
-      <c r="D92" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E92" s="28"/>
-    </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A93" s="35"/>
       <c r="B93" s="28"/>
-      <c r="D93" s="35"/>
-      <c r="E93" s="28"/>
-    </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A94" s="35"/>
-      <c r="B94" s="28"/>
-      <c r="D94" s="35"/>
-      <c r="E94" s="28"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="35"/>
-      <c r="B95" s="28"/>
-      <c r="D95" s="35"/>
-      <c r="E95" s="28"/>
-    </row>
-    <row r="96" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="97" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A97" s="31" t="s">
+    </row>
+    <row r="94" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="95" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A95" s="31" t="s">
         <v>65</v>
       </c>
-      <c r="B97" s="26" t="s">
-        <v>132</v>
+      <c r="B95" s="26" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A96" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B96" s="27"/>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B97" s="28" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A98" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B98" s="27"/>
+      <c r="A98" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B98" s="28" t="s">
+        <v>162</v>
+      </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B99" s="28"/>
+        <v>109</v>
+      </c>
+      <c r="B99" s="28" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B100" s="28"/>
+        <v>110</v>
+      </c>
+      <c r="B100" s="28" t="s">
+        <v>164</v>
+      </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="33" t="s">
-        <v>118</v>
-      </c>
-      <c r="B101" s="28"/>
+      <c r="A101" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B101" s="28" t="s">
+        <v>165</v>
+      </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A102" s="33" t="s">
-        <v>119</v>
-      </c>
-      <c r="B102" s="28"/>
-    </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A102" s="34" t="s">
+        <v>70</v>
+      </c>
+      <c r="B102" s="28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A103" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B103" s="28"/>
+        <v>71</v>
+      </c>
+      <c r="B103" s="28" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="34" t="s">
+        <v>72</v>
+      </c>
+      <c r="B104" s="28"/>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A105" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B105" s="28" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A106" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B106" s="28" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A107" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B107" s="28" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A108" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B108" s="28" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A109" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B109" s="28"/>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="35" t="s">
+        <v>172</v>
+      </c>
+      <c r="B110" s="28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A111" s="35" t="s">
+        <v>174</v>
+      </c>
+      <c r="B111" s="28" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A112" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B112" s="28" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B113" s="29" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="115" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A115" s="31" t="s">
+        <v>65</v>
+      </c>
+      <c r="B115" s="26" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A116" s="32" t="s">
+        <v>66</v>
+      </c>
+      <c r="B116" s="27"/>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A117" s="33" t="s">
+        <v>67</v>
+      </c>
+      <c r="B117" s="28" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A118" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="B118" s="28" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A119" s="33" t="s">
+        <v>109</v>
+      </c>
+      <c r="B119" s="28" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A120" s="33" t="s">
+        <v>110</v>
+      </c>
+      <c r="B120" s="28" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A121" s="34" t="s">
+        <v>69</v>
+      </c>
+      <c r="B121" s="28" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A122" s="34" t="s">
         <v>70</v>
       </c>
-      <c r="B104" s="28"/>
-    </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="34" t="s">
+      <c r="B122" s="28" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A123" s="34" t="s">
         <v>71</v>
       </c>
-      <c r="B105" s="28"/>
-    </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="34" t="s">
+      <c r="B123" s="28" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A124" s="34" t="s">
         <v>72</v>
       </c>
-      <c r="B106" s="28"/>
-    </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="35"/>
-      <c r="B107" s="28"/>
-    </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="35"/>
-      <c r="B108" s="28"/>
-    </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A109" s="35"/>
-      <c r="B109" s="28"/>
+      <c r="B124" s="28"/>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A125" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="B125" s="28" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A126" s="35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B126" s="28" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A127" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="B127" s="28" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A128" s="35" t="s">
+        <v>78</v>
+      </c>
+      <c r="B128" s="28" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A129" s="34" t="s">
+        <v>73</v>
+      </c>
+      <c r="B129" s="28"/>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="35"/>
+      <c r="B130" s="28"/>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="35"/>
+      <c r="B131" s="28"/>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A132" s="34"/>
+      <c r="B132" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/USE_CASE_LEVEZETES.xlsx
+++ b/USE_CASE_LEVEZETES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goczi\Desktop\5. félév\Szoftvertechnológia\repo\SzoftTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{428AC4CC-3831-4708-9A0F-CC57F6567597}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E96E447-EBA5-4B1B-BD0D-63C2BE098CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-2760" yWindow="-14640" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use-case" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="369" uniqueCount="186">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="193">
   <si>
     <t>Use case name</t>
   </si>
@@ -416,9 +416,6 @@
     <t xml:space="preserve">Recept igénylése </t>
   </si>
   <si>
-    <t>Elérhető gyógyszerek lekérdezése, módosítása</t>
-  </si>
-  <si>
     <t>Gyógyszer hozzáadása az elérhetők listájához</t>
   </si>
   <si>
@@ -428,21 +425,12 @@
     <t>Beteg törlése</t>
   </si>
   <si>
-    <t>A beteg részéről egy igény benyújtása</t>
-  </si>
-  <si>
-    <t>A beteg igénynyújtása sikeresen eléri az orvost/gyógyszertárat</t>
-  </si>
-  <si>
     <t>A rendszer elutasítja az igényt</t>
   </si>
   <si>
     <t>Másodlagos aktorok:</t>
   </si>
   <si>
-    <t>Orvos, Gyógyszertár és a külső adatbázis</t>
-  </si>
-  <si>
     <t>A beteg igényt szeretne benyújtani gyógyszerekre</t>
   </si>
   <si>
@@ -596,9 +584,6 @@
     <t>Gyógyszer törlődik az elérhetők listájáról</t>
   </si>
   <si>
-    <t>Elérhető gyógyszerek lsitájra változatlan marad</t>
-  </si>
-  <si>
     <t>Gyógyszertár törölni kíván egy gyógyszert az elérhetők listájáról</t>
   </si>
   <si>
@@ -612,6 +597,42 @@
   </si>
   <si>
     <t>Gyógyszer törlődik a listából</t>
+  </si>
+  <si>
+    <t>Nincs meg</t>
+  </si>
+  <si>
+    <t>Elérhető gyógyszerek listázása</t>
+  </si>
+  <si>
+    <t>Recept felírási igény eljuttatása az orvos számára</t>
+  </si>
+  <si>
+    <t>Az igénylés sikeresen eljut az orvoshoz</t>
+  </si>
+  <si>
+    <t>Beteg receptet szeretne igényelni</t>
+  </si>
+  <si>
+    <t>Rendszer visszaad egy űrlapot az igényléshez</t>
+  </si>
+  <si>
+    <t>Beteg visszaküldi a kitöltött űrlapot</t>
+  </si>
+  <si>
+    <t>A rendszer az igénylést elküldi az orvos számára</t>
+  </si>
+  <si>
+    <t>Hiba feljegyzése és hibaüzenet kiírása</t>
+  </si>
+  <si>
+    <t>Betegnek nincsen még orvosa</t>
+  </si>
+  <si>
+    <t>Hibák feljegyzésee</t>
+  </si>
+  <si>
+    <t>Segítség</t>
   </si>
 </sst>
 </file>
@@ -679,7 +700,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="13">
+  <borders count="14">
     <border>
       <left/>
       <right/>
@@ -851,11 +872,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="43">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -911,9 +943,6 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -947,6 +976,18 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1258,16 +1299,16 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="38" t="s">
+      <c r="A3" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="39" t="s">
+      <c r="B3" s="38" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="38"/>
-      <c r="B4" s="39"/>
+      <c r="A4" s="37"/>
+      <c r="B4" s="38"/>
     </row>
     <row r="5" spans="1:2" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -1353,16 +1394,16 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="38" t="s">
+      <c r="A16" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="39" t="s">
+      <c r="B16" s="38" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="38"/>
-      <c r="B17" s="39"/>
+      <c r="A17" s="37"/>
+      <c r="B17" s="38"/>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
@@ -1441,16 +1482,16 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="38" t="s">
+      <c r="A28" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="39" t="s">
+      <c r="B28" s="38" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="0.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="38"/>
-      <c r="B29" s="39"/>
+      <c r="A29" s="37"/>
+      <c r="B29" s="38"/>
     </row>
     <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
@@ -1521,16 +1562,16 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="38" t="s">
+      <c r="A39" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="39" t="s">
+      <c r="B39" s="38" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="38"/>
-      <c r="B40" s="39"/>
+      <c r="A40" s="37"/>
+      <c r="B40" s="38"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
@@ -1636,10 +1677,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G132"/>
+  <dimension ref="A1:G210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A102" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D133" sqref="D133"/>
+    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1655,1210 +1696,1570 @@
     <col min="9" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="31" t="s">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B1" s="26" t="s">
+      <c r="B1" s="25" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B2" s="26"/>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B4" s="27" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" s="27" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B6" s="27" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B7" s="27" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B8" s="27" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9" s="27" t="s">
         <v>130</v>
       </c>
-      <c r="D1" s="31" t="s">
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B10" s="27"/>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="27" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B12" s="27" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B13" s="27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B14" s="27" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B15" s="27"/>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B16" s="27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" s="41"/>
+    </row>
+    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B17" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="D17" s="41"/>
+    </row>
+    <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="40"/>
+      <c r="B18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+    </row>
+    <row r="19" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="E1" s="26" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="32" t="s">
+      <c r="B19" s="25" t="s">
+        <v>122</v>
+      </c>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A20" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B2" s="27"/>
-      <c r="D2" s="32" t="s">
+      <c r="B20" s="26"/>
+      <c r="D20" s="41"/>
+      <c r="E20" s="41"/>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A21" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B21" s="27" t="s">
+        <v>136</v>
+      </c>
+      <c r="D21" s="41"/>
+      <c r="E21" s="41"/>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A22" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="27" t="s">
+        <v>81</v>
+      </c>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A23" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B23" s="27" t="s">
+        <v>137</v>
+      </c>
+      <c r="D23" s="41"/>
+      <c r="E23" s="41"/>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A24" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B24" s="27" t="s">
+        <v>129</v>
+      </c>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A25" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B25" s="27" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="41"/>
+      <c r="E25" s="41"/>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A26" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B26" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D26" s="41"/>
+      <c r="E26" s="41"/>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A27" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27" s="27" t="s">
+        <v>138</v>
+      </c>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A28" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B28" s="27"/>
+      <c r="D28" s="41"/>
+      <c r="E28" s="41"/>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A29" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B29" s="27" t="s">
+        <v>139</v>
+      </c>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A30" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B30" s="27" t="s">
+        <v>140</v>
+      </c>
+      <c r="D30" s="41"/>
+      <c r="E30" s="41"/>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A31" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B31" s="27" t="s">
+        <v>141</v>
+      </c>
+      <c r="D31" s="41"/>
+      <c r="E31" s="41"/>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A32" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B32" s="27" t="s">
+        <v>142</v>
+      </c>
+      <c r="D32" s="41"/>
+      <c r="E32" s="41"/>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B33" s="27"/>
+      <c r="D33" s="41"/>
+      <c r="E33" s="41"/>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B34" s="27" t="s">
+        <v>143</v>
+      </c>
+      <c r="D34" s="41"/>
+      <c r="E34" s="41"/>
+    </row>
+    <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="B35" s="28" t="s">
+        <v>150</v>
+      </c>
+      <c r="D35" s="41"/>
+      <c r="E35" s="41"/>
+    </row>
+    <row r="36" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="19"/>
+      <c r="B36" s="19"/>
+      <c r="D36" s="41"/>
+    </row>
+    <row r="37" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B37" s="25" t="s">
+        <v>144</v>
+      </c>
+      <c r="G37" s="36"/>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="E2" s="27"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="33" t="s">
+      <c r="B38" s="26"/>
+      <c r="G38" s="36"/>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B3" s="28" t="s">
-        <v>131</v>
-      </c>
-      <c r="D3" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="E3" s="28" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="33" t="s">
+      <c r="B39" s="27" t="s">
+        <v>86</v>
+      </c>
+      <c r="G39" s="36"/>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B4" s="28" t="s">
+      <c r="B40" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D4" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E4" s="28" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="33" t="s">
+      <c r="G40" s="36"/>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="B5" s="28" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="E5" s="28" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="33" t="s">
+      <c r="B41" s="27" t="s">
+        <v>111</v>
+      </c>
+      <c r="G41" s="36"/>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="B6" s="28" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="E6" s="28" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="34" t="s">
+      <c r="B42" s="27" t="s">
+        <v>149</v>
+      </c>
+      <c r="G42" s="36"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B7" s="28" t="s">
+      <c r="B43" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D7" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E7" s="28" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="34" t="s">
+      <c r="G43" s="36"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B8" s="28" t="s">
+      <c r="B44" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D8" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="E8" s="28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="34" t="s">
+      <c r="G44" s="36"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B9" s="28" t="s">
+      <c r="B45" s="27" t="s">
+        <v>83</v>
+      </c>
+      <c r="G45" s="36"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B46" s="27"/>
+      <c r="G46" s="36"/>
+    </row>
+    <row r="47" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A47" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B47" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B48" s="27" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B49" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="D9" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="E9" s="28" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B10" s="28"/>
-      <c r="D10" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E10" s="28"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>135</v>
-      </c>
-      <c r="D11" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="E11" s="28" t="s">
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B50" s="27" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B51" s="27" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B52" s="27" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B53" s="27"/>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B54" s="27" t="s">
         <v>143</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>136</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="E12" s="28" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B13" s="28" t="s">
-        <v>138</v>
-      </c>
-      <c r="D13" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="E13" s="28" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>137</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="E14" s="28" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B15" s="28"/>
-      <c r="D15" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="E15" s="28"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B16" s="28" t="s">
-        <v>139</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E16" s="28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B17" s="29" t="s">
-        <v>154</v>
-      </c>
-      <c r="D17" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="E17" s="29" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="19"/>
-      <c r="B18" s="19"/>
-    </row>
-    <row r="19" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B19" s="26" t="s">
-        <v>148</v>
-      </c>
-      <c r="G19" s="37"/>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B20" s="27"/>
-      <c r="G20" s="37"/>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B21" s="28" t="s">
-        <v>86</v>
-      </c>
-      <c r="G21" s="37"/>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B22" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="G22" s="37"/>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="B23" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="G23" s="37"/>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="B24" s="28" t="s">
-        <v>153</v>
-      </c>
-      <c r="G24" s="37"/>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A25" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B25" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="G25" s="37"/>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A26" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B26" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="G26" s="37"/>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B27" s="28" t="s">
-        <v>83</v>
-      </c>
-      <c r="G27" s="37"/>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A28" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B28" s="28"/>
-      <c r="G28" s="37"/>
-    </row>
-    <row r="29" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="B29" s="28" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B30" s="28" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B31" s="28" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B32" s="28" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A33" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="B33" s="28" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A34" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="B34" s="28" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A35" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B35" s="28"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A36" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="B36" s="28" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="36" t="s">
-        <v>103</v>
-      </c>
-      <c r="B37" s="29" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="39" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B39" s="26" t="s">
-        <v>107</v>
-      </c>
-      <c r="D39" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="E39" s="26" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A40" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B40" s="27"/>
-      <c r="D40" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E40" s="27"/>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A41" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B41" s="28" t="s">
-        <v>85</v>
-      </c>
-      <c r="D41" s="30" t="s">
-        <v>67</v>
-      </c>
-      <c r="E41" s="28" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A42" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B42" s="28" t="s">
-        <v>112</v>
-      </c>
-      <c r="D42" s="30" t="s">
-        <v>68</v>
-      </c>
-      <c r="E42" s="28" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A43" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="B43" s="28" t="s">
-        <v>114</v>
-      </c>
-      <c r="D43" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="E43" s="28" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A44" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="B44" s="28" t="s">
-        <v>115</v>
-      </c>
-      <c r="D44" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="E44" s="28" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A45" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B45" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="D45" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="E45" s="28" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A46" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B46" s="28" t="s">
-        <v>75</v>
-      </c>
-      <c r="D46" s="22" t="s">
-        <v>70</v>
-      </c>
-      <c r="E46" s="28" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A47" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B47" s="28" t="s">
-        <v>90</v>
-      </c>
-      <c r="D47" s="22" t="s">
-        <v>71</v>
-      </c>
-      <c r="E47" s="28" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A48" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B48" s="28"/>
-      <c r="D48" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="E48" s="28"/>
-    </row>
-    <row r="49" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A49" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="B49" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="D49" s="24" t="s">
-        <v>74</v>
-      </c>
-      <c r="E49" s="28" t="s">
-        <v>106</v>
-      </c>
-    </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A50" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B50" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D50" s="24" t="s">
-        <v>76</v>
-      </c>
-      <c r="E50" s="28" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A51" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B51" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D51" s="24"/>
-      <c r="E51" s="28"/>
-    </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A52" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B52" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="D52" s="24"/>
-      <c r="E52" s="28"/>
-    </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A53" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B53" s="28"/>
-      <c r="D53" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="E53" s="28"/>
-    </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A54" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="B54" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D54" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="E54" s="28" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35" t="s">
         <v>103</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D55" s="35" t="s">
-        <v>103</v>
-      </c>
-      <c r="E55" s="28" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A56" s="35"/>
-      <c r="B56" s="28"/>
-      <c r="D56" s="24"/>
-      <c r="E56" s="28"/>
-    </row>
-    <row r="57" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A57" s="35"/>
-      <c r="B57" s="28"/>
-      <c r="D57" s="25"/>
-      <c r="E57" s="29"/>
-    </row>
-    <row r="58" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="59" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A59" s="31" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A57" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B59" s="26" t="s">
-        <v>99</v>
-      </c>
-      <c r="D59" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="E59" s="26" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="B57" s="25" t="s">
+        <v>107</v>
+      </c>
+      <c r="D57" s="19" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B58" s="26"/>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B59" s="27" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B60" s="27"/>
-      <c r="D60" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="E60" s="27"/>
-    </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A61" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B61" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="D61" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="E61" s="28" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A62" s="33" t="s">
         <v>68</v>
       </c>
-      <c r="B62" s="28" t="s">
-        <v>87</v>
-      </c>
-      <c r="D62" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="E62" s="28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="63" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="B60" s="27" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B61" s="27" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B62" s="27" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="B63" s="28" t="s">
-        <v>118</v>
-      </c>
-      <c r="D63" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="E63" s="28" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+        <v>69</v>
+      </c>
+      <c r="B63" s="27" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A64" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="B64" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="D64" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="E64" s="28" t="s">
-        <v>126</v>
+        <v>70</v>
+      </c>
+      <c r="B64" s="27" t="s">
+        <v>75</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A65" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B65" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="D65" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="E65" s="28" t="s">
-        <v>89</v>
+      <c r="A65" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B65" s="27" t="s">
+        <v>90</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A66" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B66" s="28" t="s">
-        <v>89</v>
-      </c>
-      <c r="D66" s="34" t="s">
-        <v>127</v>
-      </c>
-      <c r="E66" s="28" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A66" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B66" s="27"/>
+    </row>
+    <row r="67" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B67" s="28" t="s">
-        <v>156</v>
-      </c>
-      <c r="D67" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="E67" s="28" t="s">
-        <v>129</v>
+        <v>74</v>
+      </c>
+      <c r="B67" s="27" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B68" s="27" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A69" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B69" s="27" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A70" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B70" s="27" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A71" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B71" s="27"/>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A72" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B72" s="27" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A73" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B73" s="27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A74" s="40"/>
+      <c r="B74" s="41"/>
+      <c r="D74" s="41"/>
+      <c r="E74" s="41"/>
+    </row>
+    <row r="75" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A75" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B75" s="25" t="s">
+        <v>108</v>
+      </c>
+      <c r="D75" s="41" t="s">
+        <v>181</v>
+      </c>
+      <c r="E75" s="41"/>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A76" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B76" s="26"/>
+      <c r="D76" s="41"/>
+      <c r="E76" s="41"/>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A77" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B77" s="27" t="s">
+        <v>85</v>
+      </c>
+      <c r="D77" s="41"/>
+      <c r="E77" s="41"/>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A78" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B78" s="27" t="s">
+        <v>88</v>
+      </c>
+      <c r="D78" s="41"/>
+      <c r="E78" s="41"/>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A79" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B79" s="27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D79" s="41"/>
+      <c r="E79" s="41"/>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A80" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B80" s="27" t="s">
+        <v>117</v>
+      </c>
+      <c r="D80" s="41"/>
+      <c r="E80" s="41"/>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A81" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B81" s="27" t="s">
+        <v>89</v>
+      </c>
+      <c r="D81" s="41"/>
+      <c r="E81" s="41"/>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A82" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B82" s="27" t="s">
+        <v>75</v>
+      </c>
+      <c r="D82" s="41"/>
+      <c r="E82" s="41"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A83" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B83" s="27" t="s">
+        <v>91</v>
+      </c>
+      <c r="D83" s="41"/>
+      <c r="E83" s="41"/>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A84" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B68" s="28"/>
-      <c r="D68" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="E68" s="28"/>
-    </row>
-    <row r="69" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A69" s="35" t="s">
+      <c r="B84" s="27"/>
+      <c r="D84" s="41"/>
+      <c r="E84" s="41"/>
+    </row>
+    <row r="85" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A85" s="24" t="s">
         <v>74</v>
       </c>
-      <c r="B69" s="28" t="s">
-        <v>92</v>
-      </c>
-      <c r="D69" s="35"/>
-      <c r="E69" s="28"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="35" t="s">
+      <c r="B85" s="27" t="s">
+        <v>106</v>
+      </c>
+      <c r="D85" s="41"/>
+      <c r="E85" s="41"/>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A86" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="B70" s="28" t="s">
-        <v>93</v>
-      </c>
-      <c r="D70" s="35"/>
-      <c r="E70" s="28"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B71" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="D71" s="35"/>
-      <c r="E71" s="28"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B72" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="D72" s="35"/>
-      <c r="E72" s="28"/>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A73" s="35" t="s">
-        <v>100</v>
-      </c>
-      <c r="B73" s="28" t="s">
-        <v>157</v>
-      </c>
-      <c r="D73" s="35"/>
-      <c r="E73" s="28"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="35" t="s">
-        <v>101</v>
-      </c>
-      <c r="B74" s="28" t="s">
-        <v>158</v>
-      </c>
-      <c r="D74" s="35"/>
-      <c r="E74" s="28"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="34" t="s">
+      <c r="B86" s="27" t="s">
+        <v>98</v>
+      </c>
+      <c r="D86" s="41"/>
+      <c r="E86" s="41"/>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A87" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B75" s="28"/>
-      <c r="D75" s="34"/>
-      <c r="E75" s="28"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="35" t="s">
+      <c r="B87" s="27"/>
+      <c r="D87" s="41"/>
+      <c r="E87" s="41"/>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A88" s="34" t="s">
         <v>102</v>
       </c>
-      <c r="B76" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="D76" s="35"/>
-      <c r="E76" s="28"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="35" t="s">
+      <c r="B88" s="27" t="s">
+        <v>104</v>
+      </c>
+      <c r="D88" s="41"/>
+      <c r="E88" s="41"/>
+    </row>
+    <row r="89" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A89" s="35" t="s">
         <v>103</v>
       </c>
-      <c r="B77" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="D77" s="35"/>
-      <c r="E77" s="28"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="35" t="s">
-        <v>79</v>
-      </c>
-      <c r="B78" s="28" t="s">
-        <v>159</v>
-      </c>
-      <c r="D78" s="35"/>
-      <c r="E78" s="28"/>
-    </row>
-    <row r="79" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A79" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B79" s="29" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="81" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="31" t="s">
+      <c r="B89" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="D89" s="41"/>
+      <c r="E89" s="41"/>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A90" s="41"/>
+      <c r="B90" s="41"/>
+      <c r="D90" s="41"/>
+      <c r="E90" s="41"/>
+    </row>
+    <row r="91" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A91" s="41"/>
+      <c r="B91" s="41"/>
+    </row>
+    <row r="92" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A92" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B81" s="26" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="32" t="s">
+      <c r="B92" s="25" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A93" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B82" s="27"/>
-    </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="33" t="s">
+      <c r="B93" s="26"/>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A94" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B83" s="28"/>
-    </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="33" t="s">
+      <c r="B94" s="27" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A95" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B84" s="28"/>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="33" t="s">
+      <c r="B95" s="27" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A96" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="B85" s="28"/>
-    </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="33" t="s">
+      <c r="B96" s="27" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A97" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="B86" s="28"/>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B87" s="28"/>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B88" s="28"/>
-    </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B89" s="28"/>
-    </row>
-    <row r="90" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A90" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B90" s="28"/>
-    </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A91" s="35"/>
-      <c r="B91" s="28"/>
-    </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A92" s="35"/>
-      <c r="B92" s="28"/>
-    </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A93" s="35"/>
-      <c r="B93" s="28"/>
-    </row>
-    <row r="94" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="95" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A95" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B95" s="26" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A96" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B96" s="27"/>
-    </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A97" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B97" s="28" t="s">
-        <v>161</v>
+      <c r="B97" s="27" t="s">
+        <v>151</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B98" s="28" t="s">
-        <v>162</v>
+        <v>69</v>
+      </c>
+      <c r="B98" s="27" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="B99" s="28" t="s">
-        <v>163</v>
+        <v>70</v>
+      </c>
+      <c r="B99" s="27" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="B100" s="28" t="s">
-        <v>164</v>
+        <v>71</v>
+      </c>
+      <c r="B100" s="27" t="s">
+        <v>152</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A101" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B101" s="28" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A101" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B101" s="27"/>
+    </row>
+    <row r="102" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A102" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B102" s="28" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="103" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+        <v>74</v>
+      </c>
+      <c r="B102" s="27" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="34" t="s">
-        <v>71</v>
-      </c>
-      <c r="B103" s="28" t="s">
-        <v>167</v>
+        <v>76</v>
+      </c>
+      <c r="B103" s="27" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B104" s="28"/>
+        <v>77</v>
+      </c>
+      <c r="B104" s="27" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A105" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="B105" s="28" t="s">
-        <v>168</v>
+      <c r="A105" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B105" s="27" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A106" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B106" s="28" t="s">
-        <v>169</v>
+      <c r="A106" s="34" t="s">
+        <v>100</v>
+      </c>
+      <c r="B106" s="27" t="s">
+        <v>153</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A107" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B107" s="28" t="s">
-        <v>171</v>
+      <c r="A107" s="34" t="s">
+        <v>101</v>
+      </c>
+      <c r="B107" s="27" t="s">
+        <v>154</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A108" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B108" s="28" t="s">
-        <v>170</v>
-      </c>
+      <c r="A108" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B108" s="27"/>
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="34" t="s">
-        <v>73</v>
-      </c>
-      <c r="B109" s="28"/>
+        <v>102</v>
+      </c>
+      <c r="B109" s="27" t="s">
+        <v>96</v>
+      </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A110" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="B110" s="28" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="111" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A111" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="B111" s="28" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="112" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A110" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B110" s="27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A111" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B111" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="35" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>176</v>
+        <v>156</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A113" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="B113" s="29" t="s">
-        <v>177</v>
-      </c>
-    </row>
-    <row r="114" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="115" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A113" s="19"/>
+      <c r="B113" s="19"/>
+    </row>
+    <row r="114" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A114" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B114" s="25" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="31" t="s">
-        <v>65</v>
-      </c>
-      <c r="B115" s="26" t="s">
-        <v>122</v>
-      </c>
+        <v>66</v>
+      </c>
+      <c r="B115" s="26"/>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="32" t="s">
-        <v>66</v>
-      </c>
-      <c r="B116" s="27"/>
+        <v>67</v>
+      </c>
+      <c r="B116" s="27" t="s">
+        <v>183</v>
+      </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A117" s="33" t="s">
-        <v>67</v>
-      </c>
-      <c r="B117" s="28" t="s">
-        <v>178</v>
+      <c r="A117" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B117" s="27" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A118" s="33" t="s">
-        <v>68</v>
-      </c>
-      <c r="B118" s="28" t="s">
-        <v>162</v>
+      <c r="A118" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B118" s="27" t="s">
+        <v>184</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A119" s="33" t="s">
-        <v>109</v>
-      </c>
-      <c r="B119" s="28" t="s">
-        <v>179</v>
+      <c r="A119" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B119" s="27" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="33" t="s">
-        <v>110</v>
-      </c>
-      <c r="B120" s="28" t="s">
-        <v>180</v>
+        <v>69</v>
+      </c>
+      <c r="B120" s="27" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A121" s="34" t="s">
-        <v>69</v>
-      </c>
-      <c r="B121" s="28" t="s">
-        <v>165</v>
+      <c r="A121" s="33" t="s">
+        <v>124</v>
+      </c>
+      <c r="B121" s="27" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A122" s="34" t="s">
-        <v>70</v>
-      </c>
-      <c r="B122" s="28" t="s">
-        <v>166</v>
-      </c>
-    </row>
-    <row r="123" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A123" s="34" t="s">
+      <c r="A122" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B123" s="28" t="s">
-        <v>181</v>
-      </c>
+      <c r="B122" s="27" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A123" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B123" s="27"/>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="34" t="s">
-        <v>72</v>
-      </c>
-      <c r="B124" s="28"/>
+        <v>74</v>
+      </c>
+      <c r="B124" s="27" t="s">
+        <v>185</v>
+      </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A125" s="35" t="s">
-        <v>74</v>
-      </c>
-      <c r="B125" s="28" t="s">
-        <v>182</v>
+      <c r="A125" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B125" s="27" t="s">
+        <v>186</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A126" s="35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B126" s="28" t="s">
-        <v>183</v>
+      <c r="A126" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B126" s="27" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A127" s="35" t="s">
-        <v>77</v>
-      </c>
-      <c r="B127" s="28" t="s">
-        <v>184</v>
+      <c r="A127" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B127" s="27" t="s">
+        <v>188</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A128" s="35" t="s">
-        <v>78</v>
-      </c>
-      <c r="B128" s="28" t="s">
-        <v>185</v>
-      </c>
+      <c r="A128" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B128" s="27"/>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B129" s="27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A130" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="B130" s="27" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A131" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B131" s="27" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A132" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B132" s="28" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A133" s="19"/>
+      <c r="B133" s="39"/>
+    </row>
+    <row r="134" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A134" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B134" s="25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A135" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B135" s="26"/>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A136" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B136" s="27"/>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A137" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B137" s="27"/>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A138" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B138" s="27"/>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A139" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B139" s="27"/>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A140" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B140" s="27"/>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A141" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B141" s="27"/>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A142" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B142" s="27"/>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A143" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B143" s="27"/>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A144" s="34"/>
+      <c r="B144" s="27"/>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A145" s="34"/>
+      <c r="B145" s="27"/>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A146" s="34"/>
+      <c r="B146" s="27"/>
+    </row>
+    <row r="147" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="148" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A148" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B148" s="25" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A149" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B149" s="26"/>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A150" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B150" s="27" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A151" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B151" s="27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A152" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B152" s="27" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A153" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B153" s="27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A154" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B154" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A155" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B155" s="27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A156" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B156" s="27" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A157" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B157" s="27"/>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A158" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B158" s="27" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A159" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B159" s="27" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A160" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B160" s="27" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A161" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B161" s="27" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A162" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B129" s="28"/>
-    </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A130" s="35"/>
-      <c r="B130" s="28"/>
-    </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A131" s="35"/>
-      <c r="B131" s="28"/>
-    </row>
-    <row r="132" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A132" s="34"/>
-      <c r="B132" s="28"/>
+      <c r="B162" s="27"/>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A163" s="34" t="s">
+        <v>168</v>
+      </c>
+      <c r="B163" s="27" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A164" s="34" t="s">
+        <v>170</v>
+      </c>
+      <c r="B164" s="27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A165" s="34" t="s">
+        <v>79</v>
+      </c>
+      <c r="B165" s="27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A166" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="B166" s="28" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="168" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A168" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B168" s="25" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A169" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B169" s="26"/>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A170" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B170" s="27" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A171" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B171" s="27" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A172" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B172" s="27" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A173" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B173" s="27" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A174" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B174" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A175" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B175" s="27" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A176" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B176" s="27" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A177" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B177" s="27"/>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A178" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B178" s="27" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A179" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B179" s="27" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A180" s="34" t="s">
+        <v>77</v>
+      </c>
+      <c r="B180" s="27" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A181" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B181" s="27" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A182" s="42" t="s">
+        <v>73</v>
+      </c>
+      <c r="B182" s="28"/>
+    </row>
+    <row r="183" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="184" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A184" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B184" s="25" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A185" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B185" s="26"/>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A186" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B186" s="27"/>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A187" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B187" s="27"/>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A188" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B188" s="27"/>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A189" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B189" s="27"/>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A190" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B190" s="27"/>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B191" s="27"/>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A192" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B192" s="27"/>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A193" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B193" s="27"/>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A194" s="34"/>
+      <c r="B194" s="27"/>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B195" s="27"/>
+    </row>
+    <row r="196" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A196" s="42"/>
+      <c r="B196" s="28"/>
+    </row>
+    <row r="197" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="198" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A198" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B198" s="25" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B199" s="26"/>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B200" s="27"/>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A201" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B201" s="27"/>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B202" s="27"/>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="32" t="s">
+        <v>110</v>
+      </c>
+      <c r="B203" s="27"/>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B204" s="27"/>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B205" s="27"/>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A206" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B206" s="27"/>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="33" t="s">
+        <v>72</v>
+      </c>
+      <c r="B207" s="27"/>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A208" s="34"/>
+      <c r="B208" s="27"/>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B209" s="27"/>
+    </row>
+    <row r="210" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="42"/>
+      <c r="B210" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/USE_CASE_LEVEZETES.xlsx
+++ b/USE_CASE_LEVEZETES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goczi\Desktop\5. félév\Szoftvertechnológia\repo\SzoftTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5E96E447-EBA5-4B1B-BD0D-63C2BE098CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9EDD18-F636-43A1-9041-8789CA4FFFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6855" yWindow="-15750" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use-case" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="412" uniqueCount="193">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="192">
   <si>
     <t>Use case name</t>
   </si>
@@ -597,9 +597,6 @@
   </si>
   <si>
     <t>Gyógyszer törlődik a listából</t>
-  </si>
-  <si>
-    <t>Nincs meg</t>
   </si>
   <si>
     <t>Elérhető gyógyszerek listázása</t>
@@ -971,12 +968,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -988,6 +979,12 @@
     </xf>
     <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1299,16 +1296,16 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="37" t="s">
+      <c r="A3" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="38" t="s">
+      <c r="B3" s="42" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="37"/>
-      <c r="B4" s="38"/>
+      <c r="A4" s="41"/>
+      <c r="B4" s="42"/>
     </row>
     <row r="5" spans="1:2" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -1394,16 +1391,16 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="37" t="s">
+      <c r="A16" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="42" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="37"/>
-      <c r="B17" s="38"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="42"/>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
@@ -1482,16 +1479,16 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="37" t="s">
+      <c r="A28" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="38" t="s">
+      <c r="B28" s="42" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="0.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="37"/>
-      <c r="B29" s="38"/>
+      <c r="A29" s="41"/>
+      <c r="B29" s="42"/>
     </row>
     <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
@@ -1562,16 +1559,16 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="37" t="s">
+      <c r="A39" s="41" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="38" t="s">
+      <c r="B39" s="42" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="37"/>
-      <c r="B40" s="38"/>
+      <c r="A40" s="41"/>
+      <c r="B40" s="42"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
@@ -1679,8 +1676,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G210"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D57" sqref="D57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1817,7 +1814,7 @@
       <c r="B16" s="27" t="s">
         <v>135</v>
       </c>
-      <c r="D16" s="41"/>
+      <c r="D16" s="39"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
@@ -1826,13 +1823,13 @@
       <c r="B17" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="D17" s="41"/>
+      <c r="D17" s="39"/>
     </row>
     <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="40"/>
-      <c r="B18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
+      <c r="A18" s="38"/>
+      <c r="B18" s="39"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
     </row>
     <row r="19" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
@@ -1841,16 +1838,16 @@
       <c r="B19" s="25" t="s">
         <v>122</v>
       </c>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
+      <c r="D19" s="39"/>
+      <c r="E19" s="39"/>
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B20" s="26"/>
-      <c r="D20" s="41"/>
-      <c r="E20" s="41"/>
+      <c r="D20" s="39"/>
+      <c r="E20" s="39"/>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
@@ -1859,8 +1856,8 @@
       <c r="B21" s="27" t="s">
         <v>136</v>
       </c>
-      <c r="D21" s="41"/>
-      <c r="E21" s="41"/>
+      <c r="D21" s="39"/>
+      <c r="E21" s="39"/>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
@@ -1869,8 +1866,8 @@
       <c r="B22" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
+      <c r="D22" s="39"/>
+      <c r="E22" s="39"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
@@ -1879,8 +1876,8 @@
       <c r="B23" s="27" t="s">
         <v>137</v>
       </c>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
@@ -1889,8 +1886,8 @@
       <c r="B24" s="27" t="s">
         <v>129</v>
       </c>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
+      <c r="D24" s="39"/>
+      <c r="E24" s="39"/>
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
@@ -1899,8 +1896,8 @@
       <c r="B25" s="27" t="s">
         <v>82</v>
       </c>
-      <c r="D25" s="41"/>
-      <c r="E25" s="41"/>
+      <c r="D25" s="39"/>
+      <c r="E25" s="39"/>
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
@@ -1909,8 +1906,8 @@
       <c r="B26" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D26" s="41"/>
-      <c r="E26" s="41"/>
+      <c r="D26" s="39"/>
+      <c r="E26" s="39"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
@@ -1919,16 +1916,16 @@
       <c r="B27" s="27" t="s">
         <v>138</v>
       </c>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
+      <c r="D27" s="39"/>
+      <c r="E27" s="39"/>
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B28" s="27"/>
-      <c r="D28" s="41"/>
-      <c r="E28" s="41"/>
+      <c r="D28" s="39"/>
+      <c r="E28" s="39"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
@@ -1937,8 +1934,8 @@
       <c r="B29" s="27" t="s">
         <v>139</v>
       </c>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
+      <c r="D29" s="39"/>
+      <c r="E29" s="39"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
@@ -1947,8 +1944,8 @@
       <c r="B30" s="27" t="s">
         <v>140</v>
       </c>
-      <c r="D30" s="41"/>
-      <c r="E30" s="41"/>
+      <c r="D30" s="39"/>
+      <c r="E30" s="39"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
@@ -1957,8 +1954,8 @@
       <c r="B31" s="27" t="s">
         <v>141</v>
       </c>
-      <c r="D31" s="41"/>
-      <c r="E31" s="41"/>
+      <c r="D31" s="39"/>
+      <c r="E31" s="39"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="34" t="s">
@@ -1967,16 +1964,16 @@
       <c r="B32" s="27" t="s">
         <v>142</v>
       </c>
-      <c r="D32" s="41"/>
-      <c r="E32" s="41"/>
+      <c r="D32" s="39"/>
+      <c r="E32" s="39"/>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B33" s="27"/>
-      <c r="D33" s="41"/>
-      <c r="E33" s="41"/>
+      <c r="D33" s="39"/>
+      <c r="E33" s="39"/>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
@@ -1985,8 +1982,8 @@
       <c r="B34" s="27" t="s">
         <v>143</v>
       </c>
-      <c r="D34" s="41"/>
-      <c r="E34" s="41"/>
+      <c r="D34" s="39"/>
+      <c r="E34" s="39"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
@@ -1995,13 +1992,13 @@
       <c r="B35" s="28" t="s">
         <v>150</v>
       </c>
-      <c r="D35" s="41"/>
-      <c r="E35" s="41"/>
+      <c r="D35" s="39"/>
+      <c r="E35" s="39"/>
     </row>
     <row r="36" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
-      <c r="D36" s="41"/>
+      <c r="D36" s="39"/>
     </row>
     <row r="37" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
@@ -2105,7 +2102,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="34" t="s">
         <v>77</v>
       </c>
@@ -2113,7 +2110,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="34" t="s">
         <v>78</v>
       </c>
@@ -2121,7 +2118,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="34" t="s">
         <v>100</v>
       </c>
@@ -2129,7 +2126,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="34" t="s">
         <v>101</v>
       </c>
@@ -2137,13 +2134,13 @@
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B53" s="27"/>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="34" t="s">
         <v>102</v>
       </c>
@@ -2151,7 +2148,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35" t="s">
         <v>103</v>
       </c>
@@ -2159,25 +2156,22 @@
         <v>150</v>
       </c>
     </row>
-    <row r="56" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="30" t="s">
         <v>65</v>
       </c>
       <c r="B57" s="25" t="s">
         <v>107</v>
       </c>
-      <c r="D57" s="19" t="s">
-        <v>181</v>
-      </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B58" s="26"/>
     </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="32" t="s">
         <v>67</v>
       </c>
@@ -2185,7 +2179,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
         <v>68</v>
       </c>
@@ -2193,7 +2187,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
         <v>109</v>
       </c>
@@ -2201,7 +2195,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
         <v>110</v>
       </c>
@@ -2209,7 +2203,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
         <v>69</v>
       </c>
@@ -2217,7 +2211,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="33" t="s">
         <v>70</v>
       </c>
@@ -2294,10 +2288,10 @@
       </c>
     </row>
     <row r="74" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A74" s="40"/>
-      <c r="B74" s="41"/>
-      <c r="D74" s="41"/>
-      <c r="E74" s="41"/>
+      <c r="A74" s="38"/>
+      <c r="B74" s="39"/>
+      <c r="D74" s="39"/>
+      <c r="E74" s="39"/>
     </row>
     <row r="75" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="25" t="s">
@@ -2306,18 +2300,16 @@
       <c r="B75" s="25" t="s">
         <v>108</v>
       </c>
-      <c r="D75" s="41" t="s">
-        <v>181</v>
-      </c>
-      <c r="E75" s="41"/>
+      <c r="D75" s="39"/>
+      <c r="E75" s="39"/>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="s">
         <v>66</v>
       </c>
       <c r="B76" s="26"/>
-      <c r="D76" s="41"/>
-      <c r="E76" s="41"/>
+      <c r="D76" s="39"/>
+      <c r="E76" s="39"/>
     </row>
     <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="29" t="s">
@@ -2326,8 +2318,8 @@
       <c r="B77" s="27" t="s">
         <v>85</v>
       </c>
-      <c r="D77" s="41"/>
-      <c r="E77" s="41"/>
+      <c r="D77" s="39"/>
+      <c r="E77" s="39"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="29" t="s">
@@ -2336,8 +2328,8 @@
       <c r="B78" s="27" t="s">
         <v>88</v>
       </c>
-      <c r="D78" s="41"/>
-      <c r="E78" s="41"/>
+      <c r="D78" s="39"/>
+      <c r="E78" s="39"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="32" t="s">
@@ -2346,8 +2338,8 @@
       <c r="B79" s="27" t="s">
         <v>116</v>
       </c>
-      <c r="D79" s="41"/>
-      <c r="E79" s="41"/>
+      <c r="D79" s="39"/>
+      <c r="E79" s="39"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="32" t="s">
@@ -2356,8 +2348,8 @@
       <c r="B80" s="27" t="s">
         <v>117</v>
       </c>
-      <c r="D80" s="41"/>
-      <c r="E80" s="41"/>
+      <c r="D80" s="39"/>
+      <c r="E80" s="39"/>
     </row>
     <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
@@ -2366,8 +2358,8 @@
       <c r="B81" s="27" t="s">
         <v>89</v>
       </c>
-      <c r="D81" s="41"/>
-      <c r="E81" s="41"/>
+      <c r="D81" s="39"/>
+      <c r="E81" s="39"/>
     </row>
     <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
@@ -2376,8 +2368,8 @@
       <c r="B82" s="27" t="s">
         <v>75</v>
       </c>
-      <c r="D82" s="41"/>
-      <c r="E82" s="41"/>
+      <c r="D82" s="39"/>
+      <c r="E82" s="39"/>
     </row>
     <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
@@ -2386,16 +2378,16 @@
       <c r="B83" s="27" t="s">
         <v>91</v>
       </c>
-      <c r="D83" s="41"/>
-      <c r="E83" s="41"/>
+      <c r="D83" s="39"/>
+      <c r="E83" s="39"/>
     </row>
     <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
         <v>72</v>
       </c>
       <c r="B84" s="27"/>
-      <c r="D84" s="41"/>
-      <c r="E84" s="41"/>
+      <c r="D84" s="39"/>
+      <c r="E84" s="39"/>
     </row>
     <row r="85" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A85" s="24" t="s">
@@ -2404,8 +2396,8 @@
       <c r="B85" s="27" t="s">
         <v>106</v>
       </c>
-      <c r="D85" s="41"/>
-      <c r="E85" s="41"/>
+      <c r="D85" s="39"/>
+      <c r="E85" s="39"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="24" t="s">
@@ -2414,16 +2406,16 @@
       <c r="B86" s="27" t="s">
         <v>98</v>
       </c>
-      <c r="D86" s="41"/>
-      <c r="E86" s="41"/>
+      <c r="D86" s="39"/>
+      <c r="E86" s="39"/>
     </row>
     <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
         <v>73</v>
       </c>
       <c r="B87" s="27"/>
-      <c r="D87" s="41"/>
-      <c r="E87" s="41"/>
+      <c r="D87" s="39"/>
+      <c r="E87" s="39"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="34" t="s">
@@ -2432,8 +2424,8 @@
       <c r="B88" s="27" t="s">
         <v>104</v>
       </c>
-      <c r="D88" s="41"/>
-      <c r="E88" s="41"/>
+      <c r="D88" s="39"/>
+      <c r="E88" s="39"/>
     </row>
     <row r="89" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="35" t="s">
@@ -2442,18 +2434,18 @@
       <c r="B89" s="28" t="s">
         <v>105</v>
       </c>
-      <c r="D89" s="41"/>
-      <c r="E89" s="41"/>
+      <c r="D89" s="39"/>
+      <c r="E89" s="39"/>
     </row>
     <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="41"/>
-      <c r="B90" s="41"/>
-      <c r="D90" s="41"/>
-      <c r="E90" s="41"/>
+      <c r="A90" s="39"/>
+      <c r="B90" s="39"/>
+      <c r="D90" s="39"/>
+      <c r="E90" s="39"/>
     </row>
     <row r="91" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A91" s="41"/>
-      <c r="B91" s="41"/>
+      <c r="A91" s="39"/>
+      <c r="B91" s="39"/>
     </row>
     <row r="92" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="30" t="s">
@@ -2640,7 +2632,7 @@
         <v>67</v>
       </c>
       <c r="B116" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2656,7 +2648,7 @@
         <v>109</v>
       </c>
       <c r="B118" s="27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2702,7 +2694,7 @@
         <v>74</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2710,7 +2702,7 @@
         <v>76</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2718,7 +2710,7 @@
         <v>77</v>
       </c>
       <c r="B126" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2726,7 +2718,7 @@
         <v>78</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2748,7 +2740,7 @@
         <v>170</v>
       </c>
       <c r="B130" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2756,7 +2748,7 @@
         <v>79</v>
       </c>
       <c r="B131" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2764,19 +2756,19 @@
         <v>80</v>
       </c>
       <c r="B132" s="28" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="19"/>
-      <c r="B133" s="39"/>
+      <c r="B133" s="37"/>
     </row>
     <row r="134" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="30" t="s">
         <v>65</v>
       </c>
       <c r="B134" s="25" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -3102,7 +3094,7 @@
       </c>
     </row>
     <row r="182" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="42" t="s">
+      <c r="A182" s="40" t="s">
         <v>73</v>
       </c>
       <c r="B182" s="28"/>
@@ -3113,7 +3105,7 @@
         <v>65</v>
       </c>
       <c r="B184" s="25" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -3181,7 +3173,7 @@
       <c r="B195" s="27"/>
     </row>
     <row r="196" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="42"/>
+      <c r="A196" s="40"/>
       <c r="B196" s="28"/>
     </row>
     <row r="197" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3190,7 +3182,7 @@
         <v>65</v>
       </c>
       <c r="B198" s="25" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -3258,7 +3250,7 @@
       <c r="B209" s="27"/>
     </row>
     <row r="210" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="42"/>
+      <c r="A210" s="40"/>
       <c r="B210" s="28"/>
     </row>
   </sheetData>

--- a/USE_CASE_LEVEZETES.xlsx
+++ b/USE_CASE_LEVEZETES.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goczi\Desktop\5. félév\Szoftvertechnológia\repo\SzoftTech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csern\OneDrive\Dokumentumok\GitHub\SzoftTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D9EDD18-F636-43A1-9041-8789CA4FFFC8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6855" yWindow="-15750" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-6852" yWindow="-15756" windowWidth="21600" windowHeight="11292" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Use-case" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="410" uniqueCount="192">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="215">
   <si>
     <t>Use case name</t>
   </si>
@@ -626,16 +625,85 @@
     <t>Betegnek nincsen még orvosa</t>
   </si>
   <si>
-    <t>Hibák feljegyzésee</t>
-  </si>
-  <si>
     <t>Segítség</t>
+  </si>
+  <si>
+    <t>A gyógyszertár által elérhető lista megjelenítése</t>
+  </si>
+  <si>
+    <t>Bejelentkezett gyógyszertári felhasználó</t>
+  </si>
+  <si>
+    <t>Megjeleníti a listát</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Hibaüzenetet dob </t>
+  </si>
+  <si>
+    <t>nincs</t>
+  </si>
+  <si>
+    <t>A gyógyszertári felhasználó feltehetően szeretné módosítani a listát ezáltal keresi az elérését</t>
+  </si>
+  <si>
+    <t>A gyógyszertár kiválasztja a lista megjelenítése pontot</t>
+  </si>
+  <si>
+    <t>A rendszer megjeleníti a listát</t>
+  </si>
+  <si>
+    <t>Hibák feljegyzése</t>
+  </si>
+  <si>
+    <t>Hibakezelés a rendszeren belül</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Működő rendszer </t>
+  </si>
+  <si>
+    <t>bármelyik felhasználó</t>
+  </si>
+  <si>
+    <t>bármilyen fellépő bug amire azonnali visszajelzést igényelhet</t>
+  </si>
+  <si>
+    <t>bármilyen folyamat elindulása vagy funkció felhasználásának igénye</t>
+  </si>
+  <si>
+    <t>azonnali visszajelzés a felhasználónak a hiba fellépésekor</t>
+  </si>
+  <si>
+    <t>Egy funkció ami segítséget nyújt a felület átlátásához</t>
+  </si>
+  <si>
+    <t>egy működő rendszer</t>
+  </si>
+  <si>
+    <t>megjeleníti a segítség ablakot</t>
+  </si>
+  <si>
+    <t>hibaüzenetet dob</t>
+  </si>
+  <si>
+    <t>egy felhasználó a megadott billentyű lenyomásával szeretné elérni a segítség fület</t>
+  </si>
+  <si>
+    <t>a felhasználó megnyomja a gombot</t>
+  </si>
+  <si>
+    <t>a felület megjeleníti az ablakot</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.1 </t>
+  </si>
+  <si>
+    <t>a felület nem jeleníti meg</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -884,7 +952,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="43">
+  <cellXfs count="44">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -985,6 +1053,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1265,21 +1336,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
     <col min="2" max="2" width="71" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1287,7 +1358,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -1295,7 +1366,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="41" t="s">
         <v>4</v>
       </c>
@@ -1303,11 +1374,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="41"/>
       <c r="B4" s="42"/>
     </row>
-    <row r="5" spans="1:2" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
@@ -1315,7 +1386,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
@@ -1323,7 +1394,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -1331,7 +1402,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
@@ -1339,7 +1410,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -1347,7 +1418,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
@@ -1355,7 +1426,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
@@ -1363,7 +1434,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
@@ -1371,10 +1442,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>0</v>
       </c>
@@ -1382,7 +1453,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>2</v>
       </c>
@@ -1390,7 +1461,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="41" t="s">
         <v>4</v>
       </c>
@@ -1398,11 +1469,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="41"/>
       <c r="B17" s="42"/>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>6</v>
       </c>
@@ -1410,7 +1481,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>24</v>
       </c>
@@ -1418,7 +1489,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>28</v>
       </c>
@@ -1426,7 +1497,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>29</v>
       </c>
@@ -1434,7 +1505,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>31</v>
       </c>
@@ -1442,7 +1513,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>33</v>
       </c>
@@ -1450,7 +1521,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>19</v>
       </c>
@@ -1458,11 +1529,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>0</v>
       </c>
@@ -1470,7 +1541,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>2</v>
       </c>
@@ -1478,7 +1549,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="41" t="s">
         <v>4</v>
       </c>
@@ -1486,11 +1557,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="0.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="0.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="41"/>
       <c r="B29" s="42"/>
     </row>
-    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>6</v>
       </c>
@@ -1498,7 +1569,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>24</v>
       </c>
@@ -1506,7 +1577,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>41</v>
       </c>
@@ -1514,7 +1585,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>43</v>
       </c>
@@ -1522,7 +1593,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>19</v>
       </c>
@@ -1530,7 +1601,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
         <v>46</v>
       </c>
@@ -1538,11 +1609,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>0</v>
       </c>
@@ -1550,7 +1621,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>2</v>
       </c>
@@ -1558,7 +1629,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="41" t="s">
         <v>4</v>
       </c>
@@ -1566,11 +1637,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="41"/>
       <c r="B40" s="42"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>6</v>
       </c>
@@ -1578,7 +1649,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>24</v>
       </c>
@@ -1586,7 +1657,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>52</v>
       </c>
@@ -1594,7 +1665,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>54</v>
       </c>
@@ -1602,7 +1673,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>57</v>
       </c>
@@ -1610,7 +1681,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>19</v>
       </c>
@@ -1618,7 +1689,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>60</v>
       </c>
@@ -1626,7 +1697,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>61</v>
       </c>
@@ -1634,7 +1705,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
         <v>63</v>
       </c>
@@ -1642,18 +1713,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
       <c r="B50" s="18"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="16"/>
       <c r="B52" s="1"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B56" s="15"/>
     </row>
   </sheetData>
@@ -1673,27 +1744,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G210"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G211"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D57" sqref="D57"/>
+    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B203" sqref="B203"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="19"/>
-    <col min="4" max="4" width="19.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.28515625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="19"/>
-    <col min="7" max="7" width="37.85546875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="19"/>
+    <col min="4" max="4" width="19.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.33203125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="19"/>
+    <col min="7" max="7" width="37.88671875" style="19" customWidth="1"/>
     <col min="8" max="8" width="52" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="19"/>
+    <col min="9" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>65</v>
       </c>
@@ -1701,13 +1772,13 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="26"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>67</v>
       </c>
@@ -1715,7 +1786,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>68</v>
       </c>
@@ -1723,7 +1794,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>109</v>
       </c>
@@ -1731,7 +1802,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>110</v>
       </c>
@@ -1739,7 +1810,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>69</v>
       </c>
@@ -1747,7 +1818,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
         <v>70</v>
       </c>
@@ -1755,7 +1826,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
         <v>71</v>
       </c>
@@ -1763,13 +1834,13 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>74</v>
       </c>
@@ -1777,7 +1848,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>76</v>
       </c>
@@ -1785,7 +1856,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>77</v>
       </c>
@@ -1793,7 +1864,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>78</v>
       </c>
@@ -1801,13 +1872,13 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B15" s="27"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>79</v>
       </c>
@@ -1816,7 +1887,7 @@
       </c>
       <c r="D16" s="39"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="35" t="s">
         <v>80</v>
       </c>
@@ -1825,13 +1896,13 @@
       </c>
       <c r="D17" s="39"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="38"/>
       <c r="B18" s="39"/>
       <c r="D18" s="39"/>
       <c r="E18" s="39"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="30" t="s">
         <v>65</v>
       </c>
@@ -1841,7 +1912,7 @@
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
         <v>66</v>
       </c>
@@ -1849,7 +1920,7 @@
       <c r="D20" s="39"/>
       <c r="E20" s="39"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A21" s="32" t="s">
         <v>67</v>
       </c>
@@ -1859,7 +1930,7 @@
       <c r="D21" s="39"/>
       <c r="E21" s="39"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
         <v>68</v>
       </c>
@@ -1869,7 +1940,7 @@
       <c r="D22" s="39"/>
       <c r="E22" s="39"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
         <v>109</v>
       </c>
@@ -1879,7 +1950,7 @@
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="s">
         <v>110</v>
       </c>
@@ -1889,7 +1960,7 @@
       <c r="D24" s="39"/>
       <c r="E24" s="39"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
         <v>69</v>
       </c>
@@ -1899,7 +1970,7 @@
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
         <v>70</v>
       </c>
@@ -1909,7 +1980,7 @@
       <c r="D26" s="39"/>
       <c r="E26" s="39"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
         <v>71</v>
       </c>
@@ -1919,7 +1990,7 @@
       <c r="D27" s="39"/>
       <c r="E27" s="39"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
         <v>72</v>
       </c>
@@ -1927,7 +1998,7 @@
       <c r="D28" s="39"/>
       <c r="E28" s="39"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
         <v>74</v>
       </c>
@@ -1937,7 +2008,7 @@
       <c r="D29" s="39"/>
       <c r="E29" s="39"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
         <v>76</v>
       </c>
@@ -1947,7 +2018,7 @@
       <c r="D30" s="39"/>
       <c r="E30" s="39"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
         <v>77</v>
       </c>
@@ -1957,7 +2028,7 @@
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
         <v>78</v>
       </c>
@@ -1967,7 +2038,7 @@
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
         <v>73</v>
       </c>
@@ -1975,7 +2046,7 @@
       <c r="D33" s="39"/>
       <c r="E33" s="39"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="34" t="s">
         <v>102</v>
       </c>
@@ -1985,7 +2056,7 @@
       <c r="D34" s="39"/>
       <c r="E34" s="39"/>
     </row>
-    <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="35" t="s">
         <v>103</v>
       </c>
@@ -1995,12 +2066,12 @@
       <c r="D35" s="39"/>
       <c r="E35" s="39"/>
     </row>
-    <row r="36" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="D36" s="39"/>
     </row>
-    <row r="37" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="30" t="s">
         <v>65</v>
       </c>
@@ -2009,14 +2080,14 @@
       </c>
       <c r="G37" s="36"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B38" s="26"/>
       <c r="G38" s="36"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="32" t="s">
         <v>67</v>
       </c>
@@ -2025,7 +2096,7 @@
       </c>
       <c r="G39" s="36"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="32" t="s">
         <v>68</v>
       </c>
@@ -2034,7 +2105,7 @@
       </c>
       <c r="G40" s="36"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="32" t="s">
         <v>109</v>
       </c>
@@ -2043,7 +2114,7 @@
       </c>
       <c r="G41" s="36"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="32" t="s">
         <v>110</v>
       </c>
@@ -2052,7 +2123,7 @@
       </c>
       <c r="G42" s="36"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="33" t="s">
         <v>69</v>
       </c>
@@ -2061,7 +2132,7 @@
       </c>
       <c r="G43" s="36"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="33" t="s">
         <v>70</v>
       </c>
@@ -2070,7 +2141,7 @@
       </c>
       <c r="G44" s="36"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="33" t="s">
         <v>71</v>
       </c>
@@ -2079,14 +2150,14 @@
       </c>
       <c r="G45" s="36"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B46" s="27"/>
       <c r="G46" s="36"/>
     </row>
-    <row r="47" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A47" s="34" t="s">
         <v>74</v>
       </c>
@@ -2094,7 +2165,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="34" t="s">
         <v>76</v>
       </c>
@@ -2102,7 +2173,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="34" t="s">
         <v>77</v>
       </c>
@@ -2110,7 +2181,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="34" t="s">
         <v>78</v>
       </c>
@@ -2118,7 +2189,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="34" t="s">
         <v>100</v>
       </c>
@@ -2126,7 +2197,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="34" t="s">
         <v>101</v>
       </c>
@@ -2134,13 +2205,13 @@
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B53" s="27"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="34" t="s">
         <v>102</v>
       </c>
@@ -2148,7 +2219,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="35" t="s">
         <v>103</v>
       </c>
@@ -2156,8 +2227,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="30" t="s">
         <v>65</v>
       </c>
@@ -2165,13 +2236,13 @@
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B58" s="26"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="32" t="s">
         <v>67</v>
       </c>
@@ -2179,7 +2250,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="32" t="s">
         <v>68</v>
       </c>
@@ -2187,7 +2258,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="32" t="s">
         <v>109</v>
       </c>
@@ -2195,7 +2266,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="32" t="s">
         <v>110</v>
       </c>
@@ -2203,7 +2274,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="33" t="s">
         <v>69</v>
       </c>
@@ -2211,7 +2282,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="33" t="s">
         <v>70</v>
       </c>
@@ -2219,7 +2290,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="33" t="s">
         <v>71</v>
       </c>
@@ -2227,13 +2298,13 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B66" s="27"/>
     </row>
-    <row r="67" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A67" s="34" t="s">
         <v>74</v>
       </c>
@@ -2241,7 +2312,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="34" t="s">
         <v>76</v>
       </c>
@@ -2249,7 +2320,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="34" t="s">
         <v>77</v>
       </c>
@@ -2257,7 +2328,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="34" t="s">
         <v>78</v>
       </c>
@@ -2265,13 +2336,13 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B71" s="27"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="34" t="s">
         <v>102</v>
       </c>
@@ -2279,7 +2350,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="34" t="s">
         <v>103</v>
       </c>
@@ -2287,13 +2358,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="38"/>
       <c r="B74" s="39"/>
       <c r="D74" s="39"/>
       <c r="E74" s="39"/>
     </row>
-    <row r="75" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="25" t="s">
         <v>65</v>
       </c>
@@ -2303,7 +2374,7 @@
       <c r="D75" s="39"/>
       <c r="E75" s="39"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="23" t="s">
         <v>66</v>
       </c>
@@ -2311,7 +2382,7 @@
       <c r="D76" s="39"/>
       <c r="E76" s="39"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="29" t="s">
         <v>67</v>
       </c>
@@ -2321,7 +2392,7 @@
       <c r="D77" s="39"/>
       <c r="E77" s="39"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="29" t="s">
         <v>68</v>
       </c>
@@ -2331,7 +2402,7 @@
       <c r="D78" s="39"/>
       <c r="E78" s="39"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="32" t="s">
         <v>109</v>
       </c>
@@ -2341,7 +2412,7 @@
       <c r="D79" s="39"/>
       <c r="E79" s="39"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="32" t="s">
         <v>110</v>
       </c>
@@ -2351,7 +2422,7 @@
       <c r="D80" s="39"/>
       <c r="E80" s="39"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="22" t="s">
         <v>69</v>
       </c>
@@ -2361,7 +2432,7 @@
       <c r="D81" s="39"/>
       <c r="E81" s="39"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="22" t="s">
         <v>70</v>
       </c>
@@ -2371,7 +2442,7 @@
       <c r="D82" s="39"/>
       <c r="E82" s="39"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="22" t="s">
         <v>71</v>
       </c>
@@ -2381,7 +2452,7 @@
       <c r="D83" s="39"/>
       <c r="E83" s="39"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="22" t="s">
         <v>72</v>
       </c>
@@ -2389,7 +2460,7 @@
       <c r="D84" s="39"/>
       <c r="E84" s="39"/>
     </row>
-    <row r="85" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A85" s="24" t="s">
         <v>74</v>
       </c>
@@ -2399,7 +2470,7 @@
       <c r="D85" s="39"/>
       <c r="E85" s="39"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="24" t="s">
         <v>76</v>
       </c>
@@ -2409,7 +2480,7 @@
       <c r="D86" s="39"/>
       <c r="E86" s="39"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="22" t="s">
         <v>73</v>
       </c>
@@ -2417,7 +2488,7 @@
       <c r="D87" s="39"/>
       <c r="E87" s="39"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="34" t="s">
         <v>102</v>
       </c>
@@ -2427,7 +2498,7 @@
       <c r="D88" s="39"/>
       <c r="E88" s="39"/>
     </row>
-    <row r="89" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="35" t="s">
         <v>103</v>
       </c>
@@ -2437,17 +2508,17 @@
       <c r="D89" s="39"/>
       <c r="E89" s="39"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="39"/>
       <c r="B90" s="39"/>
       <c r="D90" s="39"/>
       <c r="E90" s="39"/>
     </row>
-    <row r="91" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="39"/>
       <c r="B91" s="39"/>
     </row>
-    <row r="92" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="30" t="s">
         <v>65</v>
       </c>
@@ -2455,13 +2526,13 @@
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B93" s="26"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="32" t="s">
         <v>67</v>
       </c>
@@ -2469,7 +2540,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="32" t="s">
         <v>68</v>
       </c>
@@ -2477,7 +2548,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="32" t="s">
         <v>109</v>
       </c>
@@ -2485,7 +2556,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="32" t="s">
         <v>110</v>
       </c>
@@ -2493,7 +2564,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="33" t="s">
         <v>69</v>
       </c>
@@ -2501,7 +2572,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="33" t="s">
         <v>70</v>
       </c>
@@ -2509,7 +2580,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="33" t="s">
         <v>71</v>
       </c>
@@ -2517,13 +2588,13 @@
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B101" s="27"/>
     </row>
-    <row r="102" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A102" s="34" t="s">
         <v>74</v>
       </c>
@@ -2531,7 +2602,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="34" t="s">
         <v>76</v>
       </c>
@@ -2539,7 +2610,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="34" t="s">
         <v>77</v>
       </c>
@@ -2547,7 +2618,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="34" t="s">
         <v>78</v>
       </c>
@@ -2555,7 +2626,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="34" t="s">
         <v>100</v>
       </c>
@@ -2563,7 +2634,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="34" t="s">
         <v>101</v>
       </c>
@@ -2571,13 +2642,13 @@
         <v>154</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B108" s="27"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="34" t="s">
         <v>102</v>
       </c>
@@ -2585,7 +2656,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="34" t="s">
         <v>103</v>
       </c>
@@ -2593,7 +2664,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="34" t="s">
         <v>79</v>
       </c>
@@ -2601,7 +2672,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="35" t="s">
         <v>80</v>
       </c>
@@ -2609,11 +2680,11 @@
         <v>156</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="19"/>
       <c r="B113" s="19"/>
     </row>
-    <row r="114" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="30" t="s">
         <v>65</v>
       </c>
@@ -2621,13 +2692,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B115" s="26"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="32" t="s">
         <v>67</v>
       </c>
@@ -2635,7 +2706,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="32" t="s">
         <v>68</v>
       </c>
@@ -2643,7 +2714,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="32" t="s">
         <v>109</v>
       </c>
@@ -2651,7 +2722,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="32" t="s">
         <v>110</v>
       </c>
@@ -2659,7 +2730,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="33" t="s">
         <v>69</v>
       </c>
@@ -2667,7 +2738,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="33" t="s">
         <v>124</v>
       </c>
@@ -2675,7 +2746,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="33" t="s">
         <v>71</v>
       </c>
@@ -2683,13 +2754,13 @@
         <v>125</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B123" s="27"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="34" t="s">
         <v>74</v>
       </c>
@@ -2697,7 +2768,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="34" t="s">
         <v>76</v>
       </c>
@@ -2705,7 +2776,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="34" t="s">
         <v>77</v>
       </c>
@@ -2713,7 +2784,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="34" t="s">
         <v>78</v>
       </c>
@@ -2721,13 +2792,13 @@
         <v>187</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B128" s="27"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="34" t="s">
         <v>168</v>
       </c>
@@ -2735,7 +2806,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="34" t="s">
         <v>170</v>
       </c>
@@ -2743,7 +2814,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="34" t="s">
         <v>79</v>
       </c>
@@ -2751,7 +2822,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="35" t="s">
         <v>80</v>
       </c>
@@ -2759,11 +2830,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="19"/>
       <c r="B133" s="37"/>
     </row>
-    <row r="134" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="30" t="s">
         <v>65</v>
       </c>
@@ -2771,74 +2842,96 @@
         <v>181</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B135" s="26"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B136" s="27"/>
-    </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B136" s="27" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B137" s="27"/>
-    </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B137" s="27" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="B138" s="27"/>
-    </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B138" s="27" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="B139" s="27"/>
-    </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B139" s="27" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B140" s="27"/>
-    </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B140" s="27" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B141" s="27"/>
-    </row>
-    <row r="142" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B141" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A142" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B142" s="27"/>
-    </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B142" s="27" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B143" s="27"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A144" s="34"/>
-      <c r="B144" s="27"/>
-    </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A145" s="34"/>
-      <c r="B145" s="27"/>
-    </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B144" s="27" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B145" s="27" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="34"/>
       <c r="B146" s="27"/>
     </row>
-    <row r="147" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="148" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="148" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="30" t="s">
         <v>65</v>
       </c>
@@ -2846,13 +2939,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B149" s="26"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="32" t="s">
         <v>67</v>
       </c>
@@ -2860,7 +2953,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="32" t="s">
         <v>68</v>
       </c>
@@ -2868,7 +2961,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="32" t="s">
         <v>109</v>
       </c>
@@ -2876,7 +2969,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="32" t="s">
         <v>110</v>
       </c>
@@ -2884,7 +2977,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="33" t="s">
         <v>69</v>
       </c>
@@ -2892,7 +2985,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="33" t="s">
         <v>70</v>
       </c>
@@ -2900,7 +2993,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A156" s="33" t="s">
         <v>71</v>
       </c>
@@ -2908,13 +3001,13 @@
         <v>163</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B157" s="27"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="34" t="s">
         <v>74</v>
       </c>
@@ -2922,7 +3015,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="34" t="s">
         <v>76</v>
       </c>
@@ -2930,7 +3023,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="34" t="s">
         <v>77</v>
       </c>
@@ -2938,7 +3031,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="34" t="s">
         <v>78</v>
       </c>
@@ -2946,13 +3039,13 @@
         <v>166</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B162" s="27"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="34" t="s">
         <v>168</v>
       </c>
@@ -2960,7 +3053,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A164" s="34" t="s">
         <v>170</v>
       </c>
@@ -2968,7 +3061,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="34" t="s">
         <v>79</v>
       </c>
@@ -2976,7 +3069,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="35" t="s">
         <v>80</v>
       </c>
@@ -2984,8 +3077,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="168" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="168" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="30" t="s">
         <v>65</v>
       </c>
@@ -2993,13 +3086,13 @@
         <v>121</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B169" s="26"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="32" t="s">
         <v>67</v>
       </c>
@@ -3007,7 +3100,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="32" t="s">
         <v>68</v>
       </c>
@@ -3015,7 +3108,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="32" t="s">
         <v>109</v>
       </c>
@@ -3023,7 +3116,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="32" t="s">
         <v>110</v>
       </c>
@@ -3031,7 +3124,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="33" t="s">
         <v>69</v>
       </c>
@@ -3039,7 +3132,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="33" t="s">
         <v>70</v>
       </c>
@@ -3047,7 +3140,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A176" s="33" t="s">
         <v>71</v>
       </c>
@@ -3055,13 +3148,13 @@
         <v>176</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B177" s="27"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="34" t="s">
         <v>74</v>
       </c>
@@ -3069,7 +3162,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="34" t="s">
         <v>76</v>
       </c>
@@ -3077,7 +3170,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="34" t="s">
         <v>77</v>
       </c>
@@ -3085,7 +3178,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="34" t="s">
         <v>78</v>
       </c>
@@ -3093,165 +3186,189 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A182" s="40" t="s">
-        <v>73</v>
-      </c>
+    <row r="182" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A182" s="40"/>
       <c r="B182" s="28"/>
     </row>
-    <row r="183" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="184" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="184" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="30" t="s">
         <v>65</v>
       </c>
       <c r="B184" s="25" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B185" s="26"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B186" s="27"/>
-    </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B186" s="27" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B187" s="27"/>
-    </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A188" s="32" t="s">
-        <v>109</v>
-      </c>
-      <c r="B188" s="27"/>
-    </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A189" s="32" t="s">
-        <v>110</v>
-      </c>
-      <c r="B189" s="27"/>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B187" s="27" t="s">
+        <v>201</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B188" s="27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A189" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B189" s="27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" s="33" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B190" s="27"/>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A191" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="B191" s="27"/>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A192" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B192" s="27"/>
-    </row>
-    <row r="193" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A193" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B193" s="27"/>
-    </row>
-    <row r="194" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A194" s="34"/>
-      <c r="B194" s="27"/>
-    </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="B195" s="27"/>
-    </row>
-    <row r="196" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A196" s="40"/>
-      <c r="B196" s="28"/>
-    </row>
-    <row r="197" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="198" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A191" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B191" s="27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="43" t="s">
+        <v>76</v>
+      </c>
+      <c r="B192" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A193" s="33"/>
+      <c r="B193" s="28"/>
+    </row>
+    <row r="197" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="198" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A198" s="30" t="s">
         <v>65</v>
       </c>
       <c r="B198" s="25" t="s">
-        <v>191</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B199" s="26"/>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="B200" s="27"/>
-    </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B200" s="27" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="32" t="s">
         <v>68</v>
       </c>
-      <c r="B201" s="27"/>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B201" s="27" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="32" t="s">
         <v>109</v>
       </c>
-      <c r="B202" s="27"/>
-    </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B202" s="27" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" s="32" t="s">
         <v>110</v>
       </c>
-      <c r="B203" s="27"/>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B203" s="27" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="33" t="s">
         <v>69</v>
       </c>
-      <c r="B204" s="27"/>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B204" s="27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B205" s="27"/>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B205" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A206" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B206" s="27"/>
-    </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="B206" s="27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B207" s="27"/>
     </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="34"/>
-      <c r="B208" s="27"/>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="33" t="s">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B208" s="27" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="34" t="s">
+        <v>76</v>
+      </c>
+      <c r="B209" s="27" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="33" t="s">
         <v>73</v>
       </c>
-      <c r="B209" s="27"/>
-    </row>
-    <row r="210" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="40"/>
-      <c r="B210" s="28"/>
+      <c r="B210" s="27"/>
+    </row>
+    <row r="211" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A211" s="35" t="s">
+        <v>213</v>
+      </c>
+      <c r="B211" s="28" t="s">
+        <v>214</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/USE_CASE_LEVEZETES.xlsx
+++ b/USE_CASE_LEVEZETES.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csern\OneDrive\Dokumentumok\GitHub\SzoftTech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goczi\Desktop\5. félév\Szoftvertechnológia\repo\SzoftTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E046739-570C-4AB7-89FF-269B710F00FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-6852" yWindow="-15756" windowWidth="21600" windowHeight="11292" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use-case" sheetId="1" r:id="rId1"/>
@@ -664,9 +665,6 @@
     <t>bármelyik felhasználó</t>
   </si>
   <si>
-    <t>bármilyen fellépő bug amire azonnali visszajelzést igényelhet</t>
-  </si>
-  <si>
     <t>bármilyen folyamat elindulása vagy funkció felhasználásának igénye</t>
   </si>
   <si>
@@ -698,12 +696,15 @@
   </si>
   <si>
     <t>a felület nem jeleníti meg</t>
+  </si>
+  <si>
+    <t>bármilyen fellépő hiba amire azonnali visszajelzést igényelhet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -765,7 +766,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -942,6 +943,17 @@
       <right style="medium">
         <color indexed="64"/>
       </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
       <top/>
       <bottom style="medium">
         <color indexed="64"/>
@@ -1054,7 +1066,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
   </cellXfs>
@@ -1336,21 +1348,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="71" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1358,7 +1370,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -1366,7 +1378,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="41" t="s">
         <v>4</v>
       </c>
@@ -1374,11 +1386,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="41"/>
       <c r="B4" s="42"/>
     </row>
-    <row r="5" spans="1:2" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
@@ -1386,7 +1398,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
@@ -1394,7 +1406,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -1402,7 +1414,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
@@ -1410,7 +1422,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -1418,7 +1430,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
@@ -1426,7 +1438,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
@@ -1434,7 +1446,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
@@ -1442,10 +1454,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>0</v>
       </c>
@@ -1453,7 +1465,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>2</v>
       </c>
@@ -1461,7 +1473,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="41" t="s">
         <v>4</v>
       </c>
@@ -1469,11 +1481,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="41"/>
       <c r="B17" s="42"/>
     </row>
-    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>6</v>
       </c>
@@ -1481,7 +1493,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>24</v>
       </c>
@@ -1489,7 +1501,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>28</v>
       </c>
@@ -1497,7 +1509,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>29</v>
       </c>
@@ -1505,7 +1517,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>31</v>
       </c>
@@ -1513,7 +1525,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>33</v>
       </c>
@@ -1521,7 +1533,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>19</v>
       </c>
@@ -1529,11 +1541,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>0</v>
       </c>
@@ -1541,7 +1553,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>2</v>
       </c>
@@ -1549,7 +1561,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="41" t="s">
         <v>4</v>
       </c>
@@ -1557,11 +1569,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="0.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="0.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="41"/>
       <c r="B29" s="42"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>6</v>
       </c>
@@ -1569,7 +1581,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>24</v>
       </c>
@@ -1577,7 +1589,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>41</v>
       </c>
@@ -1585,7 +1597,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>43</v>
       </c>
@@ -1593,7 +1605,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>19</v>
       </c>
@@ -1601,7 +1613,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>46</v>
       </c>
@@ -1609,11 +1621,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>0</v>
       </c>
@@ -1621,7 +1633,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>2</v>
       </c>
@@ -1629,7 +1641,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="41" t="s">
         <v>4</v>
       </c>
@@ -1637,11 +1649,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="41"/>
       <c r="B40" s="42"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>6</v>
       </c>
@@ -1649,7 +1661,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>24</v>
       </c>
@@ -1657,7 +1669,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>52</v>
       </c>
@@ -1665,7 +1677,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>54</v>
       </c>
@@ -1673,7 +1685,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>57</v>
       </c>
@@ -1681,7 +1693,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>19</v>
       </c>
@@ -1689,7 +1701,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>60</v>
       </c>
@@ -1697,7 +1709,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>61</v>
       </c>
@@ -1705,7 +1717,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>63</v>
       </c>
@@ -1713,18 +1725,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="B50" s="18"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="16"/>
       <c r="B52" s="1"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" s="15"/>
     </row>
   </sheetData>
@@ -1744,27 +1756,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G211"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A193" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B203" sqref="B203"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="G191" sqref="G191"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="19"/>
-    <col min="4" max="4" width="19.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.33203125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="19"/>
-    <col min="7" max="7" width="37.88671875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="19"/>
+    <col min="4" max="4" width="19.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.28515625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="19"/>
+    <col min="7" max="7" width="37.85546875" style="19" customWidth="1"/>
     <col min="8" max="8" width="52" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="19"/>
+    <col min="9" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>65</v>
       </c>
@@ -1772,13 +1784,13 @@
         <v>126</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="26"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>67</v>
       </c>
@@ -1786,7 +1798,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>68</v>
       </c>
@@ -1794,7 +1806,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>109</v>
       </c>
@@ -1802,7 +1814,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>110</v>
       </c>
@@ -1810,7 +1822,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>69</v>
       </c>
@@ -1818,7 +1830,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>70</v>
       </c>
@@ -1826,7 +1838,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>71</v>
       </c>
@@ -1834,13 +1846,13 @@
         <v>130</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>74</v>
       </c>
@@ -1848,7 +1860,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>76</v>
       </c>
@@ -1856,7 +1868,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>77</v>
       </c>
@@ -1864,7 +1876,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>78</v>
       </c>
@@ -1872,13 +1884,13 @@
         <v>133</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B15" s="27"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>79</v>
       </c>
@@ -1887,7 +1899,7 @@
       </c>
       <c r="D16" s="39"/>
     </row>
-    <row r="17" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
         <v>80</v>
       </c>
@@ -1896,13 +1908,13 @@
       </c>
       <c r="D17" s="39"/>
     </row>
-    <row r="18" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
       <c r="B18" s="39"/>
       <c r="D18" s="39"/>
       <c r="E18" s="39"/>
     </row>
-    <row r="19" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>65</v>
       </c>
@@ -1912,7 +1924,7 @@
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>66</v>
       </c>
@@ -1920,7 +1932,7 @@
       <c r="D20" s="39"/>
       <c r="E20" s="39"/>
     </row>
-    <row r="21" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>67</v>
       </c>
@@ -1930,7 +1942,7 @@
       <c r="D21" s="39"/>
       <c r="E21" s="39"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>68</v>
       </c>
@@ -1940,7 +1952,7 @@
       <c r="D22" s="39"/>
       <c r="E22" s="39"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>109</v>
       </c>
@@ -1950,7 +1962,7 @@
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>110</v>
       </c>
@@ -1960,7 +1972,7 @@
       <c r="D24" s="39"/>
       <c r="E24" s="39"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>69</v>
       </c>
@@ -1970,7 +1982,7 @@
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
         <v>70</v>
       </c>
@@ -1980,7 +1992,7 @@
       <c r="D26" s="39"/>
       <c r="E26" s="39"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
         <v>71</v>
       </c>
@@ -1990,7 +2002,7 @@
       <c r="D27" s="39"/>
       <c r="E27" s="39"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
         <v>72</v>
       </c>
@@ -1998,7 +2010,7 @@
       <c r="D28" s="39"/>
       <c r="E28" s="39"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
         <v>74</v>
       </c>
@@ -2008,7 +2020,7 @@
       <c r="D29" s="39"/>
       <c r="E29" s="39"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
         <v>76</v>
       </c>
@@ -2018,7 +2030,7 @@
       <c r="D30" s="39"/>
       <c r="E30" s="39"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
         <v>77</v>
       </c>
@@ -2028,7 +2040,7 @@
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="34" t="s">
         <v>78</v>
       </c>
@@ -2038,7 +2050,7 @@
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
         <v>73</v>
       </c>
@@ -2046,7 +2058,7 @@
       <c r="D33" s="39"/>
       <c r="E33" s="39"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
         <v>102</v>
       </c>
@@ -2056,7 +2068,7 @@
       <c r="D34" s="39"/>
       <c r="E34" s="39"/>
     </row>
-    <row r="35" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
         <v>103</v>
       </c>
@@ -2066,12 +2078,12 @@
       <c r="D35" s="39"/>
       <c r="E35" s="39"/>
     </row>
-    <row r="36" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="D36" s="39"/>
     </row>
-    <row r="37" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
         <v>65</v>
       </c>
@@ -2080,14 +2092,14 @@
       </c>
       <c r="G37" s="36"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B38" s="26"/>
       <c r="G38" s="36"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
         <v>67</v>
       </c>
@@ -2096,7 +2108,7 @@
       </c>
       <c r="G39" s="36"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
         <v>68</v>
       </c>
@@ -2105,7 +2117,7 @@
       </c>
       <c r="G40" s="36"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
         <v>109</v>
       </c>
@@ -2114,7 +2126,7 @@
       </c>
       <c r="G41" s="36"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
         <v>110</v>
       </c>
@@ -2123,7 +2135,7 @@
       </c>
       <c r="G42" s="36"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
         <v>69</v>
       </c>
@@ -2132,7 +2144,7 @@
       </c>
       <c r="G43" s="36"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
         <v>70</v>
       </c>
@@ -2141,7 +2153,7 @@
       </c>
       <c r="G44" s="36"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
         <v>71</v>
       </c>
@@ -2150,14 +2162,14 @@
       </c>
       <c r="G45" s="36"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B46" s="27"/>
       <c r="G46" s="36"/>
     </row>
-    <row r="47" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
         <v>74</v>
       </c>
@@ -2165,7 +2177,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="34" t="s">
         <v>76</v>
       </c>
@@ -2173,7 +2185,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="34" t="s">
         <v>77</v>
       </c>
@@ -2181,7 +2193,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="34" t="s">
         <v>78</v>
       </c>
@@ -2189,7 +2201,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="34" t="s">
         <v>100</v>
       </c>
@@ -2197,7 +2209,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="34" t="s">
         <v>101</v>
       </c>
@@ -2205,13 +2217,13 @@
         <v>147</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B53" s="27"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="34" t="s">
         <v>102</v>
       </c>
@@ -2219,7 +2231,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35" t="s">
         <v>103</v>
       </c>
@@ -2227,8 +2239,8 @@
         <v>150</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="57" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="30" t="s">
         <v>65</v>
       </c>
@@ -2236,13 +2248,13 @@
         <v>107</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B58" s="26"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="32" t="s">
         <v>67</v>
       </c>
@@ -2250,7 +2262,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
         <v>68</v>
       </c>
@@ -2258,7 +2270,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
         <v>109</v>
       </c>
@@ -2266,7 +2278,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
         <v>110</v>
       </c>
@@ -2274,7 +2286,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
         <v>69</v>
       </c>
@@ -2282,7 +2294,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="33" t="s">
         <v>70</v>
       </c>
@@ -2290,7 +2302,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="33" t="s">
         <v>71</v>
       </c>
@@ -2298,13 +2310,13 @@
         <v>90</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B66" s="27"/>
     </row>
-    <row r="67" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67" s="34" t="s">
         <v>74</v>
       </c>
@@ -2312,7 +2324,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="34" t="s">
         <v>76</v>
       </c>
@@ -2320,7 +2332,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="34" t="s">
         <v>77</v>
       </c>
@@ -2328,7 +2340,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="34" t="s">
         <v>78</v>
       </c>
@@ -2336,13 +2348,13 @@
         <v>95</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B71" s="27"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="34" t="s">
         <v>102</v>
       </c>
@@ -2350,7 +2362,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="34" t="s">
         <v>103</v>
       </c>
@@ -2358,13 +2370,13 @@
         <v>97</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="38"/>
       <c r="B74" s="39"/>
       <c r="D74" s="39"/>
       <c r="E74" s="39"/>
     </row>
-    <row r="75" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="25" t="s">
         <v>65</v>
       </c>
@@ -2374,7 +2386,7 @@
       <c r="D75" s="39"/>
       <c r="E75" s="39"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="s">
         <v>66</v>
       </c>
@@ -2382,7 +2394,7 @@
       <c r="D76" s="39"/>
       <c r="E76" s="39"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="29" t="s">
         <v>67</v>
       </c>
@@ -2392,7 +2404,7 @@
       <c r="D77" s="39"/>
       <c r="E77" s="39"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="29" t="s">
         <v>68</v>
       </c>
@@ -2402,7 +2414,7 @@
       <c r="D78" s="39"/>
       <c r="E78" s="39"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="32" t="s">
         <v>109</v>
       </c>
@@ -2412,7 +2424,7 @@
       <c r="D79" s="39"/>
       <c r="E79" s="39"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="32" t="s">
         <v>110</v>
       </c>
@@ -2422,7 +2434,7 @@
       <c r="D80" s="39"/>
       <c r="E80" s="39"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
         <v>69</v>
       </c>
@@ -2432,7 +2444,7 @@
       <c r="D81" s="39"/>
       <c r="E81" s="39"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
         <v>70</v>
       </c>
@@ -2442,7 +2454,7 @@
       <c r="D82" s="39"/>
       <c r="E82" s="39"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
         <v>71</v>
       </c>
@@ -2452,7 +2464,7 @@
       <c r="D83" s="39"/>
       <c r="E83" s="39"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
         <v>72</v>
       </c>
@@ -2460,7 +2472,7 @@
       <c r="D84" s="39"/>
       <c r="E84" s="39"/>
     </row>
-    <row r="85" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A85" s="24" t="s">
         <v>74</v>
       </c>
@@ -2470,7 +2482,7 @@
       <c r="D85" s="39"/>
       <c r="E85" s="39"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="24" t="s">
         <v>76</v>
       </c>
@@ -2480,7 +2492,7 @@
       <c r="D86" s="39"/>
       <c r="E86" s="39"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
         <v>73</v>
       </c>
@@ -2488,7 +2500,7 @@
       <c r="D87" s="39"/>
       <c r="E87" s="39"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="34" t="s">
         <v>102</v>
       </c>
@@ -2498,7 +2510,7 @@
       <c r="D88" s="39"/>
       <c r="E88" s="39"/>
     </row>
-    <row r="89" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="35" t="s">
         <v>103</v>
       </c>
@@ -2508,17 +2520,17 @@
       <c r="D89" s="39"/>
       <c r="E89" s="39"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="39"/>
       <c r="B90" s="39"/>
       <c r="D90" s="39"/>
       <c r="E90" s="39"/>
     </row>
-    <row r="91" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="39"/>
       <c r="B91" s="39"/>
     </row>
-    <row r="92" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="30" t="s">
         <v>65</v>
       </c>
@@ -2526,13 +2538,13 @@
         <v>99</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B93" s="26"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="32" t="s">
         <v>67</v>
       </c>
@@ -2540,7 +2552,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="32" t="s">
         <v>68</v>
       </c>
@@ -2548,7 +2560,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="32" t="s">
         <v>109</v>
       </c>
@@ -2556,7 +2568,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="32" t="s">
         <v>110</v>
       </c>
@@ -2564,7 +2576,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="33" t="s">
         <v>69</v>
       </c>
@@ -2572,7 +2584,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="33" t="s">
         <v>70</v>
       </c>
@@ -2580,7 +2592,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="33" t="s">
         <v>71</v>
       </c>
@@ -2588,13 +2600,13 @@
         <v>152</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B101" s="27"/>
     </row>
-    <row r="102" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A102" s="34" t="s">
         <v>74</v>
       </c>
@@ -2602,7 +2614,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="34" t="s">
         <v>76</v>
       </c>
@@ -2610,7 +2622,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="34" t="s">
         <v>77</v>
       </c>
@@ -2618,7 +2630,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="34" t="s">
         <v>78</v>
       </c>
@@ -2626,7 +2638,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="34" t="s">
         <v>100</v>
       </c>
@@ -2634,7 +2646,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="34" t="s">
         <v>101</v>
       </c>
@@ -2642,13 +2654,13 @@
         <v>154</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B108" s="27"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="34" t="s">
         <v>102</v>
       </c>
@@ -2656,7 +2668,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="34" t="s">
         <v>103</v>
       </c>
@@ -2664,7 +2676,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="34" t="s">
         <v>79</v>
       </c>
@@ -2672,7 +2684,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="35" t="s">
         <v>80</v>
       </c>
@@ -2680,11 +2692,11 @@
         <v>156</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="19"/>
       <c r="B113" s="19"/>
     </row>
-    <row r="114" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="30" t="s">
         <v>65</v>
       </c>
@@ -2692,13 +2704,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B115" s="26"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="32" t="s">
         <v>67</v>
       </c>
@@ -2706,7 +2718,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="32" t="s">
         <v>68</v>
       </c>
@@ -2714,7 +2726,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="32" t="s">
         <v>109</v>
       </c>
@@ -2722,7 +2734,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="32" t="s">
         <v>110</v>
       </c>
@@ -2730,7 +2742,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="33" t="s">
         <v>69</v>
       </c>
@@ -2738,7 +2750,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="33" t="s">
         <v>124</v>
       </c>
@@ -2746,7 +2758,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="33" t="s">
         <v>71</v>
       </c>
@@ -2754,13 +2766,13 @@
         <v>125</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B123" s="27"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="34" t="s">
         <v>74</v>
       </c>
@@ -2768,7 +2780,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="34" t="s">
         <v>76</v>
       </c>
@@ -2776,7 +2788,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="34" t="s">
         <v>77</v>
       </c>
@@ -2784,7 +2796,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="34" t="s">
         <v>78</v>
       </c>
@@ -2792,13 +2804,13 @@
         <v>187</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B128" s="27"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="34" t="s">
         <v>168</v>
       </c>
@@ -2806,7 +2818,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="34" t="s">
         <v>170</v>
       </c>
@@ -2814,7 +2826,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="34" t="s">
         <v>79</v>
       </c>
@@ -2822,7 +2834,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="35" t="s">
         <v>80</v>
       </c>
@@ -2830,11 +2842,11 @@
         <v>188</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="19"/>
       <c r="B133" s="37"/>
     </row>
-    <row r="134" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="30" t="s">
         <v>65</v>
       </c>
@@ -2842,13 +2854,13 @@
         <v>181</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B135" s="26"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="32" t="s">
         <v>67</v>
       </c>
@@ -2856,7 +2868,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="32" t="s">
         <v>68</v>
       </c>
@@ -2864,7 +2876,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="32" t="s">
         <v>109</v>
       </c>
@@ -2872,7 +2884,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="32" t="s">
         <v>110</v>
       </c>
@@ -2880,7 +2892,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="33" t="s">
         <v>69</v>
       </c>
@@ -2888,7 +2900,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="33" t="s">
         <v>70</v>
       </c>
@@ -2896,7 +2908,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A142" s="33" t="s">
         <v>71</v>
       </c>
@@ -2904,13 +2916,13 @@
         <v>196</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B143" s="27"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="34" t="s">
         <v>74</v>
       </c>
@@ -2918,7 +2930,7 @@
         <v>197</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="34" t="s">
         <v>76</v>
       </c>
@@ -2926,12 +2938,12 @@
         <v>198</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="34"/>
       <c r="B146" s="27"/>
     </row>
-    <row r="147" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="148" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="148" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="30" t="s">
         <v>65</v>
       </c>
@@ -2939,13 +2951,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B149" s="26"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="32" t="s">
         <v>67</v>
       </c>
@@ -2953,7 +2965,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="32" t="s">
         <v>68</v>
       </c>
@@ -2961,7 +2973,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="32" t="s">
         <v>109</v>
       </c>
@@ -2969,7 +2981,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="32" t="s">
         <v>110</v>
       </c>
@@ -2977,7 +2989,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="33" t="s">
         <v>69</v>
       </c>
@@ -2985,7 +2997,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="33" t="s">
         <v>70</v>
       </c>
@@ -2993,7 +3005,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A156" s="33" t="s">
         <v>71</v>
       </c>
@@ -3001,13 +3013,13 @@
         <v>163</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B157" s="27"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="34" t="s">
         <v>74</v>
       </c>
@@ -3015,7 +3027,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="34" t="s">
         <v>76</v>
       </c>
@@ -3023,7 +3035,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="34" t="s">
         <v>77</v>
       </c>
@@ -3031,7 +3043,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="34" t="s">
         <v>78</v>
       </c>
@@ -3039,13 +3051,13 @@
         <v>166</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B162" s="27"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="34" t="s">
         <v>168</v>
       </c>
@@ -3053,7 +3065,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A164" s="34" t="s">
         <v>170</v>
       </c>
@@ -3061,7 +3073,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="34" t="s">
         <v>79</v>
       </c>
@@ -3069,7 +3081,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="35" t="s">
         <v>80</v>
       </c>
@@ -3077,8 +3089,8 @@
         <v>173</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="168" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="168" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="30" t="s">
         <v>65</v>
       </c>
@@ -3086,13 +3098,13 @@
         <v>121</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B169" s="26"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="32" t="s">
         <v>67</v>
       </c>
@@ -3100,7 +3112,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="32" t="s">
         <v>68</v>
       </c>
@@ -3108,7 +3120,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="32" t="s">
         <v>109</v>
       </c>
@@ -3116,7 +3128,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="32" t="s">
         <v>110</v>
       </c>
@@ -3124,7 +3136,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="33" t="s">
         <v>69</v>
       </c>
@@ -3132,7 +3144,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="33" t="s">
         <v>70</v>
       </c>
@@ -3140,7 +3152,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A176" s="33" t="s">
         <v>71</v>
       </c>
@@ -3148,13 +3160,13 @@
         <v>176</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B177" s="27"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="34" t="s">
         <v>74</v>
       </c>
@@ -3162,7 +3174,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="34" t="s">
         <v>76</v>
       </c>
@@ -3170,7 +3182,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="34" t="s">
         <v>77</v>
       </c>
@@ -3178,7 +3190,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="34" t="s">
         <v>78</v>
       </c>
@@ -3186,12 +3198,12 @@
         <v>180</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="28"/>
     </row>
-    <row r="183" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="184" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="184" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="30" t="s">
         <v>65</v>
       </c>
@@ -3199,13 +3211,13 @@
         <v>199</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B185" s="26"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="32" t="s">
         <v>67</v>
       </c>
@@ -3213,7 +3225,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="32" t="s">
         <v>68</v>
       </c>
@@ -3221,7 +3233,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="33" t="s">
         <v>69</v>
       </c>
@@ -3229,145 +3241,141 @@
         <v>202</v>
       </c>
     </row>
-    <row r="189" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="33" t="s">
         <v>71</v>
       </c>
       <c r="B189" s="27" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B190" s="27"/>
     </row>
-    <row r="191" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A191" s="34" t="s">
         <v>74</v>
       </c>
       <c r="B191" s="27" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="43" t="s">
         <v>76</v>
       </c>
-      <c r="B192" s="27" t="s">
+      <c r="B192" s="28" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="197" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A197" s="30" t="s">
+        <v>65</v>
+      </c>
+      <c r="B197" s="25" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A198" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B198" s="26"/>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A199" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B199" s="27" t="s">
         <v>205</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A193" s="33"/>
-      <c r="B193" s="28"/>
-    </row>
-    <row r="197" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="198" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A198" s="30" t="s">
-        <v>65</v>
-      </c>
-      <c r="B198" s="25" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A199" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B199" s="26"/>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="32" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B200" s="27" t="s">
         <v>206</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="32" t="s">
-        <v>68</v>
+        <v>109</v>
       </c>
       <c r="B201" s="27" t="s">
         <v>207</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="32" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B202" s="27" t="s">
         <v>208</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A203" s="32" t="s">
-        <v>110</v>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A203" s="33" t="s">
+        <v>69</v>
       </c>
       <c r="B203" s="27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B204" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A205" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B205" s="27" t="s">
         <v>209</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A204" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B204" s="27" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A205" s="33" t="s">
-        <v>70</v>
-      </c>
-      <c r="B205" s="27" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="33" t="s">
-        <v>71</v>
-      </c>
-      <c r="B206" s="27" t="s">
+        <v>72</v>
+      </c>
+      <c r="B206" s="27"/>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A207" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B207" s="27" t="s">
         <v>210</v>
       </c>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A207" s="33" t="s">
-        <v>72</v>
-      </c>
-      <c r="B207" s="27"/>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A208" s="34" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B208" s="27" t="s">
         <v>211</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A209" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="B209" s="27" t="s">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A209" s="33" t="s">
+        <v>73</v>
+      </c>
+      <c r="B209" s="27"/>
+    </row>
+    <row r="210" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A210" s="35" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A210" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="B210" s="27"/>
-    </row>
-    <row r="211" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A211" s="35" t="s">
+      <c r="B210" s="28" t="s">
         <v>213</v>
-      </c>
-      <c r="B211" s="28" t="s">
-        <v>214</v>
       </c>
     </row>
   </sheetData>

--- a/USE_CASE_LEVEZETES.xlsx
+++ b/USE_CASE_LEVEZETES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goczi\Desktop\5. félév\Szoftvertechnológia\repo\SzoftTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E046739-570C-4AB7-89FF-269B710F00FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B1FD70-C56A-4599-BF1B-77A6BE901CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="18705" yWindow="405" windowWidth="28800" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use-case" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="218">
   <si>
     <t>Use case name</t>
   </si>
@@ -500,9 +500,6 @@
     <t>Beteg recept listájára felkerül az új recept.</t>
   </si>
   <si>
-    <t>A rendszer kilistázza az elérhető gyógyszereket</t>
-  </si>
-  <si>
     <t>A beteg recept listája változatlan marad</t>
   </si>
   <si>
@@ -699,6 +696,18 @@
   </si>
   <si>
     <t>bármilyen fellépő hiba amire azonnali visszajelzést igényelhet</t>
+  </si>
+  <si>
+    <t>1.1</t>
+  </si>
+  <si>
+    <t>1.2</t>
+  </si>
+  <si>
+    <t>Orvoshoz még nem tartozik beteg</t>
+  </si>
+  <si>
+    <t>A rendszer hibaüzenetet ad vissza</t>
   </si>
 </sst>
 </file>
@@ -1060,14 +1069,14 @@
     <xf numFmtId="49" fontId="2" fillId="3" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1379,16 +1388,16 @@
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="41" t="s">
+      <c r="A3" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="42" t="s">
+      <c r="B3" s="43" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="41"/>
-      <c r="B4" s="42"/>
+      <c r="A4" s="42"/>
+      <c r="B4" s="43"/>
     </row>
     <row r="5" spans="1:2" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
@@ -1474,16 +1483,16 @@
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A16" s="41" t="s">
+      <c r="A16" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B16" s="42" t="s">
+      <c r="B16" s="43" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" s="41"/>
-      <c r="B17" s="42"/>
+      <c r="A17" s="42"/>
+      <c r="B17" s="43"/>
     </row>
     <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
@@ -1562,16 +1571,16 @@
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" s="41" t="s">
+      <c r="A28" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B28" s="42" t="s">
+      <c r="B28" s="43" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="0.6" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="41"/>
-      <c r="B29" s="42"/>
+      <c r="A29" s="42"/>
+      <c r="B29" s="43"/>
     </row>
     <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
@@ -1642,16 +1651,16 @@
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="41" t="s">
+      <c r="A39" s="42" t="s">
         <v>4</v>
       </c>
-      <c r="B39" s="42" t="s">
+      <c r="B39" s="43" t="s">
         <v>50</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A40" s="41"/>
-      <c r="B40" s="42"/>
+      <c r="A40" s="42"/>
+      <c r="B40" s="43"/>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
@@ -1759,8 +1768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="G191" sqref="G191"/>
+    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E112" sqref="E112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1892,7 +1901,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>135</v>
@@ -1901,10 +1910,10 @@
     </row>
     <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D17" s="39"/>
     </row>
@@ -2060,7 +2069,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
-        <v>102</v>
+        <v>214</v>
       </c>
       <c r="B34" s="27" t="s">
         <v>143</v>
@@ -2070,10 +2079,10 @@
     </row>
     <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
-        <v>103</v>
+        <v>215</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="D35" s="39"/>
       <c r="E35" s="39"/>
@@ -2131,7 +2140,7 @@
         <v>110</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="G42" s="36"/>
     </row>
@@ -2198,7 +2207,7 @@
         <v>78</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>148</v>
+        <v>177</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2225,7 +2234,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="34" t="s">
-        <v>102</v>
+        <v>214</v>
       </c>
       <c r="B54" s="27" t="s">
         <v>143</v>
@@ -2233,10 +2242,10 @@
     </row>
     <row r="55" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35" t="s">
-        <v>103</v>
+        <v>215</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2573,7 +2582,7 @@
         <v>110</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2597,7 +2606,7 @@
         <v>71</v>
       </c>
       <c r="B100" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2643,7 +2652,7 @@
         <v>100</v>
       </c>
       <c r="B106" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2651,7 +2660,7 @@
         <v>101</v>
       </c>
       <c r="B107" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2662,34 +2671,34 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="34" t="s">
-        <v>102</v>
+        <v>214</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>96</v>
+        <v>216</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="34" t="s">
-        <v>103</v>
+        <v>215</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>97</v>
+        <v>217</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="34" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="35" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2715,7 +2724,7 @@
         <v>67</v>
       </c>
       <c r="B116" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2731,7 +2740,7 @@
         <v>109</v>
       </c>
       <c r="B118" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2777,7 +2786,7 @@
         <v>74</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2785,7 +2794,7 @@
         <v>76</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2793,7 +2802,7 @@
         <v>77</v>
       </c>
       <c r="B126" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2801,7 +2810,7 @@
         <v>78</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2812,18 +2821,18 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="B129" s="27" t="s">
         <v>168</v>
-      </c>
-      <c r="B129" s="27" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="34" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B130" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2831,7 +2840,7 @@
         <v>79</v>
       </c>
       <c r="B131" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2839,7 +2848,7 @@
         <v>80</v>
       </c>
       <c r="B132" s="28" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2851,7 +2860,7 @@
         <v>65</v>
       </c>
       <c r="B134" s="25" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2865,7 +2874,7 @@
         <v>67</v>
       </c>
       <c r="B136" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2873,7 +2882,7 @@
         <v>68</v>
       </c>
       <c r="B137" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2881,7 +2890,7 @@
         <v>109</v>
       </c>
       <c r="B138" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2889,7 +2898,7 @@
         <v>110</v>
       </c>
       <c r="B139" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -2897,7 +2906,7 @@
         <v>69</v>
       </c>
       <c r="B140" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -2905,7 +2914,7 @@
         <v>70</v>
       </c>
       <c r="B141" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -2913,7 +2922,7 @@
         <v>71</v>
       </c>
       <c r="B142" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -2927,7 +2936,7 @@
         <v>74</v>
       </c>
       <c r="B144" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -2935,7 +2944,7 @@
         <v>76</v>
       </c>
       <c r="B145" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -2962,7 +2971,7 @@
         <v>67</v>
       </c>
       <c r="B150" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -2970,7 +2979,7 @@
         <v>68</v>
       </c>
       <c r="B151" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -2978,7 +2987,7 @@
         <v>109</v>
       </c>
       <c r="B152" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -2986,7 +2995,7 @@
         <v>110</v>
       </c>
       <c r="B153" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -2994,7 +3003,7 @@
         <v>69</v>
       </c>
       <c r="B154" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -3002,7 +3011,7 @@
         <v>70</v>
       </c>
       <c r="B155" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -3010,7 +3019,7 @@
         <v>71</v>
       </c>
       <c r="B156" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -3024,7 +3033,7 @@
         <v>74</v>
       </c>
       <c r="B158" s="27" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -3032,7 +3041,7 @@
         <v>76</v>
       </c>
       <c r="B159" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -3040,7 +3049,7 @@
         <v>77</v>
       </c>
       <c r="B160" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -3048,7 +3057,7 @@
         <v>78</v>
       </c>
       <c r="B161" s="27" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -3059,18 +3068,18 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="34" t="s">
+        <v>167</v>
+      </c>
+      <c r="B163" s="27" t="s">
         <v>168</v>
-      </c>
-      <c r="B163" s="27" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A164" s="34" t="s">
+        <v>169</v>
+      </c>
+      <c r="B164" s="27" t="s">
         <v>170</v>
-      </c>
-      <c r="B164" s="27" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -3078,7 +3087,7 @@
         <v>79</v>
       </c>
       <c r="B165" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3086,7 +3095,7 @@
         <v>80</v>
       </c>
       <c r="B166" s="28" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3109,7 +3118,7 @@
         <v>67</v>
       </c>
       <c r="B170" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -3117,7 +3126,7 @@
         <v>68</v>
       </c>
       <c r="B171" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -3125,7 +3134,7 @@
         <v>109</v>
       </c>
       <c r="B172" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -3133,7 +3142,7 @@
         <v>110</v>
       </c>
       <c r="B173" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -3141,7 +3150,7 @@
         <v>69</v>
       </c>
       <c r="B174" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -3149,7 +3158,7 @@
         <v>70</v>
       </c>
       <c r="B175" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -3157,7 +3166,7 @@
         <v>71</v>
       </c>
       <c r="B176" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -3171,7 +3180,7 @@
         <v>74</v>
       </c>
       <c r="B178" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -3179,7 +3188,7 @@
         <v>76</v>
       </c>
       <c r="B179" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -3187,7 +3196,7 @@
         <v>77</v>
       </c>
       <c r="B180" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -3195,7 +3204,7 @@
         <v>78</v>
       </c>
       <c r="B181" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3208,7 +3217,7 @@
         <v>65</v>
       </c>
       <c r="B184" s="25" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -3222,7 +3231,7 @@
         <v>67</v>
       </c>
       <c r="B186" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -3230,7 +3239,7 @@
         <v>68</v>
       </c>
       <c r="B187" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -3238,7 +3247,7 @@
         <v>69</v>
       </c>
       <c r="B188" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -3246,7 +3255,7 @@
         <v>71</v>
       </c>
       <c r="B189" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -3260,15 +3269,15 @@
         <v>74</v>
       </c>
       <c r="B191" s="27" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A192" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="B192" s="28" t="s">
         <v>203</v>
-      </c>
-    </row>
-    <row r="192" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="43" t="s">
-        <v>76</v>
-      </c>
-      <c r="B192" s="28" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="196" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3277,7 +3286,7 @@
         <v>65</v>
       </c>
       <c r="B197" s="25" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -3291,7 +3300,7 @@
         <v>67</v>
       </c>
       <c r="B199" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -3299,7 +3308,7 @@
         <v>68</v>
       </c>
       <c r="B200" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -3307,7 +3316,7 @@
         <v>109</v>
       </c>
       <c r="B201" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -3315,7 +3324,7 @@
         <v>110</v>
       </c>
       <c r="B202" s="27" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -3323,7 +3332,7 @@
         <v>69</v>
       </c>
       <c r="B203" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -3331,7 +3340,7 @@
         <v>70</v>
       </c>
       <c r="B204" s="27" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="205" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -3339,7 +3348,7 @@
         <v>71</v>
       </c>
       <c r="B205" s="27" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -3353,7 +3362,7 @@
         <v>74</v>
       </c>
       <c r="B207" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.25">
@@ -3361,7 +3370,7 @@
         <v>76</v>
       </c>
       <c r="B208" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -3372,10 +3381,10 @@
     </row>
     <row r="210" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A210" s="35" t="s">
+        <v>211</v>
+      </c>
+      <c r="B210" s="28" t="s">
         <v>212</v>
-      </c>
-      <c r="B210" s="28" t="s">
-        <v>213</v>
       </c>
     </row>
   </sheetData>

--- a/USE_CASE_LEVEZETES.xlsx
+++ b/USE_CASE_LEVEZETES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goczi\Desktop\5. félév\Szoftvertechnológia\repo\SzoftTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25B1FD70-C56A-4599-BF1B-77A6BE901CD5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51F17DA-75C3-4F9D-9654-A318E87697BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="18705" yWindow="405" windowWidth="28800" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="9600" yWindow="405" windowWidth="28800" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use-case" sheetId="1" r:id="rId1"/>
@@ -1768,8 +1768,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A91" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E112" sqref="E112"/>
+    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E130" sqref="E130"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2821,7 +2821,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="34" t="s">
-        <v>167</v>
+        <v>102</v>
       </c>
       <c r="B129" s="27" t="s">
         <v>168</v>
@@ -2829,7 +2829,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="34" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="B130" s="27" t="s">
         <v>187</v>
@@ -2837,7 +2837,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="34" t="s">
-        <v>79</v>
+        <v>167</v>
       </c>
       <c r="B131" s="27" t="s">
         <v>188</v>
@@ -2845,7 +2845,7 @@
     </row>
     <row r="132" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="35" t="s">
-        <v>80</v>
+        <v>169</v>
       </c>
       <c r="B132" s="28" t="s">
         <v>187</v>

--- a/USE_CASE_LEVEZETES.xlsx
+++ b/USE_CASE_LEVEZETES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goczi\Desktop\5. félév\Szoftvertechnológia\repo\SzoftTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C51F17DA-75C3-4F9D-9654-A318E87697BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A348EDE-AE7A-497B-9F8A-A85E3F96834A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="9600" yWindow="405" windowWidth="28800" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="217">
   <si>
     <t>Use case name</t>
   </si>
@@ -698,16 +698,13 @@
     <t>bármilyen fellépő hiba amire azonnali visszajelzést igényelhet</t>
   </si>
   <si>
-    <t>1.1</t>
-  </si>
-  <si>
-    <t>1.2</t>
-  </si>
-  <si>
     <t>Orvoshoz még nem tartozik beteg</t>
   </si>
   <si>
     <t>A rendszer hibaüzenetet ad vissza</t>
+  </si>
+  <si>
+    <t>A rendszer kilistázza az elérhető gyógyszereket</t>
   </si>
 </sst>
 </file>
@@ -1768,8 +1765,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A103" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E130" sqref="E130"/>
+    <sheetView tabSelected="1" topLeftCell="B151" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B180" sqref="B180"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1901,7 +1898,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="B16" s="27" t="s">
         <v>135</v>
@@ -1910,7 +1907,7 @@
     </row>
     <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="B17" s="28" t="s">
         <v>149</v>
@@ -2069,7 +2066,7 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
-        <v>214</v>
+        <v>102</v>
       </c>
       <c r="B34" s="27" t="s">
         <v>143</v>
@@ -2079,7 +2076,7 @@
     </row>
     <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
-        <v>215</v>
+        <v>103</v>
       </c>
       <c r="B35" s="28" t="s">
         <v>149</v>
@@ -2234,7 +2231,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="34" t="s">
-        <v>214</v>
+        <v>102</v>
       </c>
       <c r="B54" s="27" t="s">
         <v>143</v>
@@ -2242,7 +2239,7 @@
     </row>
     <row r="55" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35" t="s">
-        <v>215</v>
+        <v>103</v>
       </c>
       <c r="B55" s="28" t="s">
         <v>149</v>
@@ -2365,7 +2362,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="34" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="B72" s="27" t="s">
         <v>96</v>
@@ -2373,7 +2370,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="34" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="B73" s="27" t="s">
         <v>97</v>
@@ -2671,23 +2668,23 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="34" t="s">
+        <v>102</v>
+      </c>
+      <c r="B109" s="27" t="s">
         <v>214</v>
-      </c>
-      <c r="B109" s="27" t="s">
-        <v>216</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="34" t="s">
+        <v>103</v>
+      </c>
+      <c r="B110" s="27" t="s">
         <v>215</v>
-      </c>
-      <c r="B110" s="27" t="s">
-        <v>217</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="34" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="B111" s="27" t="s">
         <v>154</v>
@@ -2695,7 +2692,7 @@
     </row>
     <row r="112" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="35" t="s">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="B112" s="28" t="s">
         <v>155</v>
@@ -2821,7 +2818,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="34" t="s">
-        <v>102</v>
+        <v>167</v>
       </c>
       <c r="B129" s="27" t="s">
         <v>168</v>
@@ -2829,7 +2826,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="34" t="s">
-        <v>103</v>
+        <v>169</v>
       </c>
       <c r="B130" s="27" t="s">
         <v>187</v>
@@ -2837,7 +2834,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="34" t="s">
-        <v>167</v>
+        <v>79</v>
       </c>
       <c r="B131" s="27" t="s">
         <v>188</v>
@@ -2845,7 +2842,7 @@
     </row>
     <row r="132" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="35" t="s">
-        <v>169</v>
+        <v>80</v>
       </c>
       <c r="B132" s="28" t="s">
         <v>187</v>
@@ -3188,7 +3185,7 @@
         <v>76</v>
       </c>
       <c r="B179" s="27" t="s">
-        <v>177</v>
+        <v>216</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">

--- a/USE_CASE_LEVEZETES.xlsx
+++ b/USE_CASE_LEVEZETES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goczi\Desktop\5. félév\Szoftvertechnológia\repo\SzoftTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A348EDE-AE7A-497B-9F8A-A85E3F96834A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A58A326-D14F-4EDB-9CB9-8B23B7062149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="405" windowWidth="28800" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6825" yWindow="1500" windowWidth="28800" windowHeight="10710" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use-case" sheetId="1" r:id="rId1"/>
@@ -1763,10 +1763,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G210"/>
+  <dimension ref="A1:G207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B151" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B180" sqref="B180"/>
+    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E202" sqref="E202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -3277,110 +3277,110 @@
         <v>203</v>
       </c>
     </row>
-    <row r="196" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="197" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A197" s="30" t="s">
+    <row r="193" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="194" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A194" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B197" s="25" t="s">
+      <c r="B194" s="25" t="s">
         <v>189</v>
       </c>
     </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A195" s="31" t="s">
+        <v>66</v>
+      </c>
+      <c r="B195" s="26"/>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="32" t="s">
+        <v>67</v>
+      </c>
+      <c r="B196" s="27" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A197" s="32" t="s">
+        <v>68</v>
+      </c>
+      <c r="B197" s="27" t="s">
+        <v>205</v>
+      </c>
+    </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A198" s="31" t="s">
-        <v>66</v>
-      </c>
-      <c r="B198" s="26"/>
+      <c r="A198" s="32" t="s">
+        <v>109</v>
+      </c>
+      <c r="B198" s="27" t="s">
+        <v>206</v>
+      </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="32" t="s">
-        <v>67</v>
+        <v>110</v>
       </c>
       <c r="B199" s="27" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="32" t="s">
-        <v>68</v>
+      <c r="A200" s="33" t="s">
+        <v>69</v>
       </c>
       <c r="B200" s="27" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A201" s="32" t="s">
-        <v>109</v>
+      <c r="A201" s="33" t="s">
+        <v>70</v>
       </c>
       <c r="B201" s="27" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A202" s="32" t="s">
-        <v>110</v>
+        <v>194</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A202" s="33" t="s">
+        <v>71</v>
       </c>
       <c r="B202" s="27" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A203" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B203" s="27" t="s">
-        <v>201</v>
-      </c>
+        <v>72</v>
+      </c>
+      <c r="B203" s="27"/>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="33" t="s">
-        <v>70</v>
+      <c r="A204" s="34" t="s">
+        <v>74</v>
       </c>
       <c r="B204" s="27" t="s">
-        <v>194</v>
-      </c>
-    </row>
-    <row r="205" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A205" s="33" t="s">
-        <v>71</v>
+        <v>209</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A205" s="34" t="s">
+        <v>76</v>
       </c>
       <c r="B205" s="27" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A206" s="33" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B206" s="27"/>
     </row>
-    <row r="207" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A207" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B207" s="27" t="s">
-        <v>209</v>
-      </c>
-    </row>
-    <row r="208" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A208" s="34" t="s">
-        <v>76</v>
-      </c>
-      <c r="B208" s="27" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A209" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="B209" s="27"/>
-    </row>
-    <row r="210" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A210" s="35" t="s">
+    <row r="207" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A207" s="35" t="s">
         <v>211</v>
       </c>
-      <c r="B210" s="28" t="s">
+      <c r="B207" s="28" t="s">
         <v>212</v>
       </c>
     </row>

--- a/USE_CASE_LEVEZETES.xlsx
+++ b/USE_CASE_LEVEZETES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goczi\Desktop\5. félév\Szoftvertechnológia\repo\SzoftTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A58A326-D14F-4EDB-9CB9-8B23B7062149}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8714A5DA-EA67-45F6-B2A9-77E3B936E4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6825" yWindow="1500" windowWidth="28800" windowHeight="10710" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="217">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="215">
   <si>
     <t>Use case name</t>
   </si>
@@ -392,15 +392,6 @@
     <t>Az orvos hozzáad egy új receptet a beteghez.</t>
   </si>
   <si>
-    <t>Orvos/gyógyszertár legyen bejelentkezve</t>
-  </si>
-  <si>
-    <t>Orvos/gyógyszertár</t>
-  </si>
-  <si>
-    <t>Az orvos/gyógyszertár megtekinti a beteg receptjeit.</t>
-  </si>
-  <si>
     <t>Az applikáció visszautasítja a recept megtekintését.</t>
   </si>
   <si>
@@ -705,6 +696,9 @@
   </si>
   <si>
     <t>A rendszer kilistázza az elérhető gyógyszereket</t>
+  </si>
+  <si>
+    <t>Az orvos megtekinti a beteg receptjeit.</t>
   </si>
 </sst>
 </file>
@@ -1765,8 +1759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A181" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E202" sqref="E202"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="B63" sqref="B63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1787,7 +1781,7 @@
         <v>65</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1801,7 +1795,7 @@
         <v>67</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1817,7 +1811,7 @@
         <v>109</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1825,7 +1819,7 @@
         <v>110</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1849,7 +1843,7 @@
         <v>71</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1863,7 +1857,7 @@
         <v>74</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1871,7 +1865,7 @@
         <v>76</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1879,7 +1873,7 @@
         <v>77</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1887,7 +1881,7 @@
         <v>78</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1901,7 +1895,7 @@
         <v>79</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="D16" s="39"/>
     </row>
@@ -1910,7 +1904,7 @@
         <v>80</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D17" s="39"/>
     </row>
@@ -1925,7 +1919,7 @@
         <v>65</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
@@ -1943,7 +1937,7 @@
         <v>67</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D21" s="39"/>
       <c r="E21" s="39"/>
@@ -1963,7 +1957,7 @@
         <v>109</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
@@ -1973,7 +1967,7 @@
         <v>110</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="39"/>
@@ -2003,7 +1997,7 @@
         <v>71</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="D27" s="39"/>
       <c r="E27" s="39"/>
@@ -2021,7 +2015,7 @@
         <v>74</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="D29" s="39"/>
       <c r="E29" s="39"/>
@@ -2031,7 +2025,7 @@
         <v>76</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="D30" s="39"/>
       <c r="E30" s="39"/>
@@ -2041,7 +2035,7 @@
         <v>77</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
@@ -2051,7 +2045,7 @@
         <v>78</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
@@ -2069,7 +2063,7 @@
         <v>102</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="D34" s="39"/>
       <c r="E34" s="39"/>
@@ -2079,7 +2073,7 @@
         <v>103</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="D35" s="39"/>
       <c r="E35" s="39"/>
@@ -2094,7 +2088,7 @@
         <v>65</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="G37" s="36"/>
     </row>
@@ -2137,7 +2131,7 @@
         <v>110</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G42" s="36"/>
     </row>
@@ -2188,7 +2182,7 @@
         <v>76</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2196,7 +2190,7 @@
         <v>77</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2204,7 +2198,7 @@
         <v>78</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2212,7 +2206,7 @@
         <v>100</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2220,7 +2214,7 @@
         <v>101</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2234,7 +2228,7 @@
         <v>102</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2242,7 +2236,7 @@
         <v>103</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2273,7 +2267,7 @@
         <v>68</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>112</v>
+        <v>87</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
@@ -2281,7 +2275,7 @@
         <v>109</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>114</v>
+        <v>214</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2289,7 +2283,7 @@
         <v>110</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2297,7 +2291,7 @@
         <v>69</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>113</v>
+        <v>82</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2362,7 +2356,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="34" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B72" s="27" t="s">
         <v>96</v>
@@ -2370,7 +2364,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="34" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B73" s="27" t="s">
         <v>97</v>
@@ -2425,7 +2419,7 @@
         <v>109</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D79" s="39"/>
       <c r="E79" s="39"/>
@@ -2435,7 +2429,7 @@
         <v>110</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="D80" s="39"/>
       <c r="E80" s="39"/>
@@ -2571,7 +2565,7 @@
         <v>109</v>
       </c>
       <c r="B96" s="27" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
@@ -2579,7 +2573,7 @@
         <v>110</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2603,7 +2597,7 @@
         <v>71</v>
       </c>
       <c r="B100" s="27" t="s">
-        <v>151</v>
+        <v>148</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2649,7 +2643,7 @@
         <v>100</v>
       </c>
       <c r="B106" s="27" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2657,7 +2651,7 @@
         <v>101</v>
       </c>
       <c r="B107" s="27" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2671,7 +2665,7 @@
         <v>102</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2679,7 +2673,7 @@
         <v>103</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2687,7 +2681,7 @@
         <v>79</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2695,7 +2689,7 @@
         <v>80</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2707,7 +2701,7 @@
         <v>65</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2721,7 +2715,7 @@
         <v>67</v>
       </c>
       <c r="B116" s="27" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2737,7 +2731,7 @@
         <v>109</v>
       </c>
       <c r="B118" s="27" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2745,7 +2739,7 @@
         <v>110</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -2758,7 +2752,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="33" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="B121" s="27" t="s">
         <v>82</v>
@@ -2769,7 +2763,7 @@
         <v>71</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2783,7 +2777,7 @@
         <v>74</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2791,7 +2785,7 @@
         <v>76</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2799,7 +2793,7 @@
         <v>77</v>
       </c>
       <c r="B126" s="27" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2807,7 +2801,7 @@
         <v>78</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2818,18 +2812,18 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="34" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B129" s="27" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="34" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B130" s="27" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2837,7 +2831,7 @@
         <v>79</v>
       </c>
       <c r="B131" s="27" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2845,7 +2839,7 @@
         <v>80</v>
       </c>
       <c r="B132" s="28" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2857,7 +2851,7 @@
         <v>65</v>
       </c>
       <c r="B134" s="25" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2871,7 +2865,7 @@
         <v>67</v>
       </c>
       <c r="B136" s="27" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2879,7 +2873,7 @@
         <v>68</v>
       </c>
       <c r="B137" s="27" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2887,7 +2881,7 @@
         <v>109</v>
       </c>
       <c r="B138" s="27" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2895,7 +2889,7 @@
         <v>110</v>
       </c>
       <c r="B139" s="27" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -2903,7 +2897,7 @@
         <v>69</v>
       </c>
       <c r="B140" s="27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -2911,7 +2905,7 @@
         <v>70</v>
       </c>
       <c r="B141" s="27" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -2919,7 +2913,7 @@
         <v>71</v>
       </c>
       <c r="B142" s="27" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -2933,7 +2927,7 @@
         <v>74</v>
       </c>
       <c r="B144" s="27" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -2941,7 +2935,7 @@
         <v>76</v>
       </c>
       <c r="B145" s="27" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -2954,7 +2948,7 @@
         <v>65</v>
       </c>
       <c r="B148" s="25" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -2968,7 +2962,7 @@
         <v>67</v>
       </c>
       <c r="B150" s="27" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -2976,7 +2970,7 @@
         <v>68</v>
       </c>
       <c r="B151" s="27" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -2984,7 +2978,7 @@
         <v>109</v>
       </c>
       <c r="B152" s="27" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -2992,7 +2986,7 @@
         <v>110</v>
       </c>
       <c r="B153" s="27" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -3000,7 +2994,7 @@
         <v>69</v>
       </c>
       <c r="B154" s="27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -3008,7 +3002,7 @@
         <v>70</v>
       </c>
       <c r="B155" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -3016,7 +3010,7 @@
         <v>71</v>
       </c>
       <c r="B156" s="27" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -3030,7 +3024,7 @@
         <v>74</v>
       </c>
       <c r="B158" s="27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -3038,7 +3032,7 @@
         <v>76</v>
       </c>
       <c r="B159" s="27" t="s">
-        <v>164</v>
+        <v>161</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -3046,7 +3040,7 @@
         <v>77</v>
       </c>
       <c r="B160" s="27" t="s">
-        <v>166</v>
+        <v>163</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -3054,7 +3048,7 @@
         <v>78</v>
       </c>
       <c r="B161" s="27" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -3065,18 +3059,18 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="34" t="s">
-        <v>167</v>
+        <v>164</v>
       </c>
       <c r="B163" s="27" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A164" s="34" t="s">
-        <v>169</v>
+        <v>166</v>
       </c>
       <c r="B164" s="27" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -3084,7 +3078,7 @@
         <v>79</v>
       </c>
       <c r="B165" s="27" t="s">
-        <v>171</v>
+        <v>168</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3092,7 +3086,7 @@
         <v>80</v>
       </c>
       <c r="B166" s="28" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3101,7 +3095,7 @@
         <v>65</v>
       </c>
       <c r="B168" s="25" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -3115,7 +3109,7 @@
         <v>67</v>
       </c>
       <c r="B170" s="27" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -3123,7 +3117,7 @@
         <v>68</v>
       </c>
       <c r="B171" s="27" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -3131,7 +3125,7 @@
         <v>109</v>
       </c>
       <c r="B172" s="27" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -3139,7 +3133,7 @@
         <v>110</v>
       </c>
       <c r="B173" s="27" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -3147,7 +3141,7 @@
         <v>69</v>
       </c>
       <c r="B174" s="27" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -3155,7 +3149,7 @@
         <v>70</v>
       </c>
       <c r="B175" s="27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -3163,7 +3157,7 @@
         <v>71</v>
       </c>
       <c r="B176" s="27" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -3177,7 +3171,7 @@
         <v>74</v>
       </c>
       <c r="B178" s="27" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -3185,7 +3179,7 @@
         <v>76</v>
       </c>
       <c r="B179" s="27" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -3193,7 +3187,7 @@
         <v>77</v>
       </c>
       <c r="B180" s="27" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -3201,7 +3195,7 @@
         <v>78</v>
       </c>
       <c r="B181" s="27" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3214,7 +3208,7 @@
         <v>65</v>
       </c>
       <c r="B184" s="25" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -3228,7 +3222,7 @@
         <v>67</v>
       </c>
       <c r="B186" s="27" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -3236,7 +3230,7 @@
         <v>68</v>
       </c>
       <c r="B187" s="27" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -3244,7 +3238,7 @@
         <v>69</v>
       </c>
       <c r="B188" s="27" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -3252,7 +3246,7 @@
         <v>71</v>
       </c>
       <c r="B189" s="27" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -3266,7 +3260,7 @@
         <v>74</v>
       </c>
       <c r="B191" s="27" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3274,7 +3268,7 @@
         <v>76</v>
       </c>
       <c r="B192" s="28" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3283,7 +3277,7 @@
         <v>65</v>
       </c>
       <c r="B194" s="25" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -3297,7 +3291,7 @@
         <v>67</v>
       </c>
       <c r="B196" s="27" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -3305,7 +3299,7 @@
         <v>68</v>
       </c>
       <c r="B197" s="27" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -3313,7 +3307,7 @@
         <v>109</v>
       </c>
       <c r="B198" s="27" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -3321,7 +3315,7 @@
         <v>110</v>
       </c>
       <c r="B199" s="27" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -3329,7 +3323,7 @@
         <v>69</v>
       </c>
       <c r="B200" s="27" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -3337,7 +3331,7 @@
         <v>70</v>
       </c>
       <c r="B201" s="27" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -3345,7 +3339,7 @@
         <v>71</v>
       </c>
       <c r="B202" s="27" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -3359,7 +3353,7 @@
         <v>74</v>
       </c>
       <c r="B204" s="27" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -3367,7 +3361,7 @@
         <v>76</v>
       </c>
       <c r="B205" s="27" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -3378,10 +3372,10 @@
     </row>
     <row r="207" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="35" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B207" s="28" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/USE_CASE_LEVEZETES.xlsx
+++ b/USE_CASE_LEVEZETES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goczi\Desktop\5. félév\Szoftvertechnológia\repo\SzoftTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8714A5DA-EA67-45F6-B2A9-77E3B936E4AA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2878586-A8E1-46E5-AC67-B967B4038CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6825" yWindow="1500" windowWidth="28800" windowHeight="10710" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -281,9 +281,6 @@
     <t>1.</t>
   </si>
   <si>
-    <t>Külső adatbázis</t>
-  </si>
-  <si>
     <t>2.</t>
   </si>
   <si>
@@ -699,6 +696,9 @@
   </si>
   <si>
     <t>Az orvos megtekinti a beteg receptjeit.</t>
+  </si>
+  <si>
+    <t>A rendszer kiírja az orvoshoz tartozó betegek listáját</t>
   </si>
 </sst>
 </file>
@@ -1759,8 +1759,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B63" sqref="B63"/>
+    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D68" sqref="D68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1781,7 +1781,7 @@
         <v>65</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1795,7 +1795,7 @@
         <v>67</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1803,23 +1803,23 @@
         <v>68</v>
       </c>
       <c r="B4" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1827,7 +1827,7 @@
         <v>69</v>
       </c>
       <c r="B7" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
@@ -1835,7 +1835,7 @@
         <v>70</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1843,7 +1843,7 @@
         <v>71</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1857,31 +1857,31 @@
         <v>74</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1892,19 +1892,19 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D16" s="39"/>
     </row>
     <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D17" s="39"/>
     </row>
@@ -1919,7 +1919,7 @@
         <v>65</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
@@ -1937,7 +1937,7 @@
         <v>67</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D21" s="39"/>
       <c r="E21" s="39"/>
@@ -1947,27 +1947,27 @@
         <v>68</v>
       </c>
       <c r="B22" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="D22" s="39"/>
       <c r="E22" s="39"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="39"/>
@@ -1977,7 +1977,7 @@
         <v>69</v>
       </c>
       <c r="B25" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
@@ -1987,7 +1987,7 @@
         <v>70</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D26" s="39"/>
       <c r="E26" s="39"/>
@@ -1997,7 +1997,7 @@
         <v>71</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D27" s="39"/>
       <c r="E27" s="39"/>
@@ -2015,37 +2015,37 @@
         <v>74</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D29" s="39"/>
       <c r="E29" s="39"/>
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D30" s="39"/>
       <c r="E30" s="39"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
@@ -2060,20 +2060,20 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="D34" s="39"/>
       <c r="E34" s="39"/>
     </row>
     <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="D35" s="39"/>
       <c r="E35" s="39"/>
@@ -2088,7 +2088,7 @@
         <v>65</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G37" s="36"/>
     </row>
@@ -2104,7 +2104,7 @@
         <v>67</v>
       </c>
       <c r="B39" s="27" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G39" s="36"/>
     </row>
@@ -2113,25 +2113,25 @@
         <v>68</v>
       </c>
       <c r="B40" s="27" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G40" s="36"/>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B41" s="27" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="G41" s="36"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G42" s="36"/>
     </row>
@@ -2140,7 +2140,7 @@
         <v>69</v>
       </c>
       <c r="B43" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G43" s="36"/>
     </row>
@@ -2149,7 +2149,7 @@
         <v>70</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="G44" s="36"/>
     </row>
@@ -2158,7 +2158,7 @@
         <v>71</v>
       </c>
       <c r="B45" s="27" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G45" s="36"/>
     </row>
@@ -2174,47 +2174,47 @@
         <v>74</v>
       </c>
       <c r="B47" s="27" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2225,18 +2225,18 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2245,7 +2245,7 @@
         <v>65</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2259,7 +2259,7 @@
         <v>67</v>
       </c>
       <c r="B59" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.25">
@@ -2267,23 +2267,23 @@
         <v>68</v>
       </c>
       <c r="B60" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B62" s="27" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2291,7 +2291,7 @@
         <v>69</v>
       </c>
       <c r="B63" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.25">
@@ -2299,7 +2299,7 @@
         <v>70</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2307,7 +2307,7 @@
         <v>71</v>
       </c>
       <c r="B65" s="27" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.25">
@@ -2321,31 +2321,31 @@
         <v>74</v>
       </c>
       <c r="B67" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>93</v>
+        <v>214</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B69" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B70" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.25">
@@ -2356,18 +2356,18 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="34" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B72" s="27" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B73" s="27" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="74" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2381,7 +2381,7 @@
         <v>65</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D75" s="39"/>
       <c r="E75" s="39"/>
@@ -2399,7 +2399,7 @@
         <v>67</v>
       </c>
       <c r="B77" s="27" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D77" s="39"/>
       <c r="E77" s="39"/>
@@ -2409,27 +2409,27 @@
         <v>68</v>
       </c>
       <c r="B78" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D78" s="39"/>
       <c r="E78" s="39"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D79" s="39"/>
       <c r="E79" s="39"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="D80" s="39"/>
       <c r="E80" s="39"/>
@@ -2439,7 +2439,7 @@
         <v>69</v>
       </c>
       <c r="B81" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D81" s="39"/>
       <c r="E81" s="39"/>
@@ -2449,7 +2449,7 @@
         <v>70</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>75</v>
+        <v>157</v>
       </c>
       <c r="D82" s="39"/>
       <c r="E82" s="39"/>
@@ -2459,7 +2459,7 @@
         <v>71</v>
       </c>
       <c r="B83" s="27" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D83" s="39"/>
       <c r="E83" s="39"/>
@@ -2477,17 +2477,17 @@
         <v>74</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="D85" s="39"/>
       <c r="E85" s="39"/>
     </row>
     <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="24" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B86" s="27" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="D86" s="39"/>
       <c r="E86" s="39"/>
@@ -2502,20 +2502,20 @@
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B88" s="27" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D88" s="39"/>
       <c r="E88" s="39"/>
     </row>
     <row r="89" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="35" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B89" s="28" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="D89" s="39"/>
       <c r="E89" s="39"/>
@@ -2535,7 +2535,7 @@
         <v>65</v>
       </c>
       <c r="B92" s="25" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="93" spans="1:5" x14ac:dyDescent="0.25">
@@ -2549,7 +2549,7 @@
         <v>67</v>
       </c>
       <c r="B94" s="27" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
     </row>
     <row r="95" spans="1:5" x14ac:dyDescent="0.25">
@@ -2557,23 +2557,23 @@
         <v>68</v>
       </c>
       <c r="B95" s="27" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B96" s="27" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2581,7 +2581,7 @@
         <v>69</v>
       </c>
       <c r="B98" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.25">
@@ -2589,7 +2589,7 @@
         <v>70</v>
       </c>
       <c r="B99" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2597,7 +2597,7 @@
         <v>71</v>
       </c>
       <c r="B100" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2611,47 +2611,47 @@
         <v>74</v>
       </c>
       <c r="B102" s="27" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B103" s="27" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B104" s="27" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B105" s="27" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="34" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B106" s="27" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="34" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B107" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2662,34 +2662,34 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="34" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="34" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2701,7 +2701,7 @@
         <v>65</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2715,7 +2715,7 @@
         <v>67</v>
       </c>
       <c r="B116" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2723,23 +2723,23 @@
         <v>68</v>
       </c>
       <c r="B117" s="27" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B118" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -2747,15 +2747,15 @@
         <v>69</v>
       </c>
       <c r="B120" s="27" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="33" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -2763,7 +2763,7 @@
         <v>71</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2777,31 +2777,31 @@
         <v>74</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B126" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2812,34 +2812,34 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B129" s="27" t="s">
         <v>164</v>
-      </c>
-      <c r="B129" s="27" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="B130" s="27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B131" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B132" s="28" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2851,7 +2851,7 @@
         <v>65</v>
       </c>
       <c r="B134" s="25" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2865,7 +2865,7 @@
         <v>67</v>
       </c>
       <c r="B136" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2873,23 +2873,23 @@
         <v>68</v>
       </c>
       <c r="B137" s="27" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B138" s="27" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B139" s="27" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -2897,7 +2897,7 @@
         <v>69</v>
       </c>
       <c r="B140" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -2905,7 +2905,7 @@
         <v>70</v>
       </c>
       <c r="B141" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -2913,7 +2913,7 @@
         <v>71</v>
       </c>
       <c r="B142" s="27" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -2927,15 +2927,15 @@
         <v>74</v>
       </c>
       <c r="B144" s="27" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B145" s="27" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -2948,7 +2948,7 @@
         <v>65</v>
       </c>
       <c r="B148" s="25" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -2962,7 +2962,7 @@
         <v>67</v>
       </c>
       <c r="B150" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -2970,23 +2970,23 @@
         <v>68</v>
       </c>
       <c r="B151" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B152" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B153" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -2994,7 +2994,7 @@
         <v>69</v>
       </c>
       <c r="B154" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -3002,7 +3002,7 @@
         <v>70</v>
       </c>
       <c r="B155" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -3010,7 +3010,7 @@
         <v>71</v>
       </c>
       <c r="B156" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -3024,31 +3024,31 @@
         <v>74</v>
       </c>
       <c r="B158" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B159" s="27" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B160" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B161" s="27" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -3059,34 +3059,34 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="34" t="s">
+        <v>163</v>
+      </c>
+      <c r="B163" s="27" t="s">
         <v>164</v>
-      </c>
-      <c r="B163" s="27" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A164" s="34" t="s">
+        <v>165</v>
+      </c>
+      <c r="B164" s="27" t="s">
         <v>166</v>
-      </c>
-      <c r="B164" s="27" t="s">
-        <v>167</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="34" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B165" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="35" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="B166" s="28" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3095,7 +3095,7 @@
         <v>65</v>
       </c>
       <c r="B168" s="25" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -3109,7 +3109,7 @@
         <v>67</v>
       </c>
       <c r="B170" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -3117,23 +3117,23 @@
         <v>68</v>
       </c>
       <c r="B171" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B172" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B173" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -3141,7 +3141,7 @@
         <v>69</v>
       </c>
       <c r="B174" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -3149,7 +3149,7 @@
         <v>70</v>
       </c>
       <c r="B175" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -3157,7 +3157,7 @@
         <v>71</v>
       </c>
       <c r="B176" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -3171,31 +3171,31 @@
         <v>74</v>
       </c>
       <c r="B178" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B179" s="27" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="34" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B180" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="34" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B181" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3208,7 +3208,7 @@
         <v>65</v>
       </c>
       <c r="B184" s="25" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -3222,7 +3222,7 @@
         <v>67</v>
       </c>
       <c r="B186" s="27" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -3230,7 +3230,7 @@
         <v>68</v>
       </c>
       <c r="B187" s="27" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -3238,7 +3238,7 @@
         <v>69</v>
       </c>
       <c r="B188" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -3246,7 +3246,7 @@
         <v>71</v>
       </c>
       <c r="B189" s="27" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -3260,15 +3260,15 @@
         <v>74</v>
       </c>
       <c r="B191" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A192" s="41" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B192" s="28" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3277,7 +3277,7 @@
         <v>65</v>
       </c>
       <c r="B194" s="25" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -3291,7 +3291,7 @@
         <v>67</v>
       </c>
       <c r="B196" s="27" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -3299,23 +3299,23 @@
         <v>68</v>
       </c>
       <c r="B197" s="27" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="32" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B198" s="27" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="32" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B199" s="27" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -3323,7 +3323,7 @@
         <v>69</v>
       </c>
       <c r="B200" s="27" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -3331,7 +3331,7 @@
         <v>70</v>
       </c>
       <c r="B201" s="27" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -3339,7 +3339,7 @@
         <v>71</v>
       </c>
       <c r="B202" s="27" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -3353,15 +3353,15 @@
         <v>74</v>
       </c>
       <c r="B204" s="27" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="34" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B205" s="27" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -3372,10 +3372,10 @@
     </row>
     <row r="207" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="35" t="s">
+        <v>207</v>
+      </c>
+      <c r="B207" s="28" t="s">
         <v>208</v>
-      </c>
-      <c r="B207" s="28" t="s">
-        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/USE_CASE_LEVEZETES.xlsx
+++ b/USE_CASE_LEVEZETES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goczi\Desktop\5. félév\Szoftvertechnológia\repo\SzoftTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C2878586-A8E1-46E5-AC67-B967B4038CA4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F56889-56AD-4B2B-9D7B-5C159EB129AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6825" yWindow="1500" windowWidth="28800" windowHeight="10710" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="213">
   <si>
     <t>Use case name</t>
   </si>
@@ -363,12 +363,6 @@
   </si>
   <si>
     <t>2.2</t>
-  </si>
-  <si>
-    <t>Adatbázis nem elérhető</t>
-  </si>
-  <si>
-    <t>A rendszer jelzi, hogy nem elérhető az adatbázis</t>
   </si>
   <si>
     <t>Az beteg utasítást ad a rendszernek, hogy meg akarja nézni a receptjeit.</t>
@@ -1759,8 +1753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G207"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A58" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D68" sqref="D68"/>
+    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D88" sqref="D88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1781,7 +1775,7 @@
         <v>65</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1795,7 +1789,7 @@
         <v>67</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1808,18 +1802,18 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1843,7 +1837,7 @@
         <v>71</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1857,7 +1851,7 @@
         <v>74</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1865,7 +1859,7 @@
         <v>75</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1873,7 +1867,7 @@
         <v>76</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1881,7 +1875,7 @@
         <v>77</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1895,7 +1889,7 @@
         <v>78</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D16" s="39"/>
     </row>
@@ -1904,7 +1898,7 @@
         <v>79</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D17" s="39"/>
     </row>
@@ -1919,7 +1913,7 @@
         <v>65</v>
       </c>
       <c r="B19" s="25" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
@@ -1937,7 +1931,7 @@
         <v>67</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D21" s="39"/>
       <c r="E21" s="39"/>
@@ -1954,20 +1948,20 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="39"/>
@@ -1997,7 +1991,7 @@
         <v>71</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D27" s="39"/>
       <c r="E27" s="39"/>
@@ -2015,7 +2009,7 @@
         <v>74</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D29" s="39"/>
       <c r="E29" s="39"/>
@@ -2025,7 +2019,7 @@
         <v>75</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D30" s="39"/>
       <c r="E30" s="39"/>
@@ -2035,7 +2029,7 @@
         <v>76</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
@@ -2045,7 +2039,7 @@
         <v>77</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
@@ -2063,7 +2057,7 @@
         <v>101</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D34" s="39"/>
       <c r="E34" s="39"/>
@@ -2073,7 +2067,7 @@
         <v>102</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D35" s="39"/>
       <c r="E35" s="39"/>
@@ -2088,7 +2082,7 @@
         <v>65</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="G37" s="36"/>
     </row>
@@ -2119,19 +2113,19 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B41" s="27" t="s">
         <v>108</v>
-      </c>
-      <c r="B41" s="27" t="s">
-        <v>110</v>
       </c>
       <c r="G41" s="36"/>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="G42" s="36"/>
     </row>
@@ -2182,7 +2176,7 @@
         <v>75</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2190,7 +2184,7 @@
         <v>76</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2198,7 +2192,7 @@
         <v>77</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2206,7 +2200,7 @@
         <v>99</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2214,7 +2208,7 @@
         <v>100</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2228,7 +2222,7 @@
         <v>101</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2236,7 +2230,7 @@
         <v>102</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2245,7 +2239,7 @@
         <v>65</v>
       </c>
       <c r="B57" s="25" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.25">
@@ -2272,18 +2266,18 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B62" s="27" t="s">
         <v>109</v>
-      </c>
-      <c r="B62" s="27" t="s">
-        <v>111</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.25">
@@ -2299,7 +2293,7 @@
         <v>70</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2329,7 +2323,7 @@
         <v>75</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2356,7 +2350,7 @@
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="34" t="s">
-        <v>163</v>
+        <v>101</v>
       </c>
       <c r="B72" s="27" t="s">
         <v>95</v>
@@ -2364,7 +2358,7 @@
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="34" t="s">
-        <v>165</v>
+        <v>102</v>
       </c>
       <c r="B73" s="27" t="s">
         <v>96</v>
@@ -2381,7 +2375,7 @@
         <v>65</v>
       </c>
       <c r="B75" s="25" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="D75" s="39"/>
       <c r="E75" s="39"/>
@@ -2416,20 +2410,20 @@
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B79" s="27" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D79" s="39"/>
       <c r="E79" s="39"/>
     </row>
     <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B80" s="27" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D80" s="39"/>
       <c r="E80" s="39"/>
@@ -2449,7 +2443,7 @@
         <v>70</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D82" s="39"/>
       <c r="E82" s="39"/>
@@ -2477,7 +2471,7 @@
         <v>74</v>
       </c>
       <c r="B85" s="27" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D85" s="39"/>
       <c r="E85" s="39"/>
@@ -2501,22 +2495,14 @@
       <c r="E87" s="39"/>
     </row>
     <row r="88" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A88" s="34" t="s">
-        <v>101</v>
-      </c>
-      <c r="B88" s="27" t="s">
-        <v>103</v>
-      </c>
+      <c r="A88" s="34"/>
+      <c r="B88" s="27"/>
       <c r="D88" s="39"/>
       <c r="E88" s="39"/>
     </row>
     <row r="89" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A89" s="35" t="s">
-        <v>102</v>
-      </c>
-      <c r="B89" s="28" t="s">
-        <v>104</v>
-      </c>
+      <c r="A89" s="35"/>
+      <c r="B89" s="28"/>
       <c r="D89" s="39"/>
       <c r="E89" s="39"/>
     </row>
@@ -2562,18 +2548,18 @@
     </row>
     <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B96" s="27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2597,7 +2583,7 @@
         <v>71</v>
       </c>
       <c r="B100" s="27" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2643,7 +2629,7 @@
         <v>99</v>
       </c>
       <c r="B106" s="27" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2651,7 +2637,7 @@
         <v>100</v>
       </c>
       <c r="B107" s="27" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2665,7 +2651,7 @@
         <v>101</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2673,7 +2659,7 @@
         <v>102</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2681,7 +2667,7 @@
         <v>78</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2689,7 +2675,7 @@
         <v>79</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2701,7 +2687,7 @@
         <v>65</v>
       </c>
       <c r="B114" s="25" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.25">
@@ -2715,7 +2701,7 @@
         <v>67</v>
       </c>
       <c r="B116" s="27" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2728,18 +2714,18 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B118" s="27" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B119" s="27" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.25">
@@ -2752,7 +2738,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="33" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B121" s="27" t="s">
         <v>81</v>
@@ -2763,7 +2749,7 @@
         <v>71</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2777,7 +2763,7 @@
         <v>74</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2785,7 +2771,7 @@
         <v>75</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2793,7 +2779,7 @@
         <v>76</v>
       </c>
       <c r="B126" s="27" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2801,7 +2787,7 @@
         <v>77</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2812,18 +2798,18 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="34" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B129" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="34" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B130" s="27" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2831,7 +2817,7 @@
         <v>78</v>
       </c>
       <c r="B131" s="27" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2839,7 +2825,7 @@
         <v>79</v>
       </c>
       <c r="B132" s="28" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2851,7 +2837,7 @@
         <v>65</v>
       </c>
       <c r="B134" s="25" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2865,7 +2851,7 @@
         <v>67</v>
       </c>
       <c r="B136" s="27" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2873,23 +2859,23 @@
         <v>68</v>
       </c>
       <c r="B137" s="27" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B138" s="27" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B139" s="27" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -2897,7 +2883,7 @@
         <v>69</v>
       </c>
       <c r="B140" s="27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -2905,7 +2891,7 @@
         <v>70</v>
       </c>
       <c r="B141" s="27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -2913,7 +2899,7 @@
         <v>71</v>
       </c>
       <c r="B142" s="27" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -2927,7 +2913,7 @@
         <v>74</v>
       </c>
       <c r="B144" s="27" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -2935,7 +2921,7 @@
         <v>75</v>
       </c>
       <c r="B145" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -2948,7 +2934,7 @@
         <v>65</v>
       </c>
       <c r="B148" s="25" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="149" spans="1:2" x14ac:dyDescent="0.25">
@@ -2962,7 +2948,7 @@
         <v>67</v>
       </c>
       <c r="B150" s="27" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -2970,23 +2956,23 @@
         <v>68</v>
       </c>
       <c r="B151" s="27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B152" s="27" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B153" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -2994,7 +2980,7 @@
         <v>69</v>
       </c>
       <c r="B154" s="27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -3002,7 +2988,7 @@
         <v>70</v>
       </c>
       <c r="B155" s="27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -3010,7 +2996,7 @@
         <v>71</v>
       </c>
       <c r="B156" s="27" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -3024,7 +3010,7 @@
         <v>74</v>
       </c>
       <c r="B158" s="27" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -3032,7 +3018,7 @@
         <v>75</v>
       </c>
       <c r="B159" s="27" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -3040,7 +3026,7 @@
         <v>76</v>
       </c>
       <c r="B160" s="27" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -3048,7 +3034,7 @@
         <v>77</v>
       </c>
       <c r="B161" s="27" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -3059,18 +3045,18 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="34" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B163" s="27" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A164" s="34" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="B164" s="27" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -3078,7 +3064,7 @@
         <v>78</v>
       </c>
       <c r="B165" s="27" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3086,7 +3072,7 @@
         <v>79</v>
       </c>
       <c r="B166" s="28" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3095,7 +3081,7 @@
         <v>65</v>
       </c>
       <c r="B168" s="25" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.25">
@@ -3109,7 +3095,7 @@
         <v>67</v>
       </c>
       <c r="B170" s="27" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -3117,23 +3103,23 @@
         <v>68</v>
       </c>
       <c r="B171" s="27" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B172" s="27" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B173" s="27" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -3141,7 +3127,7 @@
         <v>69</v>
       </c>
       <c r="B174" s="27" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -3149,7 +3135,7 @@
         <v>70</v>
       </c>
       <c r="B175" s="27" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -3157,7 +3143,7 @@
         <v>71</v>
       </c>
       <c r="B176" s="27" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -3171,7 +3157,7 @@
         <v>74</v>
       </c>
       <c r="B178" s="27" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -3179,7 +3165,7 @@
         <v>75</v>
       </c>
       <c r="B179" s="27" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -3187,7 +3173,7 @@
         <v>76</v>
       </c>
       <c r="B180" s="27" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -3195,7 +3181,7 @@
         <v>77</v>
       </c>
       <c r="B181" s="27" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3208,7 +3194,7 @@
         <v>65</v>
       </c>
       <c r="B184" s="25" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -3222,7 +3208,7 @@
         <v>67</v>
       </c>
       <c r="B186" s="27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -3230,7 +3216,7 @@
         <v>68</v>
       </c>
       <c r="B187" s="27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -3238,7 +3224,7 @@
         <v>69</v>
       </c>
       <c r="B188" s="27" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -3246,7 +3232,7 @@
         <v>71</v>
       </c>
       <c r="B189" s="27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -3260,7 +3246,7 @@
         <v>74</v>
       </c>
       <c r="B191" s="27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="192" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3268,7 +3254,7 @@
         <v>75</v>
       </c>
       <c r="B192" s="28" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3277,7 +3263,7 @@
         <v>65</v>
       </c>
       <c r="B194" s="25" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.25">
@@ -3291,7 +3277,7 @@
         <v>67</v>
       </c>
       <c r="B196" s="27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
@@ -3299,23 +3285,23 @@
         <v>68</v>
       </c>
       <c r="B197" s="27" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="32" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B198" s="27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="32" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="B199" s="27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -3323,7 +3309,7 @@
         <v>69</v>
       </c>
       <c r="B200" s="27" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -3331,7 +3317,7 @@
         <v>70</v>
       </c>
       <c r="B201" s="27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="202" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -3339,7 +3325,7 @@
         <v>71</v>
       </c>
       <c r="B202" s="27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.25">
@@ -3353,7 +3339,7 @@
         <v>74</v>
       </c>
       <c r="B204" s="27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
@@ -3361,7 +3347,7 @@
         <v>75</v>
       </c>
       <c r="B205" s="27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.25">
@@ -3372,10 +3358,10 @@
     </row>
     <row r="207" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A207" s="35" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B207" s="28" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>

--- a/USE_CASE_LEVEZETES.xlsx
+++ b/USE_CASE_LEVEZETES.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goczi\Desktop\5. félév\Szoftvertechnológia\repo\SzoftTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20F56889-56AD-4B2B-9D7B-5C159EB129AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61EC1AF-8EA8-4098-A3C4-603546120392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="6825" yWindow="1500" windowWidth="28800" windowHeight="10710" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="213">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="212">
   <si>
     <t>Use case name</t>
   </si>
@@ -665,18 +665,6 @@
     <t>egy felhasználó a megadott billentyű lenyomásával szeretné elérni a segítség fület</t>
   </si>
   <si>
-    <t>a felhasználó megnyomja a gombot</t>
-  </si>
-  <si>
-    <t>a felület megjeleníti az ablakot</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.1 </t>
-  </si>
-  <si>
-    <t>a felület nem jeleníti meg</t>
-  </si>
-  <si>
     <t>bármilyen fellépő hiba amire azonnali visszajelzést igényelhet</t>
   </si>
   <si>
@@ -693,6 +681,15 @@
   </si>
   <si>
     <t>A rendszer kiírja az orvoshoz tartozó betegek listáját</t>
+  </si>
+  <si>
+    <t>Bármelyik felhasználó</t>
+  </si>
+  <si>
+    <t>a felhasználó segítséget szeretne kérni</t>
+  </si>
+  <si>
+    <t>Rendszer megjelenít egy használati segédletet</t>
   </si>
 </sst>
 </file>
@@ -1751,10 +1748,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G207"/>
+  <dimension ref="A1:G206"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D88" sqref="D88"/>
+    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="E202" sqref="E202"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2269,7 +2266,7 @@
         <v>106</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2323,7 +2320,7 @@
         <v>75</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2651,7 +2648,7 @@
         <v>101</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2659,7 +2656,7 @@
         <v>102</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -3165,7 +3162,7 @@
         <v>75</v>
       </c>
       <c r="B179" s="27" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -3224,144 +3221,138 @@
         <v>69</v>
       </c>
       <c r="B188" s="27" t="s">
-        <v>195</v>
+        <v>209</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="33" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="B189" s="27" t="s">
-        <v>207</v>
+        <v>155</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="33" t="s">
+        <v>71</v>
+      </c>
+      <c r="B190" s="27" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A191" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B190" s="27"/>
-    </row>
-    <row r="191" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A191" s="34" t="s">
+      <c r="B191" s="27"/>
+    </row>
+    <row r="192" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A192" s="34" t="s">
         <v>74</v>
       </c>
-      <c r="B191" s="27" t="s">
+      <c r="B192" s="27" t="s">
         <v>196</v>
       </c>
     </row>
-    <row r="192" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A192" s="41" t="s">
+    <row r="193" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A193" s="41" t="s">
         <v>75</v>
       </c>
-      <c r="B192" s="28" t="s">
+      <c r="B193" s="28" t="s">
         <v>197</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="194" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A194" s="30" t="s">
+    <row r="194" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="195" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A195" s="30" t="s">
         <v>65</v>
       </c>
-      <c r="B194" s="25" t="s">
+      <c r="B195" s="25" t="s">
         <v>183</v>
       </c>
     </row>
-    <row r="195" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A195" s="31" t="s">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A196" s="31" t="s">
         <v>66</v>
       </c>
-      <c r="B195" s="26"/>
-    </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A196" s="32" t="s">
-        <v>67</v>
-      </c>
-      <c r="B196" s="27" t="s">
-        <v>198</v>
-      </c>
+      <c r="B196" s="26"/>
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="32" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B197" s="27" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="32" t="s">
-        <v>106</v>
+        <v>68</v>
       </c>
       <c r="B198" s="27" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B199" s="27" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A200" s="32" t="s">
         <v>107</v>
       </c>
-      <c r="B199" s="27" t="s">
+      <c r="B200" s="27" t="s">
         <v>201</v>
-      </c>
-    </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A200" s="33" t="s">
-        <v>69</v>
-      </c>
-      <c r="B200" s="27" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="33" t="s">
+        <v>69</v>
+      </c>
+      <c r="B201" s="27" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A202" s="33" t="s">
         <v>70</v>
       </c>
-      <c r="B201" s="27" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="202" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
-      <c r="A202" s="33" t="s">
+      <c r="B202" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+      <c r="A203" s="33" t="s">
         <v>71</v>
       </c>
-      <c r="B202" s="27" t="s">
+      <c r="B203" s="27" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="203" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A203" s="33" t="s">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A204" s="33" t="s">
         <v>72</v>
       </c>
-      <c r="B203" s="27"/>
-    </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A204" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B204" s="27" t="s">
-        <v>203</v>
-      </c>
+      <c r="B204" s="27"/>
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="34" t="s">
+        <v>74</v>
+      </c>
+      <c r="B205" s="27" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A206" s="35" t="s">
         <v>75</v>
       </c>
-      <c r="B205" s="27" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="206" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A206" s="33" t="s">
-        <v>73</v>
-      </c>
-      <c r="B206" s="27"/>
-    </row>
-    <row r="207" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A207" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="B207" s="28" t="s">
-        <v>206</v>
+      <c r="B206" s="28" t="s">
+        <v>211</v>
       </c>
     </row>
   </sheetData>

--- a/USE_CASE_LEVEZETES.xlsx
+++ b/USE_CASE_LEVEZETES.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goczi\Desktop\5. félév\Szoftvertechnológia\repo\SzoftTech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csern\OneDrive\Dokumentumok\GitHub\SzoftTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F61EC1AF-8EA8-4098-A3C4-603546120392}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6825" yWindow="1500" windowWidth="28800" windowHeight="10710" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6828" yWindow="1500" windowWidth="28800" windowHeight="10716" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Use-case" sheetId="1" r:id="rId1"/>
@@ -26,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="432" uniqueCount="212">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="219">
   <si>
     <t>Use case name</t>
   </si>
@@ -691,11 +690,32 @@
   <si>
     <t>Rendszer megjelenít egy használati segédletet</t>
   </si>
+  <si>
+    <t>Recept megtekintése gyógyszertár felhasználóval</t>
+  </si>
+  <si>
+    <t>A gyógyszertár legyen bejelentkezve</t>
+  </si>
+  <si>
+    <t>A gyógyszertár megtekintheti a recepteket</t>
+  </si>
+  <si>
+    <t>gyógyszertár</t>
+  </si>
+  <si>
+    <t>A gyógyszertári felhasználó meg akarja tekinteni a recepteket</t>
+  </si>
+  <si>
+    <t>Az gyógyszertár utasítást ad a rendszernek, hogy meg akarja nézni a receptjeit.</t>
+  </si>
+  <si>
+    <t>Helytelen névmegadás vagy elgépelés esetén a rendszer hibát dob</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1339,21 +1359,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35.7109375" customWidth="1"/>
+    <col min="1" max="1" width="35.6640625" customWidth="1"/>
     <col min="2" max="2" width="71" customWidth="1"/>
-    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1361,7 +1381,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -1369,7 +1389,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="42" t="s">
         <v>4</v>
       </c>
@@ -1377,11 +1397,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="42"/>
       <c r="B4" s="43"/>
     </row>
-    <row r="5" spans="1:2" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
@@ -1389,7 +1409,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
@@ -1397,7 +1417,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -1405,7 +1425,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
@@ -1413,7 +1433,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -1421,7 +1441,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
@@ -1429,7 +1449,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
@@ -1437,7 +1457,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
@@ -1445,10 +1465,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="6" t="s">
         <v>0</v>
       </c>
@@ -1456,7 +1476,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="8" t="s">
         <v>2</v>
       </c>
@@ -1464,7 +1484,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="42" t="s">
         <v>4</v>
       </c>
@@ -1472,11 +1492,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="42"/>
       <c r="B17" s="43"/>
     </row>
-    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A18" s="9" t="s">
         <v>6</v>
       </c>
@@ -1484,7 +1504,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="9" t="s">
         <v>24</v>
       </c>
@@ -1492,7 +1512,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="90" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
       <c r="A20" s="11" t="s">
         <v>28</v>
       </c>
@@ -1500,7 +1520,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A21" s="11" t="s">
         <v>29</v>
       </c>
@@ -1508,7 +1528,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A22" s="11" t="s">
         <v>31</v>
       </c>
@@ -1516,7 +1536,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A23" s="11" t="s">
         <v>33</v>
       </c>
@@ -1524,7 +1544,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" ht="87" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="12" t="s">
         <v>19</v>
       </c>
@@ -1532,11 +1552,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="6" t="s">
         <v>0</v>
       </c>
@@ -1544,7 +1564,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="8" t="s">
         <v>2</v>
       </c>
@@ -1552,7 +1572,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="42" t="s">
         <v>4</v>
       </c>
@@ -1560,11 +1580,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="0.6" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" ht="0.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A29" s="42"/>
       <c r="B29" s="43"/>
     </row>
-    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="9" t="s">
         <v>6</v>
       </c>
@@ -1572,7 +1592,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A31" s="9" t="s">
         <v>24</v>
       </c>
@@ -1580,7 +1600,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A32" s="11" t="s">
         <v>41</v>
       </c>
@@ -1588,7 +1608,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="11" t="s">
         <v>43</v>
       </c>
@@ -1596,7 +1616,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A34" s="11" t="s">
         <v>19</v>
       </c>
@@ -1604,7 +1624,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="12" t="s">
         <v>46</v>
       </c>
@@ -1612,11 +1632,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="6" t="s">
         <v>0</v>
       </c>
@@ -1624,7 +1644,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="8" t="s">
         <v>2</v>
       </c>
@@ -1632,7 +1652,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="42" t="s">
         <v>4</v>
       </c>
@@ -1640,11 +1660,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="42"/>
       <c r="B40" s="43"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="9" t="s">
         <v>6</v>
       </c>
@@ -1652,7 +1672,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A42" s="9" t="s">
         <v>24</v>
       </c>
@@ -1660,7 +1680,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A43" s="11" t="s">
         <v>52</v>
       </c>
@@ -1668,7 +1688,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="11" t="s">
         <v>54</v>
       </c>
@@ -1676,7 +1696,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A45" s="11" t="s">
         <v>57</v>
       </c>
@@ -1684,7 +1704,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="45" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A46" s="11" t="s">
         <v>19</v>
       </c>
@@ -1692,7 +1712,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="11" t="s">
         <v>60</v>
       </c>
@@ -1700,7 +1720,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="11" t="s">
         <v>61</v>
       </c>
@@ -1708,7 +1728,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="13" t="s">
         <v>63</v>
       </c>
@@ -1716,18 +1736,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="17"/>
       <c r="B50" s="18"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="16"/>
       <c r="B52" s="1"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="B56" s="15"/>
     </row>
   </sheetData>
@@ -1747,27 +1767,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:G206"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G222"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A178" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="E202" sqref="E202"/>
+    <sheetView tabSelected="1" topLeftCell="A201" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="D206" sqref="D206"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.28515625" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.140625" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.140625" style="19"/>
-    <col min="4" max="4" width="19.7109375" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.28515625" style="19" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="19"/>
-    <col min="7" max="7" width="37.85546875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="17.33203125" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.109375" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.109375" style="19"/>
+    <col min="4" max="4" width="19.6640625" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.33203125" style="19" customWidth="1"/>
+    <col min="6" max="6" width="9.109375" style="19"/>
+    <col min="7" max="7" width="37.88671875" style="19" customWidth="1"/>
     <col min="8" max="8" width="52" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="19"/>
+    <col min="9" max="16384" width="9.109375" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="30" t="s">
         <v>65</v>
       </c>
@@ -1775,13 +1795,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="26"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="32" t="s">
         <v>67</v>
       </c>
@@ -1789,7 +1809,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" s="32" t="s">
         <v>68</v>
       </c>
@@ -1797,7 +1817,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" s="32" t="s">
         <v>106</v>
       </c>
@@ -1805,7 +1825,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="32" t="s">
         <v>107</v>
       </c>
@@ -1813,7 +1833,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="33" t="s">
         <v>69</v>
       </c>
@@ -1821,7 +1841,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="33" t="s">
         <v>70</v>
       </c>
@@ -1829,7 +1849,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" s="33" t="s">
         <v>71</v>
       </c>
@@ -1837,13 +1857,13 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" s="34" t="s">
         <v>74</v>
       </c>
@@ -1851,7 +1871,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="34" t="s">
         <v>75</v>
       </c>
@@ -1859,7 +1879,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="34" t="s">
         <v>76</v>
       </c>
@@ -1867,7 +1887,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A14" s="34" t="s">
         <v>77</v>
       </c>
@@ -1875,13 +1895,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B15" s="27"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" s="34" t="s">
         <v>78</v>
       </c>
@@ -1890,7 +1910,7 @@
       </c>
       <c r="D16" s="39"/>
     </row>
-    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="35" t="s">
         <v>79</v>
       </c>
@@ -1899,13 +1919,13 @@
       </c>
       <c r="D17" s="39"/>
     </row>
-    <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="38"/>
       <c r="B18" s="39"/>
       <c r="D18" s="39"/>
       <c r="E18" s="39"/>
     </row>
-    <row r="19" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="30" t="s">
         <v>65</v>
       </c>
@@ -1915,7 +1935,7 @@
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A20" s="31" t="s">
         <v>66</v>
       </c>
@@ -1923,7 +1943,7 @@
       <c r="D20" s="39"/>
       <c r="E20" s="39"/>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A21" s="32" t="s">
         <v>67</v>
       </c>
@@ -1933,7 +1953,7 @@
       <c r="D21" s="39"/>
       <c r="E21" s="39"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A22" s="32" t="s">
         <v>68</v>
       </c>
@@ -1943,7 +1963,7 @@
       <c r="D22" s="39"/>
       <c r="E22" s="39"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A23" s="32" t="s">
         <v>106</v>
       </c>
@@ -1953,7 +1973,7 @@
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A24" s="32" t="s">
         <v>107</v>
       </c>
@@ -1963,7 +1983,7 @@
       <c r="D24" s="39"/>
       <c r="E24" s="39"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A25" s="33" t="s">
         <v>69</v>
       </c>
@@ -1973,7 +1993,7 @@
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A26" s="33" t="s">
         <v>70</v>
       </c>
@@ -1983,7 +2003,7 @@
       <c r="D26" s="39"/>
       <c r="E26" s="39"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A27" s="33" t="s">
         <v>71</v>
       </c>
@@ -1993,7 +2013,7 @@
       <c r="D27" s="39"/>
       <c r="E27" s="39"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A28" s="33" t="s">
         <v>72</v>
       </c>
@@ -2001,7 +2021,7 @@
       <c r="D28" s="39"/>
       <c r="E28" s="39"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A29" s="34" t="s">
         <v>74</v>
       </c>
@@ -2011,7 +2031,7 @@
       <c r="D29" s="39"/>
       <c r="E29" s="39"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A30" s="34" t="s">
         <v>75</v>
       </c>
@@ -2021,7 +2041,7 @@
       <c r="D30" s="39"/>
       <c r="E30" s="39"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A31" s="34" t="s">
         <v>76</v>
       </c>
@@ -2031,7 +2051,7 @@
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A32" s="34" t="s">
         <v>77</v>
       </c>
@@ -2041,7 +2061,7 @@
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A33" s="33" t="s">
         <v>73</v>
       </c>
@@ -2049,7 +2069,7 @@
       <c r="D33" s="39"/>
       <c r="E33" s="39"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A34" s="34" t="s">
         <v>101</v>
       </c>
@@ -2059,7 +2079,7 @@
       <c r="D34" s="39"/>
       <c r="E34" s="39"/>
     </row>
-    <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="35" t="s">
         <v>102</v>
       </c>
@@ -2069,12 +2089,12 @@
       <c r="D35" s="39"/>
       <c r="E35" s="39"/>
     </row>
-    <row r="36" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="D36" s="39"/>
     </row>
-    <row r="37" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="30" t="s">
         <v>65</v>
       </c>
@@ -2083,14 +2103,14 @@
       </c>
       <c r="G37" s="36"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A38" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B38" s="26"/>
       <c r="G38" s="36"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A39" s="32" t="s">
         <v>67</v>
       </c>
@@ -2099,7 +2119,7 @@
       </c>
       <c r="G39" s="36"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A40" s="32" t="s">
         <v>68</v>
       </c>
@@ -2108,7 +2128,7 @@
       </c>
       <c r="G40" s="36"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A41" s="32" t="s">
         <v>106</v>
       </c>
@@ -2117,7 +2137,7 @@
       </c>
       <c r="G41" s="36"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A42" s="32" t="s">
         <v>107</v>
       </c>
@@ -2126,7 +2146,7 @@
       </c>
       <c r="G42" s="36"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A43" s="33" t="s">
         <v>69</v>
       </c>
@@ -2135,7 +2155,7 @@
       </c>
       <c r="G43" s="36"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A44" s="33" t="s">
         <v>70</v>
       </c>
@@ -2144,7 +2164,7 @@
       </c>
       <c r="G44" s="36"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A45" s="33" t="s">
         <v>71</v>
       </c>
@@ -2153,14 +2173,14 @@
       </c>
       <c r="G45" s="36"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A46" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B46" s="27"/>
       <c r="G46" s="36"/>
     </row>
-    <row r="47" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A47" s="34" t="s">
         <v>74</v>
       </c>
@@ -2168,7 +2188,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A48" s="34" t="s">
         <v>75</v>
       </c>
@@ -2176,7 +2196,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="34" t="s">
         <v>76</v>
       </c>
@@ -2184,7 +2204,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="34" t="s">
         <v>77</v>
       </c>
@@ -2192,7 +2212,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="34" t="s">
         <v>99</v>
       </c>
@@ -2200,7 +2220,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="34" t="s">
         <v>100</v>
       </c>
@@ -2208,13 +2228,13 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B53" s="27"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="34" t="s">
         <v>101</v>
       </c>
@@ -2222,7 +2242,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A55" s="35" t="s">
         <v>102</v>
       </c>
@@ -2230,8 +2250,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="57" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="57" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A57" s="30" t="s">
         <v>65</v>
       </c>
@@ -2239,13 +2259,13 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B58" s="26"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="32" t="s">
         <v>67</v>
       </c>
@@ -2253,7 +2273,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="32" t="s">
         <v>68</v>
       </c>
@@ -2261,7 +2281,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="32" t="s">
         <v>106</v>
       </c>
@@ -2269,7 +2289,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="32" t="s">
         <v>107</v>
       </c>
@@ -2277,7 +2297,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="33" t="s">
         <v>69</v>
       </c>
@@ -2285,7 +2305,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="33" t="s">
         <v>70</v>
       </c>
@@ -2293,7 +2313,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="33" t="s">
         <v>71</v>
       </c>
@@ -2301,13 +2321,13 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B66" s="27"/>
     </row>
-    <row r="67" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A67" s="34" t="s">
         <v>74</v>
       </c>
@@ -2315,7 +2335,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="34" t="s">
         <v>75</v>
       </c>
@@ -2323,7 +2343,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="34" t="s">
         <v>76</v>
       </c>
@@ -2331,7 +2351,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="34" t="s">
         <v>77</v>
       </c>
@@ -2339,13 +2359,13 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B71" s="27"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="34" t="s">
         <v>101</v>
       </c>
@@ -2353,7 +2373,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="34" t="s">
         <v>102</v>
       </c>
@@ -2361,13 +2381,13 @@
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A74" s="38"/>
       <c r="B74" s="39"/>
       <c r="D74" s="39"/>
       <c r="E74" s="39"/>
     </row>
-    <row r="75" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A75" s="25" t="s">
         <v>65</v>
       </c>
@@ -2377,7 +2397,7 @@
       <c r="D75" s="39"/>
       <c r="E75" s="39"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A76" s="23" t="s">
         <v>66</v>
       </c>
@@ -2385,7 +2405,7 @@
       <c r="D76" s="39"/>
       <c r="E76" s="39"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A77" s="29" t="s">
         <v>67</v>
       </c>
@@ -2395,7 +2415,7 @@
       <c r="D77" s="39"/>
       <c r="E77" s="39"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="29" t="s">
         <v>68</v>
       </c>
@@ -2405,7 +2425,7 @@
       <c r="D78" s="39"/>
       <c r="E78" s="39"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="32" t="s">
         <v>106</v>
       </c>
@@ -2415,7 +2435,7 @@
       <c r="D79" s="39"/>
       <c r="E79" s="39"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A80" s="32" t="s">
         <v>107</v>
       </c>
@@ -2425,7 +2445,7 @@
       <c r="D80" s="39"/>
       <c r="E80" s="39"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A81" s="22" t="s">
         <v>69</v>
       </c>
@@ -2435,7 +2455,7 @@
       <c r="D81" s="39"/>
       <c r="E81" s="39"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A82" s="22" t="s">
         <v>70</v>
       </c>
@@ -2445,7 +2465,7 @@
       <c r="D82" s="39"/>
       <c r="E82" s="39"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A83" s="22" t="s">
         <v>71</v>
       </c>
@@ -2455,7 +2475,7 @@
       <c r="D83" s="39"/>
       <c r="E83" s="39"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A84" s="22" t="s">
         <v>72</v>
       </c>
@@ -2463,7 +2483,7 @@
       <c r="D84" s="39"/>
       <c r="E84" s="39"/>
     </row>
-    <row r="85" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A85" s="24" t="s">
         <v>74</v>
       </c>
@@ -2473,7 +2493,7 @@
       <c r="D85" s="39"/>
       <c r="E85" s="39"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A86" s="24" t="s">
         <v>75</v>
       </c>
@@ -2483,7 +2503,7 @@
       <c r="D86" s="39"/>
       <c r="E86" s="39"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A87" s="22" t="s">
         <v>73</v>
       </c>
@@ -2491,29 +2511,29 @@
       <c r="D87" s="39"/>
       <c r="E87" s="39"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A88" s="34"/>
       <c r="B88" s="27"/>
       <c r="D88" s="39"/>
       <c r="E88" s="39"/>
     </row>
-    <row r="89" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A89" s="35"/>
       <c r="B89" s="28"/>
       <c r="D89" s="39"/>
       <c r="E89" s="39"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A90" s="39"/>
       <c r="B90" s="39"/>
       <c r="D90" s="39"/>
       <c r="E90" s="39"/>
     </row>
-    <row r="91" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A91" s="39"/>
       <c r="B91" s="39"/>
     </row>
-    <row r="92" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A92" s="30" t="s">
         <v>65</v>
       </c>
@@ -2521,13 +2541,13 @@
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A93" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B93" s="26"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A94" s="32" t="s">
         <v>67</v>
       </c>
@@ -2535,7 +2555,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A95" s="32" t="s">
         <v>68</v>
       </c>
@@ -2543,7 +2563,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A96" s="32" t="s">
         <v>106</v>
       </c>
@@ -2551,7 +2571,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" s="32" t="s">
         <v>107</v>
       </c>
@@ -2559,7 +2579,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" s="33" t="s">
         <v>69</v>
       </c>
@@ -2567,7 +2587,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" s="33" t="s">
         <v>70</v>
       </c>
@@ -2575,7 +2595,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" s="33" t="s">
         <v>71</v>
       </c>
@@ -2583,13 +2603,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B101" s="27"/>
     </row>
-    <row r="102" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A102" s="34" t="s">
         <v>74</v>
       </c>
@@ -2597,7 +2617,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" s="34" t="s">
         <v>75</v>
       </c>
@@ -2605,7 +2625,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" s="34" t="s">
         <v>76</v>
       </c>
@@ -2613,7 +2633,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" s="34" t="s">
         <v>77</v>
       </c>
@@ -2621,7 +2641,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" s="34" t="s">
         <v>99</v>
       </c>
@@ -2629,7 +2649,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" s="34" t="s">
         <v>100</v>
       </c>
@@ -2637,13 +2657,13 @@
         <v>147</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B108" s="27"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" s="34" t="s">
         <v>101</v>
       </c>
@@ -2651,7 +2671,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" s="34" t="s">
         <v>102</v>
       </c>
@@ -2659,7 +2679,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" s="34" t="s">
         <v>78</v>
       </c>
@@ -2667,7 +2687,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A112" s="35" t="s">
         <v>79</v>
       </c>
@@ -2675,11 +2695,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A113" s="19"/>
       <c r="B113" s="19"/>
     </row>
-    <row r="114" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A114" s="30" t="s">
         <v>65</v>
       </c>
@@ -2687,13 +2707,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B115" s="26"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" s="32" t="s">
         <v>67</v>
       </c>
@@ -2701,7 +2721,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" s="32" t="s">
         <v>68</v>
       </c>
@@ -2709,7 +2729,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" s="32" t="s">
         <v>106</v>
       </c>
@@ -2717,7 +2737,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" s="32" t="s">
         <v>107</v>
       </c>
@@ -2725,7 +2745,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" s="33" t="s">
         <v>69</v>
       </c>
@@ -2733,7 +2753,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" s="33" t="s">
         <v>118</v>
       </c>
@@ -2741,7 +2761,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" s="33" t="s">
         <v>71</v>
       </c>
@@ -2749,13 +2769,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B123" s="27"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" s="34" t="s">
         <v>74</v>
       </c>
@@ -2763,7 +2783,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" s="34" t="s">
         <v>75</v>
       </c>
@@ -2771,7 +2791,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" s="34" t="s">
         <v>76</v>
       </c>
@@ -2779,7 +2799,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" s="34" t="s">
         <v>77</v>
       </c>
@@ -2787,13 +2807,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B128" s="27"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" s="34" t="s">
         <v>161</v>
       </c>
@@ -2801,7 +2821,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" s="34" t="s">
         <v>163</v>
       </c>
@@ -2809,7 +2829,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" s="34" t="s">
         <v>78</v>
       </c>
@@ -2817,7 +2837,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A132" s="35" t="s">
         <v>79</v>
       </c>
@@ -2825,11 +2845,11 @@
         <v>181</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A133" s="19"/>
       <c r="B133" s="37"/>
     </row>
-    <row r="134" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A134" s="30" t="s">
         <v>65</v>
       </c>
@@ -2837,13 +2857,13 @@
         <v>174</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B135" s="26"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" s="32" t="s">
         <v>67</v>
       </c>
@@ -2851,7 +2871,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" s="32" t="s">
         <v>68</v>
       </c>
@@ -2859,7 +2879,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" s="32" t="s">
         <v>106</v>
       </c>
@@ -2867,7 +2887,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" s="32" t="s">
         <v>107</v>
       </c>
@@ -2875,7 +2895,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" s="33" t="s">
         <v>69</v>
       </c>
@@ -2883,7 +2903,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" s="33" t="s">
         <v>70</v>
       </c>
@@ -2891,7 +2911,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A142" s="33" t="s">
         <v>71</v>
       </c>
@@ -2899,13 +2919,13 @@
         <v>189</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B143" s="27"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" s="34" t="s">
         <v>74</v>
       </c>
@@ -2913,7 +2933,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A145" s="34" t="s">
         <v>75</v>
       </c>
@@ -2921,12 +2941,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A146" s="34"/>
       <c r="B146" s="27"/>
     </row>
-    <row r="147" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="148" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="148" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A148" s="30" t="s">
         <v>65</v>
       </c>
@@ -2934,13 +2954,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A149" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B149" s="26"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A150" s="32" t="s">
         <v>67</v>
       </c>
@@ -2948,7 +2968,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A151" s="32" t="s">
         <v>68</v>
       </c>
@@ -2956,7 +2976,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A152" s="32" t="s">
         <v>106</v>
       </c>
@@ -2964,7 +2984,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A153" s="32" t="s">
         <v>107</v>
       </c>
@@ -2972,7 +2992,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A154" s="33" t="s">
         <v>69</v>
       </c>
@@ -2980,7 +3000,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A155" s="33" t="s">
         <v>70</v>
       </c>
@@ -2988,7 +3008,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A156" s="33" t="s">
         <v>71</v>
       </c>
@@ -2996,13 +3016,13 @@
         <v>156</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A157" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B157" s="27"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A158" s="34" t="s">
         <v>74</v>
       </c>
@@ -3010,7 +3030,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A159" s="34" t="s">
         <v>75</v>
       </c>
@@ -3018,7 +3038,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A160" s="34" t="s">
         <v>76</v>
       </c>
@@ -3026,7 +3046,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" s="34" t="s">
         <v>77</v>
       </c>
@@ -3034,13 +3054,13 @@
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B162" s="27"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" s="34" t="s">
         <v>161</v>
       </c>
@@ -3048,7 +3068,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A164" s="34" t="s">
         <v>163</v>
       </c>
@@ -3056,7 +3076,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" s="34" t="s">
         <v>78</v>
       </c>
@@ -3064,7 +3084,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A166" s="35" t="s">
         <v>79</v>
       </c>
@@ -3072,8 +3092,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="168" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="168" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A168" s="30" t="s">
         <v>65</v>
       </c>
@@ -3081,13 +3101,13 @@
         <v>115</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B169" s="26"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" s="32" t="s">
         <v>67</v>
       </c>
@@ -3095,7 +3115,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" s="32" t="s">
         <v>68</v>
       </c>
@@ -3103,7 +3123,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" s="32" t="s">
         <v>106</v>
       </c>
@@ -3111,7 +3131,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" s="32" t="s">
         <v>107</v>
       </c>
@@ -3119,7 +3139,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" s="33" t="s">
         <v>69</v>
       </c>
@@ -3127,7 +3147,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" s="33" t="s">
         <v>70</v>
       </c>
@@ -3135,7 +3155,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A176" s="33" t="s">
         <v>71</v>
       </c>
@@ -3143,13 +3163,13 @@
         <v>169</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B177" s="27"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" s="34" t="s">
         <v>74</v>
       </c>
@@ -3157,7 +3177,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" s="34" t="s">
         <v>75</v>
       </c>
@@ -3165,7 +3185,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" s="34" t="s">
         <v>76</v>
       </c>
@@ -3173,7 +3193,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" s="34" t="s">
         <v>77</v>
       </c>
@@ -3181,12 +3201,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A182" s="40"/>
       <c r="B182" s="28"/>
     </row>
-    <row r="183" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="184" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="184" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A184" s="30" t="s">
         <v>65</v>
       </c>
@@ -3194,13 +3214,13 @@
         <v>192</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B185" s="26"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" s="32" t="s">
         <v>67</v>
       </c>
@@ -3208,7 +3228,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" s="32" t="s">
         <v>68</v>
       </c>
@@ -3216,7 +3236,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" s="33" t="s">
         <v>69</v>
       </c>
@@ -3224,7 +3244,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" s="33" t="s">
         <v>70</v>
       </c>
@@ -3232,7 +3252,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A190" s="33" t="s">
         <v>71</v>
       </c>
@@ -3240,13 +3260,13 @@
         <v>203</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B191" s="27"/>
     </row>
-    <row r="192" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A192" s="34" t="s">
         <v>74</v>
       </c>
@@ -3254,7 +3274,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A193" s="41" t="s">
         <v>75</v>
       </c>
@@ -3262,8 +3282,8 @@
         <v>197</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="195" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="195" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A195" s="30" t="s">
         <v>65</v>
       </c>
@@ -3271,13 +3291,13 @@
         <v>183</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B196" s="26"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" s="32" t="s">
         <v>67</v>
       </c>
@@ -3285,7 +3305,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" s="32" t="s">
         <v>68</v>
       </c>
@@ -3293,7 +3313,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" s="32" t="s">
         <v>106</v>
       </c>
@@ -3301,7 +3321,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" s="32" t="s">
         <v>107</v>
       </c>
@@ -3309,7 +3329,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" s="33" t="s">
         <v>69</v>
       </c>
@@ -3317,7 +3337,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" s="33" t="s">
         <v>70</v>
       </c>
@@ -3325,7 +3345,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
       <c r="A203" s="33" t="s">
         <v>71</v>
       </c>
@@ -3333,13 +3353,13 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B204" s="27"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" s="34" t="s">
         <v>74</v>
       </c>
@@ -3347,13 +3367,122 @@
         <v>210</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A206" s="35" t="s">
         <v>75</v>
       </c>
       <c r="B206" s="28" t="s">
         <v>211</v>
       </c>
+    </row>
+    <row r="207" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="208" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A208" s="25" t="s">
+        <v>65</v>
+      </c>
+      <c r="B208" s="25" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="23" t="s">
+        <v>66</v>
+      </c>
+      <c r="B209" s="26"/>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="29" t="s">
+        <v>67</v>
+      </c>
+      <c r="B210" s="27" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="29" t="s">
+        <v>68</v>
+      </c>
+      <c r="B211" s="27" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="32" t="s">
+        <v>106</v>
+      </c>
+      <c r="B212" s="27" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="32" t="s">
+        <v>107</v>
+      </c>
+      <c r="B213" s="27" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="B214" s="27" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="B215" s="27" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A216" s="22" t="s">
+        <v>71</v>
+      </c>
+      <c r="B216" s="27" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="B217" s="27"/>
+    </row>
+    <row r="218" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A218" s="24" t="s">
+        <v>74</v>
+      </c>
+      <c r="B218" s="27" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="24" t="s">
+        <v>75</v>
+      </c>
+      <c r="B219" s="27" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="B220" s="27"/>
+    </row>
+    <row r="221" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A221" s="34"/>
+      <c r="B221" s="27" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A222" s="35"/>
+      <c r="B222" s="28"/>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/USE_CASE_LEVEZETES.xlsx
+++ b/USE_CASE_LEVEZETES.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\csern\OneDrive\Dokumentumok\GitHub\SzoftTech\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goczi\Desktop\5. félév\Szoftvertechnológia\repo\SzoftTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0325F91D-55E1-402D-A53B-2E4C0585CB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6828" yWindow="1500" windowWidth="28800" windowHeight="10716" activeTab="1"/>
+    <workbookView xWindow="6825" yWindow="1500" windowWidth="28800" windowHeight="10710" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use-case" sheetId="1" r:id="rId1"/>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="219">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="222">
   <si>
     <t>Use case name</t>
   </si>
@@ -700,22 +701,31 @@
     <t>A gyógyszertár megtekintheti a recepteket</t>
   </si>
   <si>
-    <t>gyógyszertár</t>
-  </si>
-  <si>
     <t>A gyógyszertári felhasználó meg akarja tekinteni a recepteket</t>
   </si>
   <si>
-    <t>Az gyógyszertár utasítást ad a rendszernek, hogy meg akarja nézni a receptjeit.</t>
-  </si>
-  <si>
-    <t>Helytelen névmegadás vagy elgépelés esetén a rendszer hibát dob</t>
+    <t>Az gyógyszertár utasítást ad a rendszernek, hogy meg akarja nézni egy beteg receptjeit</t>
+  </si>
+  <si>
+    <t>A rendszer kiírja a betegek listáját</t>
+  </si>
+  <si>
+    <t>Gyógyszertár kiválasztja a kívánt beteget</t>
+  </si>
+  <si>
+    <t>A rendszer kiírja az adott beteg receptjeit</t>
+  </si>
+  <si>
+    <t>Betegnek még nincsen receptje</t>
+  </si>
+  <si>
+    <t>Recept hiányának jelzése üzenetben a gyógyszertárnak</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1359,21 +1369,21 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="35.6640625" customWidth="1"/>
+    <col min="1" max="1" width="35.7109375" customWidth="1"/>
     <col min="2" max="2" width="71" customWidth="1"/>
-    <col min="5" max="5" width="17.33203125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="17.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
@@ -1381,7 +1391,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
         <v>2</v>
       </c>
@@ -1389,7 +1399,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A3" s="42" t="s">
         <v>4</v>
       </c>
@@ -1397,11 +1407,11 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A4" s="42"/>
       <c r="B4" s="43"/>
     </row>
-    <row r="5" spans="1:2" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" ht="37.15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>6</v>
       </c>
@@ -1409,7 +1419,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>8</v>
       </c>
@@ -1417,7 +1427,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>10</v>
       </c>
@@ -1425,7 +1435,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A8" s="9" t="s">
         <v>27</v>
       </c>
@@ -1433,7 +1443,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>13</v>
       </c>
@@ -1441,7 +1451,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>17</v>
       </c>
@@ -1449,7 +1459,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>16</v>
       </c>
@@ -1457,7 +1467,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="43.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:2" ht="45.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A12" s="10" t="s">
         <v>19</v>
       </c>
@@ -1465,10 +1475,10 @@
         <v>20</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B13" s="1"/>
     </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="6" t="s">
         <v>0</v>
       </c>
@@ -1476,7 +1486,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
         <v>2</v>
       </c>
@@ -1484,7 +1494,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A16" s="42" t="s">
         <v>4</v>
       </c>
@@ -1492,11 +1502,11 @@
         <v>23</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A17" s="42"/>
       <c r="B17" s="43"/>
     </row>
-    <row r="18" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>6</v>
       </c>
@@ -1504,7 +1514,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="19" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>24</v>
       </c>
@@ -1512,7 +1522,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="20" spans="1:2" ht="86.4" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" ht="90" x14ac:dyDescent="0.25">
       <c r="A20" s="11" t="s">
         <v>28</v>
       </c>
@@ -1520,7 +1530,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A21" s="11" t="s">
         <v>29</v>
       </c>
@@ -1528,7 +1538,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="22" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A22" s="11" t="s">
         <v>31</v>
       </c>
@@ -1536,7 +1546,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="23" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A23" s="11" t="s">
         <v>33</v>
       </c>
@@ -1544,7 +1554,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:2" ht="87" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:2" ht="105.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="12" t="s">
         <v>19</v>
       </c>
@@ -1552,11 +1562,11 @@
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="1"/>
     </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="6" t="s">
         <v>0</v>
       </c>
@@ -1564,7 +1574,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>2</v>
       </c>
@@ -1572,7 +1582,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A28" s="42" t="s">
         <v>4</v>
       </c>
@@ -1580,11 +1590,11 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="1:2" ht="0.6" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" ht="0.6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="42"/>
       <c r="B29" s="43"/>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A30" s="9" t="s">
         <v>6</v>
       </c>
@@ -1592,7 +1602,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="31" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A31" s="9" t="s">
         <v>24</v>
       </c>
@@ -1600,7 +1610,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="32" spans="1:2" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" ht="60" x14ac:dyDescent="0.25">
       <c r="A32" s="11" t="s">
         <v>41</v>
       </c>
@@ -1608,7 +1618,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A33" s="11" t="s">
         <v>43</v>
       </c>
@@ -1616,7 +1626,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A34" s="11" t="s">
         <v>19</v>
       </c>
@@ -1624,7 +1634,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="35" spans="1:2" ht="29.4" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:2" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="12" t="s">
         <v>46</v>
       </c>
@@ -1632,11 +1642,11 @@
         <v>47</v>
       </c>
     </row>
-    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="2"/>
       <c r="B36" s="1"/>
     </row>
-    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:2" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="6" t="s">
         <v>0</v>
       </c>
@@ -1644,7 +1654,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>2</v>
       </c>
@@ -1652,7 +1662,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A39" s="42" t="s">
         <v>4</v>
       </c>
@@ -1660,11 +1670,11 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A40" s="42"/>
       <c r="B40" s="43"/>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A41" s="9" t="s">
         <v>6</v>
       </c>
@@ -1672,7 +1682,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="42" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A42" s="9" t="s">
         <v>24</v>
       </c>
@@ -1680,7 +1690,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="43" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A43" s="11" t="s">
         <v>52</v>
       </c>
@@ -1688,7 +1698,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A44" s="11" t="s">
         <v>54</v>
       </c>
@@ -1696,7 +1706,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="45" spans="1:2" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A45" s="11" t="s">
         <v>57</v>
       </c>
@@ -1704,7 +1714,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="46" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" ht="45" x14ac:dyDescent="0.25">
       <c r="A46" s="11" t="s">
         <v>19</v>
       </c>
@@ -1712,7 +1722,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" ht="30" x14ac:dyDescent="0.25">
       <c r="A47" s="11" t="s">
         <v>60</v>
       </c>
@@ -1720,7 +1730,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A48" s="11" t="s">
         <v>61</v>
       </c>
@@ -1728,7 +1738,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="13" t="s">
         <v>63</v>
       </c>
@@ -1736,18 +1746,18 @@
         <v>64</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="17"/>
       <c r="B50" s="18"/>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B51" s="1"/>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="16"/>
       <c r="B52" s="1"/>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B56" s="15"/>
     </row>
   </sheetData>
@@ -1767,27 +1777,27 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G222"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:G224"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A201" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="D206" sqref="D206"/>
+      <selection activeCell="B225" sqref="B225"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.33203125" style="20" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="54.109375" style="21" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.109375" style="19"/>
-    <col min="4" max="4" width="19.6640625" style="19" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="53.33203125" style="19" customWidth="1"/>
-    <col min="6" max="6" width="9.109375" style="19"/>
-    <col min="7" max="7" width="37.88671875" style="19" customWidth="1"/>
+    <col min="1" max="1" width="17.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="54.140625" style="21" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.140625" style="19"/>
+    <col min="4" max="4" width="19.7109375" style="19" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="53.28515625" style="19" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="19"/>
+    <col min="7" max="7" width="37.85546875" style="19" customWidth="1"/>
     <col min="8" max="8" width="52" style="19" customWidth="1"/>
-    <col min="9" max="16384" width="9.109375" style="19"/>
+    <col min="9" max="16384" width="9.140625" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:4" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A1" s="30" t="s">
         <v>65</v>
       </c>
@@ -1795,13 +1805,13 @@
         <v>120</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B2" s="26"/>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" s="32" t="s">
         <v>67</v>
       </c>
@@ -1809,7 +1819,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" s="32" t="s">
         <v>68</v>
       </c>
@@ -1817,7 +1827,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="32" t="s">
         <v>106</v>
       </c>
@@ -1825,7 +1835,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>107</v>
       </c>
@@ -1833,7 +1843,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" s="33" t="s">
         <v>69</v>
       </c>
@@ -1841,7 +1851,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" s="33" t="s">
         <v>70</v>
       </c>
@@ -1849,7 +1859,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="33" t="s">
         <v>71</v>
       </c>
@@ -1857,13 +1867,13 @@
         <v>124</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B10" s="27"/>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="34" t="s">
         <v>74</v>
       </c>
@@ -1871,7 +1881,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="34" t="s">
         <v>75</v>
       </c>
@@ -1879,7 +1889,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="34" t="s">
         <v>76</v>
       </c>
@@ -1887,7 +1897,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" s="34" t="s">
         <v>77</v>
       </c>
@@ -1895,13 +1905,13 @@
         <v>127</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B15" s="27"/>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" s="34" t="s">
         <v>78</v>
       </c>
@@ -1910,7 +1920,7 @@
       </c>
       <c r="D16" s="39"/>
     </row>
-    <row r="17" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="35" t="s">
         <v>79</v>
       </c>
@@ -1919,13 +1929,13 @@
       </c>
       <c r="D17" s="39"/>
     </row>
-    <row r="18" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="38"/>
       <c r="B18" s="39"/>
       <c r="D18" s="39"/>
       <c r="E18" s="39"/>
     </row>
-    <row r="19" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="30" t="s">
         <v>65</v>
       </c>
@@ -1935,7 +1945,7 @@
       <c r="D19" s="39"/>
       <c r="E19" s="39"/>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="31" t="s">
         <v>66</v>
       </c>
@@ -1943,7 +1953,7 @@
       <c r="D20" s="39"/>
       <c r="E20" s="39"/>
     </row>
-    <row r="21" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="32" t="s">
         <v>67</v>
       </c>
@@ -1953,7 +1963,7 @@
       <c r="D21" s="39"/>
       <c r="E21" s="39"/>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="32" t="s">
         <v>68</v>
       </c>
@@ -1963,7 +1973,7 @@
       <c r="D22" s="39"/>
       <c r="E22" s="39"/>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="32" t="s">
         <v>106</v>
       </c>
@@ -1973,7 +1983,7 @@
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="32" t="s">
         <v>107</v>
       </c>
@@ -1983,7 +1993,7 @@
       <c r="D24" s="39"/>
       <c r="E24" s="39"/>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="33" t="s">
         <v>69</v>
       </c>
@@ -1993,7 +2003,7 @@
       <c r="D25" s="39"/>
       <c r="E25" s="39"/>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="33" t="s">
         <v>70</v>
       </c>
@@ -2003,7 +2013,7 @@
       <c r="D26" s="39"/>
       <c r="E26" s="39"/>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="33" t="s">
         <v>71</v>
       </c>
@@ -2013,7 +2023,7 @@
       <c r="D27" s="39"/>
       <c r="E27" s="39"/>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="33" t="s">
         <v>72</v>
       </c>
@@ -2021,7 +2031,7 @@
       <c r="D28" s="39"/>
       <c r="E28" s="39"/>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="34" t="s">
         <v>74</v>
       </c>
@@ -2031,7 +2041,7 @@
       <c r="D29" s="39"/>
       <c r="E29" s="39"/>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="34" t="s">
         <v>75</v>
       </c>
@@ -2041,7 +2051,7 @@
       <c r="D30" s="39"/>
       <c r="E30" s="39"/>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="34" t="s">
         <v>76</v>
       </c>
@@ -2051,7 +2061,7 @@
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="34" t="s">
         <v>77</v>
       </c>
@@ -2061,7 +2071,7 @@
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
     </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="33" t="s">
         <v>73</v>
       </c>
@@ -2069,7 +2079,7 @@
       <c r="D33" s="39"/>
       <c r="E33" s="39"/>
     </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="34" t="s">
         <v>101</v>
       </c>
@@ -2079,7 +2089,7 @@
       <c r="D34" s="39"/>
       <c r="E34" s="39"/>
     </row>
-    <row r="35" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="35" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="35" t="s">
         <v>102</v>
       </c>
@@ -2089,12 +2099,12 @@
       <c r="D35" s="39"/>
       <c r="E35" s="39"/>
     </row>
-    <row r="36" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="19"/>
       <c r="B36" s="19"/>
       <c r="D36" s="39"/>
     </row>
-    <row r="37" spans="1:7" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="37" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A37" s="30" t="s">
         <v>65</v>
       </c>
@@ -2103,14 +2113,14 @@
       </c>
       <c r="G37" s="36"/>
     </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B38" s="26"/>
       <c r="G38" s="36"/>
     </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="32" t="s">
         <v>67</v>
       </c>
@@ -2119,7 +2129,7 @@
       </c>
       <c r="G39" s="36"/>
     </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="32" t="s">
         <v>68</v>
       </c>
@@ -2128,7 +2138,7 @@
       </c>
       <c r="G40" s="36"/>
     </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="32" t="s">
         <v>106</v>
       </c>
@@ -2137,7 +2147,7 @@
       </c>
       <c r="G41" s="36"/>
     </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="32" t="s">
         <v>107</v>
       </c>
@@ -2146,7 +2156,7 @@
       </c>
       <c r="G42" s="36"/>
     </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="33" t="s">
         <v>69</v>
       </c>
@@ -2155,7 +2165,7 @@
       </c>
       <c r="G43" s="36"/>
     </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="33" t="s">
         <v>70</v>
       </c>
@@ -2164,7 +2174,7 @@
       </c>
       <c r="G44" s="36"/>
     </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="33" t="s">
         <v>71</v>
       </c>
@@ -2173,14 +2183,14 @@
       </c>
       <c r="G45" s="36"/>
     </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B46" s="27"/>
       <c r="G46" s="36"/>
     </row>
-    <row r="47" spans="1:7" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A47" s="34" t="s">
         <v>74</v>
       </c>
@@ -2188,7 +2198,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48" s="34" t="s">
         <v>75</v>
       </c>
@@ -2196,7 +2206,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A49" s="34" t="s">
         <v>76</v>
       </c>
@@ -2204,7 +2214,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A50" s="34" t="s">
         <v>77</v>
       </c>
@@ -2212,7 +2222,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A51" s="34" t="s">
         <v>99</v>
       </c>
@@ -2220,7 +2230,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A52" s="34" t="s">
         <v>100</v>
       </c>
@@ -2228,13 +2238,13 @@
         <v>141</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A53" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B53" s="27"/>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A54" s="34" t="s">
         <v>101</v>
       </c>
@@ -2242,7 +2252,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="55" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="55" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A55" s="35" t="s">
         <v>102</v>
       </c>
@@ -2250,8 +2260,8 @@
         <v>143</v>
       </c>
     </row>
-    <row r="56" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="57" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="56" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="57" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A57" s="30" t="s">
         <v>65</v>
       </c>
@@ -2259,13 +2269,13 @@
         <v>104</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A58" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B58" s="26"/>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A59" s="32" t="s">
         <v>67</v>
       </c>
@@ -2273,7 +2283,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A60" s="32" t="s">
         <v>68</v>
       </c>
@@ -2281,7 +2291,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A61" s="32" t="s">
         <v>106</v>
       </c>
@@ -2289,7 +2299,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A62" s="32" t="s">
         <v>107</v>
       </c>
@@ -2297,7 +2307,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A63" s="33" t="s">
         <v>69</v>
       </c>
@@ -2305,7 +2315,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A64" s="33" t="s">
         <v>70</v>
       </c>
@@ -2313,7 +2323,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="33" t="s">
         <v>71</v>
       </c>
@@ -2321,13 +2331,13 @@
         <v>89</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B66" s="27"/>
     </row>
-    <row r="67" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A67" s="34" t="s">
         <v>74</v>
       </c>
@@ -2335,7 +2345,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="34" t="s">
         <v>75</v>
       </c>
@@ -2343,7 +2353,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="34" t="s">
         <v>76</v>
       </c>
@@ -2351,7 +2361,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="34" t="s">
         <v>77</v>
       </c>
@@ -2359,13 +2369,13 @@
         <v>94</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B71" s="27"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="34" t="s">
         <v>101</v>
       </c>
@@ -2373,7 +2383,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="34" t="s">
         <v>102</v>
       </c>
@@ -2381,13 +2391,13 @@
         <v>96</v>
       </c>
     </row>
-    <row r="74" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="74" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A74" s="38"/>
       <c r="B74" s="39"/>
       <c r="D74" s="39"/>
       <c r="E74" s="39"/>
     </row>
-    <row r="75" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="75" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A75" s="25" t="s">
         <v>65</v>
       </c>
@@ -2397,7 +2407,7 @@
       <c r="D75" s="39"/>
       <c r="E75" s="39"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="23" t="s">
         <v>66</v>
       </c>
@@ -2405,7 +2415,7 @@
       <c r="D76" s="39"/>
       <c r="E76" s="39"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="29" t="s">
         <v>67</v>
       </c>
@@ -2415,7 +2425,7 @@
       <c r="D77" s="39"/>
       <c r="E77" s="39"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="29" t="s">
         <v>68</v>
       </c>
@@ -2425,7 +2435,7 @@
       <c r="D78" s="39"/>
       <c r="E78" s="39"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="32" t="s">
         <v>106</v>
       </c>
@@ -2435,7 +2445,7 @@
       <c r="D79" s="39"/>
       <c r="E79" s="39"/>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="32" t="s">
         <v>107</v>
       </c>
@@ -2445,7 +2455,7 @@
       <c r="D80" s="39"/>
       <c r="E80" s="39"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="22" t="s">
         <v>69</v>
       </c>
@@ -2455,7 +2465,7 @@
       <c r="D81" s="39"/>
       <c r="E81" s="39"/>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="22" t="s">
         <v>70</v>
       </c>
@@ -2465,7 +2475,7 @@
       <c r="D82" s="39"/>
       <c r="E82" s="39"/>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="22" t="s">
         <v>71</v>
       </c>
@@ -2475,7 +2485,7 @@
       <c r="D83" s="39"/>
       <c r="E83" s="39"/>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="22" t="s">
         <v>72</v>
       </c>
@@ -2483,7 +2493,7 @@
       <c r="D84" s="39"/>
       <c r="E84" s="39"/>
     </row>
-    <row r="85" spans="1:5" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:5" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A85" s="24" t="s">
         <v>74</v>
       </c>
@@ -2493,7 +2503,7 @@
       <c r="D85" s="39"/>
       <c r="E85" s="39"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="24" t="s">
         <v>75</v>
       </c>
@@ -2503,7 +2513,7 @@
       <c r="D86" s="39"/>
       <c r="E86" s="39"/>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="22" t="s">
         <v>73</v>
       </c>
@@ -2511,29 +2521,29 @@
       <c r="D87" s="39"/>
       <c r="E87" s="39"/>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="34"/>
       <c r="B88" s="27"/>
       <c r="D88" s="39"/>
       <c r="E88" s="39"/>
     </row>
-    <row r="89" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="89" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A89" s="35"/>
       <c r="B89" s="28"/>
       <c r="D89" s="39"/>
       <c r="E89" s="39"/>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="39"/>
       <c r="B90" s="39"/>
       <c r="D90" s="39"/>
       <c r="E90" s="39"/>
     </row>
-    <row r="91" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="91" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A91" s="39"/>
       <c r="B91" s="39"/>
     </row>
-    <row r="92" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="92" spans="1:5" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A92" s="30" t="s">
         <v>65</v>
       </c>
@@ -2541,13 +2551,13 @@
         <v>98</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B93" s="26"/>
     </row>
-    <row r="94" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="32" t="s">
         <v>67</v>
       </c>
@@ -2555,7 +2565,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="32" t="s">
         <v>68</v>
       </c>
@@ -2563,7 +2573,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="32" t="s">
         <v>106</v>
       </c>
@@ -2571,7 +2581,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A97" s="32" t="s">
         <v>107</v>
       </c>
@@ -2579,7 +2589,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A98" s="33" t="s">
         <v>69</v>
       </c>
@@ -2587,7 +2597,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A99" s="33" t="s">
         <v>70</v>
       </c>
@@ -2595,7 +2605,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A100" s="33" t="s">
         <v>71</v>
       </c>
@@ -2603,13 +2613,13 @@
         <v>145</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A101" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B101" s="27"/>
     </row>
-    <row r="102" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A102" s="34" t="s">
         <v>74</v>
       </c>
@@ -2617,7 +2627,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A103" s="34" t="s">
         <v>75</v>
       </c>
@@ -2625,7 +2635,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A104" s="34" t="s">
         <v>76</v>
       </c>
@@ -2633,7 +2643,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A105" s="34" t="s">
         <v>77</v>
       </c>
@@ -2641,7 +2651,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A106" s="34" t="s">
         <v>99</v>
       </c>
@@ -2649,7 +2659,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A107" s="34" t="s">
         <v>100</v>
       </c>
@@ -2657,13 +2667,13 @@
         <v>147</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A108" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B108" s="27"/>
     </row>
-    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A109" s="34" t="s">
         <v>101</v>
       </c>
@@ -2671,7 +2681,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A110" s="34" t="s">
         <v>102</v>
       </c>
@@ -2679,7 +2689,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A111" s="34" t="s">
         <v>78</v>
       </c>
@@ -2687,7 +2697,7 @@
         <v>148</v>
       </c>
     </row>
-    <row r="112" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="112" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A112" s="35" t="s">
         <v>79</v>
       </c>
@@ -2695,11 +2705,11 @@
         <v>149</v>
       </c>
     </row>
-    <row r="113" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="113" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A113" s="19"/>
       <c r="B113" s="19"/>
     </row>
-    <row r="114" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="114" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A114" s="30" t="s">
         <v>65</v>
       </c>
@@ -2707,13 +2717,13 @@
         <v>113</v>
       </c>
     </row>
-    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A115" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B115" s="26"/>
     </row>
-    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A116" s="32" t="s">
         <v>67</v>
       </c>
@@ -2721,7 +2731,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A117" s="32" t="s">
         <v>68</v>
       </c>
@@ -2729,7 +2739,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A118" s="32" t="s">
         <v>106</v>
       </c>
@@ -2737,7 +2747,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A119" s="32" t="s">
         <v>107</v>
       </c>
@@ -2745,7 +2755,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A120" s="33" t="s">
         <v>69</v>
       </c>
@@ -2753,7 +2763,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="33" t="s">
         <v>118</v>
       </c>
@@ -2761,7 +2771,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A122" s="33" t="s">
         <v>71</v>
       </c>
@@ -2769,13 +2779,13 @@
         <v>119</v>
       </c>
     </row>
-    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A123" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B123" s="27"/>
     </row>
-    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A124" s="34" t="s">
         <v>74</v>
       </c>
@@ -2783,7 +2793,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A125" s="34" t="s">
         <v>75</v>
       </c>
@@ -2791,7 +2801,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A126" s="34" t="s">
         <v>76</v>
       </c>
@@ -2799,7 +2809,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A127" s="34" t="s">
         <v>77</v>
       </c>
@@ -2807,13 +2817,13 @@
         <v>180</v>
       </c>
     </row>
-    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A128" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B128" s="27"/>
     </row>
-    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="34" t="s">
         <v>161</v>
       </c>
@@ -2821,7 +2831,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="34" t="s">
         <v>163</v>
       </c>
@@ -2829,7 +2839,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A131" s="34" t="s">
         <v>78</v>
       </c>
@@ -2837,7 +2847,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="132" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="132" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A132" s="35" t="s">
         <v>79</v>
       </c>
@@ -2845,11 +2855,11 @@
         <v>181</v>
       </c>
     </row>
-    <row r="133" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="133" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A133" s="19"/>
       <c r="B133" s="37"/>
     </row>
-    <row r="134" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="134" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A134" s="30" t="s">
         <v>65</v>
       </c>
@@ -2857,13 +2867,13 @@
         <v>174</v>
       </c>
     </row>
-    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A135" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B135" s="26"/>
     </row>
-    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A136" s="32" t="s">
         <v>67</v>
       </c>
@@ -2871,7 +2881,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A137" s="32" t="s">
         <v>68</v>
       </c>
@@ -2879,7 +2889,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A138" s="32" t="s">
         <v>106</v>
       </c>
@@ -2887,7 +2897,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A139" s="32" t="s">
         <v>107</v>
       </c>
@@ -2895,7 +2905,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A140" s="33" t="s">
         <v>69</v>
       </c>
@@ -2903,7 +2913,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A141" s="33" t="s">
         <v>70</v>
       </c>
@@ -2911,7 +2921,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="142" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A142" s="33" t="s">
         <v>71</v>
       </c>
@@ -2919,13 +2929,13 @@
         <v>189</v>
       </c>
     </row>
-    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A143" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B143" s="27"/>
     </row>
-    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A144" s="34" t="s">
         <v>74</v>
       </c>
@@ -2933,7 +2943,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A145" s="34" t="s">
         <v>75</v>
       </c>
@@ -2941,12 +2951,12 @@
         <v>191</v>
       </c>
     </row>
-    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A146" s="34"/>
       <c r="B146" s="27"/>
     </row>
-    <row r="147" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="148" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="147" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="148" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A148" s="30" t="s">
         <v>65</v>
       </c>
@@ -2954,13 +2964,13 @@
         <v>114</v>
       </c>
     </row>
-    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A149" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B149" s="26"/>
     </row>
-    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A150" s="32" t="s">
         <v>67</v>
       </c>
@@ -2968,7 +2978,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A151" s="32" t="s">
         <v>68</v>
       </c>
@@ -2976,7 +2986,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A152" s="32" t="s">
         <v>106</v>
       </c>
@@ -2984,7 +2994,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A153" s="32" t="s">
         <v>107</v>
       </c>
@@ -2992,7 +3002,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A154" s="33" t="s">
         <v>69</v>
       </c>
@@ -3000,7 +3010,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A155" s="33" t="s">
         <v>70</v>
       </c>
@@ -3008,7 +3018,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="156" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A156" s="33" t="s">
         <v>71</v>
       </c>
@@ -3016,13 +3026,13 @@
         <v>156</v>
       </c>
     </row>
-    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A157" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B157" s="27"/>
     </row>
-    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A158" s="34" t="s">
         <v>74</v>
       </c>
@@ -3030,7 +3040,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A159" s="34" t="s">
         <v>75</v>
       </c>
@@ -3038,7 +3048,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A160" s="34" t="s">
         <v>76</v>
       </c>
@@ -3046,7 +3056,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A161" s="34" t="s">
         <v>77</v>
       </c>
@@ -3054,13 +3064,13 @@
         <v>159</v>
       </c>
     </row>
-    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A162" s="33" t="s">
         <v>73</v>
       </c>
       <c r="B162" s="27"/>
     </row>
-    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="34" t="s">
         <v>161</v>
       </c>
@@ -3068,7 +3078,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="164" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A164" s="34" t="s">
         <v>163</v>
       </c>
@@ -3076,7 +3086,7 @@
         <v>164</v>
       </c>
     </row>
-    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A165" s="34" t="s">
         <v>78</v>
       </c>
@@ -3084,7 +3094,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="166" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="166" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A166" s="35" t="s">
         <v>79</v>
       </c>
@@ -3092,8 +3102,8 @@
         <v>166</v>
       </c>
     </row>
-    <row r="167" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="168" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="167" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="168" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A168" s="30" t="s">
         <v>65</v>
       </c>
@@ -3101,13 +3111,13 @@
         <v>115</v>
       </c>
     </row>
-    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A169" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B169" s="26"/>
     </row>
-    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A170" s="32" t="s">
         <v>67</v>
       </c>
@@ -3115,7 +3125,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A171" s="32" t="s">
         <v>68</v>
       </c>
@@ -3123,7 +3133,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A172" s="32" t="s">
         <v>106</v>
       </c>
@@ -3131,7 +3141,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A173" s="32" t="s">
         <v>107</v>
       </c>
@@ -3139,7 +3149,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A174" s="33" t="s">
         <v>69</v>
       </c>
@@ -3147,7 +3157,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A175" s="33" t="s">
         <v>70</v>
       </c>
@@ -3155,7 +3165,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="176" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A176" s="33" t="s">
         <v>71</v>
       </c>
@@ -3163,13 +3173,13 @@
         <v>169</v>
       </c>
     </row>
-    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A177" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B177" s="27"/>
     </row>
-    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A178" s="34" t="s">
         <v>74</v>
       </c>
@@ -3177,7 +3187,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A179" s="34" t="s">
         <v>75</v>
       </c>
@@ -3185,7 +3195,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A180" s="34" t="s">
         <v>76</v>
       </c>
@@ -3193,7 +3203,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A181" s="34" t="s">
         <v>77</v>
       </c>
@@ -3201,12 +3211,12 @@
         <v>173</v>
       </c>
     </row>
-    <row r="182" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="182" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A182" s="40"/>
       <c r="B182" s="28"/>
     </row>
-    <row r="183" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="184" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="183" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="184" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A184" s="30" t="s">
         <v>65</v>
       </c>
@@ -3214,13 +3224,13 @@
         <v>192</v>
       </c>
     </row>
-    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A185" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B185" s="26"/>
     </row>
-    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A186" s="32" t="s">
         <v>67</v>
       </c>
@@ -3228,7 +3238,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A187" s="32" t="s">
         <v>68</v>
       </c>
@@ -3236,7 +3246,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A188" s="33" t="s">
         <v>69</v>
       </c>
@@ -3244,7 +3254,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A189" s="33" t="s">
         <v>70</v>
       </c>
@@ -3252,7 +3262,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="190" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A190" s="33" t="s">
         <v>71</v>
       </c>
@@ -3260,13 +3270,13 @@
         <v>203</v>
       </c>
     </row>
-    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A191" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B191" s="27"/>
     </row>
-    <row r="192" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A192" s="34" t="s">
         <v>74</v>
       </c>
@@ -3274,7 +3284,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="193" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="193" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A193" s="41" t="s">
         <v>75</v>
       </c>
@@ -3282,8 +3292,8 @@
         <v>197</v>
       </c>
     </row>
-    <row r="194" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="195" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="194" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="195" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A195" s="30" t="s">
         <v>65</v>
       </c>
@@ -3291,13 +3301,13 @@
         <v>183</v>
       </c>
     </row>
-    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A196" s="31" t="s">
         <v>66</v>
       </c>
       <c r="B196" s="26"/>
     </row>
-    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A197" s="32" t="s">
         <v>67</v>
       </c>
@@ -3305,7 +3315,7 @@
         <v>198</v>
       </c>
     </row>
-    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A198" s="32" t="s">
         <v>68</v>
       </c>
@@ -3313,7 +3323,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A199" s="32" t="s">
         <v>106</v>
       </c>
@@ -3321,7 +3331,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A200" s="32" t="s">
         <v>107</v>
       </c>
@@ -3329,7 +3339,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A201" s="33" t="s">
         <v>69</v>
       </c>
@@ -3337,7 +3347,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A202" s="33" t="s">
         <v>70</v>
       </c>
@@ -3345,7 +3355,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="203" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A203" s="33" t="s">
         <v>71</v>
       </c>
@@ -3353,13 +3363,13 @@
         <v>202</v>
       </c>
     </row>
-    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A204" s="33" t="s">
         <v>72</v>
       </c>
       <c r="B204" s="27"/>
     </row>
-    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A205" s="34" t="s">
         <v>74</v>
       </c>
@@ -3367,7 +3377,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="206" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="206" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A206" s="35" t="s">
         <v>75</v>
       </c>
@@ -3375,8 +3385,8 @@
         <v>211</v>
       </c>
     </row>
-    <row r="207" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="208" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="207" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="208" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A208" s="25" t="s">
         <v>65</v>
       </c>
@@ -3384,13 +3394,13 @@
         <v>212</v>
       </c>
     </row>
-    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A209" s="23" t="s">
         <v>66</v>
       </c>
       <c r="B209" s="26"/>
     </row>
-    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A210" s="29" t="s">
         <v>67</v>
       </c>
@@ -3398,7 +3408,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A211" s="29" t="s">
         <v>68</v>
       </c>
@@ -3406,7 +3416,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A212" s="32" t="s">
         <v>106</v>
       </c>
@@ -3414,7 +3424,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A213" s="32" t="s">
         <v>107</v>
       </c>
@@ -3422,15 +3432,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A214" s="22" t="s">
         <v>69</v>
       </c>
       <c r="B214" s="27" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A215" s="22" t="s">
         <v>70</v>
       </c>
@@ -3438,51 +3448,73 @@
         <v>155</v>
       </c>
     </row>
-    <row r="216" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A216" s="22" t="s">
         <v>71</v>
       </c>
       <c r="B216" s="27" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A217" s="22" t="s">
         <v>72</v>
       </c>
       <c r="B217" s="27"/>
     </row>
-    <row r="218" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A218" s="24" t="s">
         <v>74</v>
       </c>
       <c r="B218" s="27" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A219" s="24" t="s">
         <v>75</v>
       </c>
       <c r="B219" s="27" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A220" s="22" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A220" s="24" t="s">
+        <v>76</v>
+      </c>
+      <c r="B220" s="27" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A221" s="24" t="s">
+        <v>77</v>
+      </c>
+      <c r="B221" s="27" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A222" s="22" t="s">
         <v>73</v>
       </c>
-      <c r="B220" s="27"/>
-    </row>
-    <row r="221" spans="1:2" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="A221" s="34"/>
-      <c r="B221" s="27" t="s">
-        <v>218</v>
-      </c>
-    </row>
-    <row r="222" spans="1:2" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A222" s="35"/>
-      <c r="B222" s="28"/>
+      <c r="B222" s="27"/>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A223" s="34" t="s">
+        <v>78</v>
+      </c>
+      <c r="B223" s="27" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A224" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="B224" s="28" t="s">
+        <v>221</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>

--- a/USE_CASE_LEVEZETES.xlsx
+++ b/USE_CASE_LEVEZETES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goczi\Desktop\5. félév\Szoftvertechnológia\repo\SzoftTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0325F91D-55E1-402D-A53B-2E4C0585CB77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFF97FA-5E81-49FE-9C3D-96CF4C34F57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6825" yWindow="1500" windowWidth="28800" windowHeight="10710" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use-case" sheetId="1" r:id="rId1"/>
@@ -1780,8 +1780,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A201" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="B225" sqref="B225"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
+      <selection activeCell="H48" sqref="H48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1856,7 +1856,7 @@
         <v>70</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -2008,7 +2008,7 @@
         <v>70</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="D26" s="39"/>
       <c r="E26" s="39"/>
@@ -2170,7 +2170,7 @@
         <v>70</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="G44" s="36"/>
     </row>

--- a/USE_CASE_LEVEZETES.xlsx
+++ b/USE_CASE_LEVEZETES.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goczi\Desktop\5. félév\Szoftvertechnológia\repo\SzoftTech\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1CFF97FA-5E81-49FE-9C3D-96CF4C34F57B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1266C4F7-B7A0-4430-B8C0-8E4241DB926E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7320" yWindow="-105" windowWidth="21600" windowHeight="11295" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Use-case" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="463" uniqueCount="220">
   <si>
     <t>Use case name</t>
   </si>
@@ -410,9 +410,6 @@
     <t>A rendszer elutasítja az igényt</t>
   </si>
   <si>
-    <t>Másodlagos aktorok:</t>
-  </si>
-  <si>
     <t>A beteg igényt szeretne benyújtani gyógyszerekre</t>
   </si>
   <si>
@@ -618,9 +615,6 @@
   </si>
   <si>
     <t xml:space="preserve">Hibaüzenetet dob </t>
-  </si>
-  <si>
-    <t>nincs</t>
   </si>
   <si>
     <t>A gyógyszertári felhasználó feltehetően szeretné módosítani a listát ezáltal keresi az elérését</t>
@@ -1780,8 +1774,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G224"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="96" zoomScaleNormal="96" workbookViewId="0">
-      <selection activeCell="H48" sqref="H48"/>
+    <sheetView tabSelected="1" topLeftCell="A205" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="C221" sqref="C221"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1802,7 +1796,7 @@
         <v>65</v>
       </c>
       <c r="B1" s="25" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -1816,7 +1810,7 @@
         <v>67</v>
       </c>
       <c r="B3" s="27" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -1832,7 +1826,7 @@
         <v>106</v>
       </c>
       <c r="B5" s="27" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -1840,7 +1834,7 @@
         <v>107</v>
       </c>
       <c r="B6" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -1856,7 +1850,7 @@
         <v>70</v>
       </c>
       <c r="B8" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
@@ -1864,7 +1858,7 @@
         <v>71</v>
       </c>
       <c r="B9" s="27" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
@@ -1878,7 +1872,7 @@
         <v>74</v>
       </c>
       <c r="B11" s="27" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
@@ -1886,7 +1880,7 @@
         <v>75</v>
       </c>
       <c r="B12" s="27" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
@@ -1894,7 +1888,7 @@
         <v>76</v>
       </c>
       <c r="B13" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
@@ -1902,7 +1896,7 @@
         <v>77</v>
       </c>
       <c r="B14" s="27" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
@@ -1916,7 +1910,7 @@
         <v>78</v>
       </c>
       <c r="B16" s="27" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="D16" s="39"/>
     </row>
@@ -1925,7 +1919,7 @@
         <v>79</v>
       </c>
       <c r="B17" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D17" s="39"/>
     </row>
@@ -1958,7 +1952,7 @@
         <v>67</v>
       </c>
       <c r="B21" s="27" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D21" s="39"/>
       <c r="E21" s="39"/>
@@ -1978,7 +1972,7 @@
         <v>106</v>
       </c>
       <c r="B23" s="27" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D23" s="39"/>
       <c r="E23" s="39"/>
@@ -1988,7 +1982,7 @@
         <v>107</v>
       </c>
       <c r="B24" s="27" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="D24" s="39"/>
       <c r="E24" s="39"/>
@@ -2008,7 +2002,7 @@
         <v>70</v>
       </c>
       <c r="B26" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D26" s="39"/>
       <c r="E26" s="39"/>
@@ -2018,7 +2012,7 @@
         <v>71</v>
       </c>
       <c r="B27" s="27" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="D27" s="39"/>
       <c r="E27" s="39"/>
@@ -2036,7 +2030,7 @@
         <v>74</v>
       </c>
       <c r="B29" s="27" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D29" s="39"/>
       <c r="E29" s="39"/>
@@ -2046,7 +2040,7 @@
         <v>75</v>
       </c>
       <c r="B30" s="27" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D30" s="39"/>
       <c r="E30" s="39"/>
@@ -2056,7 +2050,7 @@
         <v>76</v>
       </c>
       <c r="B31" s="27" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D31" s="39"/>
       <c r="E31" s="39"/>
@@ -2066,7 +2060,7 @@
         <v>77</v>
       </c>
       <c r="B32" s="27" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="D32" s="39"/>
       <c r="E32" s="39"/>
@@ -2084,7 +2078,7 @@
         <v>101</v>
       </c>
       <c r="B34" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="D34" s="39"/>
       <c r="E34" s="39"/>
@@ -2094,7 +2088,7 @@
         <v>102</v>
       </c>
       <c r="B35" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D35" s="39"/>
       <c r="E35" s="39"/>
@@ -2109,7 +2103,7 @@
         <v>65</v>
       </c>
       <c r="B37" s="25" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G37" s="36"/>
     </row>
@@ -2152,7 +2146,7 @@
         <v>107</v>
       </c>
       <c r="B42" s="27" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G42" s="36"/>
     </row>
@@ -2170,7 +2164,7 @@
         <v>70</v>
       </c>
       <c r="B44" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="G44" s="36"/>
     </row>
@@ -2203,7 +2197,7 @@
         <v>75</v>
       </c>
       <c r="B48" s="27" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.25">
@@ -2211,7 +2205,7 @@
         <v>76</v>
       </c>
       <c r="B49" s="27" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.25">
@@ -2219,7 +2213,7 @@
         <v>77</v>
       </c>
       <c r="B50" s="27" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.25">
@@ -2227,7 +2221,7 @@
         <v>99</v>
       </c>
       <c r="B51" s="27" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.25">
@@ -2235,7 +2229,7 @@
         <v>100</v>
       </c>
       <c r="B52" s="27" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.25">
@@ -2249,7 +2243,7 @@
         <v>101</v>
       </c>
       <c r="B54" s="27" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="55" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2257,7 +2251,7 @@
         <v>102</v>
       </c>
       <c r="B55" s="28" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="56" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -2296,7 +2290,7 @@
         <v>106</v>
       </c>
       <c r="B61" s="27" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.25">
@@ -2320,7 +2314,7 @@
         <v>70</v>
       </c>
       <c r="B64" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.25">
@@ -2350,7 +2344,7 @@
         <v>75</v>
       </c>
       <c r="B68" s="27" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.25">
@@ -2470,7 +2464,7 @@
         <v>70</v>
       </c>
       <c r="B82" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D82" s="39"/>
       <c r="E82" s="39"/>
@@ -2586,7 +2580,7 @@
         <v>107</v>
       </c>
       <c r="B97" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.25">
@@ -2602,7 +2596,7 @@
         <v>70</v>
       </c>
       <c r="B99" s="27" t="s">
-        <v>88</v>
+        <v>154</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.25">
@@ -2610,7 +2604,7 @@
         <v>71</v>
       </c>
       <c r="B100" s="27" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.25">
@@ -2656,7 +2650,7 @@
         <v>99</v>
       </c>
       <c r="B106" s="27" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.25">
@@ -2664,7 +2658,7 @@
         <v>100</v>
       </c>
       <c r="B107" s="27" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.25">
@@ -2678,7 +2672,7 @@
         <v>101</v>
       </c>
       <c r="B109" s="27" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.25">
@@ -2686,7 +2680,7 @@
         <v>102</v>
       </c>
       <c r="B110" s="27" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.25">
@@ -2694,7 +2688,7 @@
         <v>78</v>
       </c>
       <c r="B111" s="27" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="112" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2702,7 +2696,7 @@
         <v>79</v>
       </c>
       <c r="B112" s="28" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
     </row>
     <row r="113" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2728,7 +2722,7 @@
         <v>67</v>
       </c>
       <c r="B116" s="27" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.25">
@@ -2744,7 +2738,7 @@
         <v>106</v>
       </c>
       <c r="B118" s="27" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.25">
@@ -2765,10 +2759,10 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A121" s="33" t="s">
-        <v>118</v>
+        <v>70</v>
       </c>
       <c r="B121" s="27" t="s">
-        <v>81</v>
+        <v>154</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.25">
@@ -2776,7 +2770,7 @@
         <v>71</v>
       </c>
       <c r="B122" s="27" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.25">
@@ -2790,7 +2784,7 @@
         <v>74</v>
       </c>
       <c r="B124" s="27" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.25">
@@ -2798,7 +2792,7 @@
         <v>75</v>
       </c>
       <c r="B125" s="27" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.25">
@@ -2806,7 +2800,7 @@
         <v>76</v>
       </c>
       <c r="B126" s="27" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.25">
@@ -2814,7 +2808,7 @@
         <v>77</v>
       </c>
       <c r="B127" s="27" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.25">
@@ -2825,18 +2819,18 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A129" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="B129" s="27" t="s">
         <v>161</v>
-      </c>
-      <c r="B129" s="27" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A130" s="34" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="B130" s="27" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.25">
@@ -2844,7 +2838,7 @@
         <v>78</v>
       </c>
       <c r="B131" s="27" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
     </row>
     <row r="132" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2852,7 +2846,7 @@
         <v>79</v>
       </c>
       <c r="B132" s="28" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
     </row>
     <row r="133" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2864,7 +2858,7 @@
         <v>65</v>
       </c>
       <c r="B134" s="25" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.25">
@@ -2878,7 +2872,7 @@
         <v>67</v>
       </c>
       <c r="B136" s="27" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.25">
@@ -2886,7 +2880,7 @@
         <v>68</v>
       </c>
       <c r="B137" s="27" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.25">
@@ -2894,7 +2888,7 @@
         <v>106</v>
       </c>
       <c r="B138" s="27" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.25">
@@ -2902,7 +2896,7 @@
         <v>107</v>
       </c>
       <c r="B139" s="27" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.25">
@@ -2910,7 +2904,7 @@
         <v>69</v>
       </c>
       <c r="B140" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.25">
@@ -2918,7 +2912,7 @@
         <v>70</v>
       </c>
       <c r="B141" s="27" t="s">
-        <v>188</v>
+        <v>154</v>
       </c>
     </row>
     <row r="142" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -2926,7 +2920,7 @@
         <v>71</v>
       </c>
       <c r="B142" s="27" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.25">
@@ -2940,7 +2934,7 @@
         <v>74</v>
       </c>
       <c r="B144" s="27" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
     </row>
     <row r="145" spans="1:2" x14ac:dyDescent="0.25">
@@ -2948,7 +2942,7 @@
         <v>75</v>
       </c>
       <c r="B145" s="27" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
     </row>
     <row r="146" spans="1:2" x14ac:dyDescent="0.25">
@@ -2975,7 +2969,7 @@
         <v>67</v>
       </c>
       <c r="B150" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
     </row>
     <row r="151" spans="1:2" x14ac:dyDescent="0.25">
@@ -2983,7 +2977,7 @@
         <v>68</v>
       </c>
       <c r="B151" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="152" spans="1:2" x14ac:dyDescent="0.25">
@@ -2991,7 +2985,7 @@
         <v>106</v>
       </c>
       <c r="B152" s="27" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="153" spans="1:2" x14ac:dyDescent="0.25">
@@ -2999,7 +2993,7 @@
         <v>107</v>
       </c>
       <c r="B153" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="154" spans="1:2" x14ac:dyDescent="0.25">
@@ -3007,7 +3001,7 @@
         <v>69</v>
       </c>
       <c r="B154" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="155" spans="1:2" x14ac:dyDescent="0.25">
@@ -3015,7 +3009,7 @@
         <v>70</v>
       </c>
       <c r="B155" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="156" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -3023,7 +3017,7 @@
         <v>71</v>
       </c>
       <c r="B156" s="27" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
     </row>
     <row r="157" spans="1:2" x14ac:dyDescent="0.25">
@@ -3037,7 +3031,7 @@
         <v>74</v>
       </c>
       <c r="B158" s="27" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="159" spans="1:2" x14ac:dyDescent="0.25">
@@ -3045,7 +3039,7 @@
         <v>75</v>
       </c>
       <c r="B159" s="27" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="160" spans="1:2" x14ac:dyDescent="0.25">
@@ -3053,7 +3047,7 @@
         <v>76</v>
       </c>
       <c r="B160" s="27" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.25">
@@ -3061,7 +3055,7 @@
         <v>77</v>
       </c>
       <c r="B161" s="27" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.25">
@@ -3072,18 +3066,18 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.25">
       <c r="A163" s="34" t="s">
+        <v>160</v>
+      </c>
+      <c r="B163" s="27" t="s">
         <v>161</v>
-      </c>
-      <c r="B163" s="27" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="164" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
       <c r="A164" s="34" t="s">
+        <v>162</v>
+      </c>
+      <c r="B164" s="27" t="s">
         <v>163</v>
-      </c>
-      <c r="B164" s="27" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.25">
@@ -3091,7 +3085,7 @@
         <v>78</v>
       </c>
       <c r="B165" s="27" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="166" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3099,7 +3093,7 @@
         <v>79</v>
       </c>
       <c r="B166" s="28" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="167" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3122,7 +3116,7 @@
         <v>67</v>
       </c>
       <c r="B170" s="27" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.25">
@@ -3130,7 +3124,7 @@
         <v>68</v>
       </c>
       <c r="B171" s="27" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.25">
@@ -3138,7 +3132,7 @@
         <v>106</v>
       </c>
       <c r="B172" s="27" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.25">
@@ -3146,7 +3140,7 @@
         <v>107</v>
       </c>
       <c r="B173" s="27" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.25">
@@ -3154,7 +3148,7 @@
         <v>69</v>
       </c>
       <c r="B174" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.25">
@@ -3162,7 +3156,7 @@
         <v>70</v>
       </c>
       <c r="B175" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="176" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -3170,7 +3164,7 @@
         <v>71</v>
       </c>
       <c r="B176" s="27" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.25">
@@ -3184,7 +3178,7 @@
         <v>74</v>
       </c>
       <c r="B178" s="27" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.25">
@@ -3192,7 +3186,7 @@
         <v>75</v>
       </c>
       <c r="B179" s="27" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.25">
@@ -3200,7 +3194,7 @@
         <v>76</v>
       </c>
       <c r="B180" s="27" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.25">
@@ -3208,7 +3202,7 @@
         <v>77</v>
       </c>
       <c r="B181" s="27" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="182" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3221,7 +3215,7 @@
         <v>65</v>
       </c>
       <c r="B184" s="25" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.25">
@@ -3235,7 +3229,7 @@
         <v>67</v>
       </c>
       <c r="B186" s="27" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.25">
@@ -3243,7 +3237,7 @@
         <v>68</v>
       </c>
       <c r="B187" s="27" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.25">
@@ -3251,7 +3245,7 @@
         <v>69</v>
       </c>
       <c r="B188" s="27" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.25">
@@ -3259,7 +3253,7 @@
         <v>70</v>
       </c>
       <c r="B189" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.25">
@@ -3267,7 +3261,7 @@
         <v>71</v>
       </c>
       <c r="B190" s="27" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.25">
@@ -3281,7 +3275,7 @@
         <v>74</v>
       </c>
       <c r="B192" s="27" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="193" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3289,7 +3283,7 @@
         <v>75</v>
       </c>
       <c r="B193" s="28" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="194" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3298,7 +3292,7 @@
         <v>65</v>
       </c>
       <c r="B195" s="25" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.25">
@@ -3312,7 +3306,7 @@
         <v>67</v>
       </c>
       <c r="B197" s="27" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.25">
@@ -3320,7 +3314,7 @@
         <v>68</v>
       </c>
       <c r="B198" s="27" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.25">
@@ -3328,7 +3322,7 @@
         <v>106</v>
       </c>
       <c r="B199" s="27" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.25">
@@ -3336,7 +3330,7 @@
         <v>107</v>
       </c>
       <c r="B200" s="27" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.25">
@@ -3344,7 +3338,7 @@
         <v>69</v>
       </c>
       <c r="B201" s="27" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.25">
@@ -3352,7 +3346,7 @@
         <v>70</v>
       </c>
       <c r="B202" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="203" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -3360,7 +3354,7 @@
         <v>71</v>
       </c>
       <c r="B203" s="27" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.25">
@@ -3374,7 +3368,7 @@
         <v>74</v>
       </c>
       <c r="B205" s="27" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="206" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3382,7 +3376,7 @@
         <v>75</v>
       </c>
       <c r="B206" s="28" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
     </row>
     <row r="207" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3"/>
@@ -3391,7 +3385,7 @@
         <v>65</v>
       </c>
       <c r="B208" s="25" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.25">
@@ -3413,7 +3407,7 @@
         <v>68</v>
       </c>
       <c r="B211" s="27" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.25">
@@ -3421,7 +3415,7 @@
         <v>106</v>
       </c>
       <c r="B212" s="27" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.25">
@@ -3437,7 +3431,7 @@
         <v>69</v>
       </c>
       <c r="B214" s="27" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.25">
@@ -3445,7 +3439,7 @@
         <v>70</v>
       </c>
       <c r="B215" s="27" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="216" spans="1:2" ht="31.5" x14ac:dyDescent="0.25">
@@ -3453,7 +3447,7 @@
         <v>71</v>
       </c>
       <c r="B216" s="27" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.25">
@@ -3467,7 +3461,7 @@
         <v>74</v>
       </c>
       <c r="B218" s="27" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.25">
@@ -3475,7 +3469,7 @@
         <v>75</v>
       </c>
       <c r="B219" s="27" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.25">
@@ -3483,7 +3477,7 @@
         <v>76</v>
       </c>
       <c r="B220" s="27" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.25">
@@ -3491,7 +3485,7 @@
         <v>77</v>
       </c>
       <c r="B221" s="27" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.25">
@@ -3505,7 +3499,7 @@
         <v>78</v>
       </c>
       <c r="B223" s="27" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
     </row>
     <row r="224" spans="1:2" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -3513,7 +3507,7 @@
         <v>79</v>
       </c>
       <c r="B224" s="28" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
   </sheetData>
